--- a/Thesis/Code/enron_dynet_attvol_lap.xlsx
+++ b/Thesis/Code/enron_dynet_attvol_lap.xlsx
@@ -666,19 +666,19 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.192307692307692</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="D2">
         <v>0.125</v>
       </c>
       <c r="E2">
-        <v>0.188611313365478</v>
+        <v>0.1886113133654776</v>
       </c>
       <c r="F2">
-        <v>0.18543463409279</v>
+        <v>0.1854346340927896</v>
       </c>
       <c r="G2">
         <v>0.125</v>
@@ -690,40 +690,40 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="K2">
-        <v>-0.196246760424671</v>
+        <v>-0.1962467604246706</v>
       </c>
       <c r="L2">
-        <v>0.707122866069802</v>
+        <v>0.7071228660698021</v>
       </c>
       <c r="M2">
-        <v>0.108321586956813</v>
+        <v>0.1083215869568129</v>
       </c>
       <c r="N2">
-        <v>-0.0449993569353699</v>
+        <v>-0.04499935693536994</v>
       </c>
       <c r="O2">
-        <v>0.00523670036971136</v>
+        <v>0.005236700369711357</v>
       </c>
       <c r="P2">
-        <v>-0.0133575759215055</v>
+        <v>-0.01335757592150546</v>
       </c>
       <c r="Q2">
-        <v>-0.0485375153620715</v>
+        <v>-0.04853751536207153</v>
       </c>
       <c r="R2">
-        <v>0.369891386380605</v>
+        <v>0.3698913863806054</v>
       </c>
       <c r="S2">
-        <v>-0.216445239967086</v>
+        <v>-0.2164452399670858</v>
       </c>
       <c r="T2">
-        <v>0.345301423907833</v>
+        <v>0.3453014239078329</v>
       </c>
       <c r="U2">
-        <v>1.60383986423538</v>
+        <v>1.603839864235384</v>
       </c>
       <c r="V2">
         <v>0.894427190999916</v>
@@ -746,79 +746,79 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>0.145454545454545</v>
+        <v>0.1454545454545455</v>
       </c>
       <c r="C3">
-        <v>0.242736967195172</v>
+        <v>0.2427369671951715</v>
       </c>
       <c r="D3">
-        <v>0.0868686868686869</v>
+        <v>0.08686868686868687</v>
       </c>
       <c r="E3">
-        <v>0.198999299503384</v>
+        <v>0.1989992995033837</v>
       </c>
       <c r="F3">
-        <v>0.175110542980077</v>
+        <v>0.1751105429800769</v>
       </c>
       <c r="G3">
-        <v>0.0868686868686869</v>
+        <v>0.08686868686868687</v>
       </c>
       <c r="H3">
-        <v>0.218181818181818</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="I3">
-        <v>0.246464646464646</v>
+        <v>0.2464646464646465</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>-0.199212484783527</v>
+        <v>-0.1992124847835268</v>
       </c>
       <c r="L3">
-        <v>0.618426877812352</v>
+        <v>0.6184268778123516</v>
       </c>
       <c r="M3">
-        <v>0.207330573242956</v>
+        <v>0.2073305732429563</v>
       </c>
       <c r="N3">
-        <v>0.241116635589403</v>
+        <v>0.2411166355894028</v>
       </c>
       <c r="O3">
         <v>0.00872589419574727</v>
       </c>
       <c r="P3">
-        <v>-0.00942284041170726</v>
+        <v>-0.009422840411707259</v>
       </c>
       <c r="Q3">
         <v>-0.012272809832913</v>
       </c>
       <c r="R3">
-        <v>0.210646573548342</v>
+        <v>0.2106465735483418</v>
       </c>
       <c r="S3">
-        <v>1.75391191412063</v>
+        <v>1.753911914120626</v>
       </c>
       <c r="T3">
-        <v>1.25514048155862</v>
+        <v>1.255140481558623</v>
       </c>
       <c r="U3">
         <v>1.80404959028772</v>
       </c>
       <c r="V3">
-        <v>0.908295106229248</v>
+        <v>0.9082951062292476</v>
       </c>
       <c r="W3">
-        <v>-0.310794340746057</v>
+        <v>-0.3107943407460569</v>
       </c>
       <c r="X3">
-        <v>1.47806084097062</v>
+        <v>1.478060840970622</v>
       </c>
       <c r="Y3">
-        <v>0.0144432326373981</v>
+        <v>0.01444323263739811</v>
       </c>
       <c r="Z3">
-        <v>0.447999483930508</v>
+        <v>0.4479994839305085</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -826,43 +826,43 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>0.0833333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C4">
         <v>0.117056856187291</v>
       </c>
       <c r="D4">
-        <v>0.0769230769230769</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E4">
-        <v>0.132902115949708</v>
+        <v>0.1329021159497081</v>
       </c>
       <c r="F4">
-        <v>0.0576923076923077</v>
+        <v>0.05769230769230771</v>
       </c>
       <c r="G4">
-        <v>0.0769230769230769</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H4">
-        <v>0.153846153846154</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="K4">
-        <v>-0.206794974389996</v>
+        <v>-0.2067949743899957</v>
       </c>
       <c r="L4">
-        <v>0.572493388347261</v>
+        <v>0.5724933883472606</v>
       </c>
       <c r="M4">
-        <v>0.322529326994284</v>
+        <v>0.3225293269942843</v>
       </c>
       <c r="N4">
-        <v>0.140565249626367</v>
+        <v>0.1405652496263672</v>
       </c>
       <c r="O4">
         <v>0.00800787508793192</v>
@@ -871,34 +871,34 @@
         <v>0.00566931638437425</v>
       </c>
       <c r="Q4">
-        <v>-0.14489124636656</v>
+        <v>-0.1448912463665599</v>
       </c>
       <c r="R4">
-        <v>0.149447464849332</v>
+        <v>0.1494474648493321</v>
       </c>
       <c r="S4">
-        <v>0.956219644258917</v>
+        <v>0.9562196442589168</v>
       </c>
       <c r="T4">
-        <v>2.26563421242698</v>
+        <v>2.265634212426979</v>
       </c>
       <c r="U4">
-        <v>1.75126687346235</v>
+        <v>1.751266873462354</v>
       </c>
       <c r="V4">
-        <v>0.930949336251263</v>
+        <v>0.9309493362512626</v>
       </c>
       <c r="W4">
-        <v>0.538397982609507</v>
+        <v>0.5383979826095068</v>
       </c>
       <c r="X4">
-        <v>0.89568857487168</v>
+        <v>0.8956885748716797</v>
       </c>
       <c r="Y4">
-        <v>0.0153203916841103</v>
+        <v>0.01532039168411032</v>
       </c>
       <c r="Z4">
-        <v>-0.0453220358057964</v>
+        <v>-0.04532203580579625</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -909,76 +909,76 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.555555555555555</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="D5">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5">
-        <v>0.569035593728849</v>
+        <v>0.5690355937288492</v>
       </c>
       <c r="F5">
-        <v>0.390223058895454</v>
+        <v>0.3902230588954538</v>
       </c>
       <c r="G5">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H5">
-        <v>0.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="K5">
-        <v>-0.0587497473260579</v>
+        <v>-0.05874974732605791</v>
       </c>
       <c r="L5">
         <v>1.27022363692625</v>
       </c>
       <c r="M5">
-        <v>0.741508108938322</v>
+        <v>0.7415081089383215</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.46716227694479e-17</v>
+        <v>2.467162276944792e-17</v>
       </c>
       <c r="P5">
-        <v>0.0281726826371258</v>
+        <v>0.02817268263712584</v>
       </c>
       <c r="Q5">
-        <v>-0.451282106877526</v>
+        <v>-0.4512821068775263</v>
       </c>
       <c r="R5">
-        <v>0.667721444754535</v>
+        <v>0.6677214447545347</v>
       </c>
       <c r="S5">
-        <v>-1.2335811384724e-17</v>
+        <v>-1.233581138472396e-17</v>
       </c>
       <c r="T5">
-        <v>2.71409499247695</v>
+        <v>2.714094992476945</v>
       </c>
       <c r="U5">
-        <v>0.99046817359701</v>
+        <v>0.9904681735970102</v>
       </c>
       <c r="V5">
-        <v>0.774596669241483</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="W5">
-        <v>-1.05191082665109</v>
+        <v>-1.051910826651087</v>
       </c>
       <c r="X5">
-        <v>0.487905759876115</v>
+        <v>0.4879057598761152</v>
       </c>
       <c r="Y5">
-        <v>0.0116279069767442</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="Z5">
-        <v>0.054747440655697</v>
+        <v>0.0547474406556968</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -989,76 +989,76 @@
         <v>0.2</v>
       </c>
       <c r="C6">
-        <v>0.259259259259259</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="D6">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
-        <v>0.275965013206177</v>
+        <v>0.2759650132061769</v>
       </c>
       <c r="F6">
-        <v>0.277684053800249</v>
+        <v>0.2776840538002493</v>
       </c>
       <c r="G6">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H6">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="K6">
-        <v>-0.157405383455039</v>
+        <v>-0.1574053834550387</v>
       </c>
       <c r="L6">
-        <v>0.817855036892375</v>
+        <v>0.8178550368923746</v>
       </c>
       <c r="M6">
-        <v>0.398470407437351</v>
+        <v>0.3984704074373512</v>
       </c>
       <c r="N6">
-        <v>0.217588599182598</v>
+        <v>0.2175885991825981</v>
       </c>
       <c r="O6">
-        <v>-0.0200118081669496</v>
+        <v>-0.02001180816694959</v>
       </c>
       <c r="P6">
-        <v>0.0582045725599443</v>
+        <v>0.05820457255994432</v>
       </c>
       <c r="Q6">
-        <v>-0.279494211027228</v>
+        <v>-0.2794942110272285</v>
       </c>
       <c r="R6">
-        <v>0.550674398080561</v>
+        <v>0.5506743980805605</v>
       </c>
       <c r="S6">
-        <v>1.04983264422004</v>
+        <v>1.049832644220043</v>
       </c>
       <c r="T6">
-        <v>1.70348091513135</v>
+        <v>1.703480915131351</v>
       </c>
       <c r="U6">
-        <v>1.47877966604166</v>
+        <v>1.478779666041661</v>
       </c>
       <c r="V6">
-        <v>0.866025403784439</v>
+        <v>0.8660254037844387</v>
       </c>
       <c r="W6">
         <v>1.69741990976954</v>
       </c>
       <c r="X6">
-        <v>1.31832895468212</v>
+        <v>1.318328954682116</v>
       </c>
       <c r="Y6">
         <v>0.0144226435568847</v>
       </c>
       <c r="Z6">
-        <v>0.155015472366148</v>
+        <v>0.1550154723661482</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1069,76 +1069,76 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.555555555555555</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="D7">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7">
-        <v>0.569035593728849</v>
+        <v>0.5690355937288492</v>
       </c>
       <c r="F7">
-        <v>0.390223058895454</v>
+        <v>0.3902230588954538</v>
       </c>
       <c r="G7">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7">
-        <v>0.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K7">
-        <v>-0.0587497473260579</v>
+        <v>-0.05874974732605791</v>
       </c>
       <c r="L7">
         <v>1.27022363692625</v>
       </c>
       <c r="M7">
-        <v>0.741508108938322</v>
+        <v>0.7415081089383215</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.46716227694479e-17</v>
+        <v>2.467162276944792e-17</v>
       </c>
       <c r="P7">
-        <v>0.0281726826371258</v>
+        <v>0.02817268263712584</v>
       </c>
       <c r="Q7">
-        <v>-0.451282106877526</v>
+        <v>-0.4512821068775263</v>
       </c>
       <c r="R7">
-        <v>0.667721444754535</v>
+        <v>0.6677214447545347</v>
       </c>
       <c r="S7">
-        <v>-1.2335811384724e-17</v>
+        <v>-1.233581138472396e-17</v>
       </c>
       <c r="T7">
-        <v>2.71409499247695</v>
+        <v>2.714094992476945</v>
       </c>
       <c r="U7">
-        <v>0.99046817359701</v>
+        <v>0.9904681735970102</v>
       </c>
       <c r="V7">
-        <v>0.774596669241483</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="W7">
         <v>-1.69741990976954</v>
       </c>
       <c r="X7">
-        <v>0.75853602126271</v>
+        <v>0.7585360212627104</v>
       </c>
       <c r="Y7">
         <v>0.0144226435568847</v>
       </c>
       <c r="Z7">
-        <v>-0.18503739333232</v>
+        <v>-0.1850373933323195</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1146,13 +1146,13 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.120879120879121</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C8">
-        <v>0.372644273583412</v>
+        <v>0.3726442735834123</v>
       </c>
       <c r="D8">
-        <v>0.110805860805861</v>
+        <v>0.1108058608058608</v>
       </c>
       <c r="E8">
         <v>0.224884496487303</v>
@@ -1161,64 +1161,64 @@
         <v>0.26306750102135</v>
       </c>
       <c r="G8">
-        <v>0.110805860805861</v>
+        <v>0.1108058608058608</v>
       </c>
       <c r="H8">
-        <v>0.21978021978022</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="I8">
-        <v>0.462244897959184</v>
+        <v>0.4622448979591837</v>
       </c>
       <c r="J8">
-        <v>0.288444740565959</v>
+        <v>0.2884447405659595</v>
       </c>
       <c r="K8">
-        <v>-0.170820396579082</v>
+        <v>-0.1708203965790822</v>
       </c>
       <c r="L8">
-        <v>0.542659646515045</v>
+        <v>0.5426596465150449</v>
       </c>
       <c r="M8">
-        <v>0.155682715973773</v>
+        <v>0.1556827159737727</v>
       </c>
       <c r="N8">
-        <v>0.0555696657568417</v>
+        <v>0.05556966575684169</v>
       </c>
       <c r="O8">
-        <v>0.00389833963695982</v>
+        <v>0.003898339636959821</v>
       </c>
       <c r="P8">
-        <v>0.0124880719009</v>
+        <v>0.01248807190090003</v>
       </c>
       <c r="Q8">
-        <v>-0.0428884629464903</v>
+        <v>-0.04288846294649031</v>
       </c>
       <c r="R8">
-        <v>0.280879270457521</v>
+        <v>0.2808792704575214</v>
       </c>
       <c r="S8">
-        <v>0.436971650946042</v>
+        <v>0.4369716509460416</v>
       </c>
       <c r="T8">
-        <v>1.13613234829841</v>
+        <v>1.136132348298414</v>
       </c>
       <c r="U8">
-        <v>2.99976016185179</v>
+        <v>2.999760161851788</v>
       </c>
       <c r="V8">
-        <v>0.875199449684285</v>
+        <v>0.8751994496842849</v>
       </c>
       <c r="W8">
         <v>1.04529271084357</v>
       </c>
       <c r="X8">
-        <v>2.01279597217926</v>
+        <v>2.012795972179264</v>
       </c>
       <c r="Y8">
         <v>0.010778280692413</v>
       </c>
       <c r="Z8">
-        <v>0.123830815887485</v>
+        <v>0.1238308158874847</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1226,79 +1226,79 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>0.0661764705882353</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="C9">
-        <v>0.157004177924775</v>
+        <v>0.1570041779247753</v>
       </c>
       <c r="D9">
-        <v>0.028921568627451</v>
+        <v>0.02892156862745098</v>
       </c>
       <c r="E9">
-        <v>0.166310529630493</v>
+        <v>0.1663105296304933</v>
       </c>
       <c r="F9">
-        <v>0.191023856513403</v>
+        <v>0.1910238565134025</v>
       </c>
       <c r="G9">
-        <v>0.028921568627451</v>
+        <v>0.02892156862745098</v>
       </c>
       <c r="H9">
-        <v>0.139705882352941</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="I9">
-        <v>0.331652661064426</v>
+        <v>0.3316526610644258</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.206298116256572</v>
+        <v>-0.2062981162565719</v>
       </c>
       <c r="L9">
-        <v>0.562934697555008</v>
+        <v>0.5629346975550076</v>
       </c>
       <c r="M9">
-        <v>0.21940618938659</v>
+        <v>0.2194061893865902</v>
       </c>
       <c r="N9">
-        <v>0.0712064277306582</v>
+        <v>0.07120642773065818</v>
       </c>
       <c r="O9">
-        <v>-0.0115539188513032</v>
+        <v>-0.01155391885130322</v>
       </c>
       <c r="P9">
-        <v>0.00260927369433335</v>
+        <v>0.002609273694333348</v>
       </c>
       <c r="Q9">
-        <v>0.0126137295718523</v>
+        <v>0.01261372957185229</v>
       </c>
       <c r="R9">
-        <v>0.149603588932909</v>
+        <v>0.1496035889329086</v>
       </c>
       <c r="S9">
-        <v>0.695880186725652</v>
+        <v>0.6958801867256523</v>
       </c>
       <c r="T9">
-        <v>2.06482289797069</v>
+        <v>2.064822897970687</v>
       </c>
       <c r="U9">
-        <v>1.85851850115771</v>
+        <v>1.858518501157709</v>
       </c>
       <c r="V9">
-        <v>0.807135917344422</v>
+        <v>0.8071359173444221</v>
       </c>
       <c r="W9">
-        <v>14.0709202030539</v>
+        <v>14.07092020305392</v>
       </c>
       <c r="X9">
-        <v>0.908884467951915</v>
+        <v>0.9088844679519154</v>
       </c>
       <c r="Y9">
-        <v>0.0146335017261222</v>
+        <v>0.01463350172612224</v>
       </c>
       <c r="Z9">
-        <v>0.483769705365232</v>
+        <v>0.4837697053652315</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1306,64 +1306,64 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>0.0947712418300654</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="C10">
-        <v>0.295189094754895</v>
+        <v>0.2951890947548947</v>
       </c>
       <c r="D10">
-        <v>0.100490196078431</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="E10">
-        <v>0.189605762787457</v>
+        <v>0.1896057627874571</v>
       </c>
       <c r="F10">
-        <v>0.221168337143034</v>
+        <v>0.2211683371430339</v>
       </c>
       <c r="G10">
-        <v>0.100490196078431</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="H10">
-        <v>0.189542483660131</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="I10">
-        <v>0.387962962962963</v>
+        <v>0.3879629629629628</v>
       </c>
       <c r="J10">
-        <v>0.238465591590027</v>
+        <v>0.2384655915900276</v>
       </c>
       <c r="K10">
-        <v>-0.176051138447516</v>
+        <v>-0.1760511384475156</v>
       </c>
       <c r="L10">
-        <v>0.466303738447406</v>
+        <v>0.4663037384474061</v>
       </c>
       <c r="M10">
-        <v>0.103530873951423</v>
+        <v>0.1035308739514229</v>
       </c>
       <c r="N10">
-        <v>-0.0179859396286452</v>
+        <v>-0.01798593962864525</v>
       </c>
       <c r="O10">
-        <v>0.0012197536997668</v>
+        <v>0.001219753699766798</v>
       </c>
       <c r="P10">
-        <v>-0.0019606400934367</v>
+        <v>-0.001960640093436703</v>
       </c>
       <c r="Q10">
-        <v>0.0351036320366731</v>
+        <v>0.03510363203667307</v>
       </c>
       <c r="R10">
-        <v>0.224424016658607</v>
+        <v>0.2244240166586075</v>
       </c>
       <c r="S10">
-        <v>-0.18318389739985</v>
+        <v>-0.1831838973998497</v>
       </c>
       <c r="T10">
-        <v>0.867579908342579</v>
+        <v>0.8675799083425787</v>
       </c>
       <c r="U10">
-        <v>3.27908465014459</v>
+        <v>3.279084650144586</v>
       </c>
       <c r="V10">
         <v>0.877326717582169</v>
@@ -1372,10 +1372,10 @@
         <v>-13.6340352261333</v>
       </c>
       <c r="X10">
-        <v>1.72134344587126</v>
+        <v>1.721343445871258</v>
       </c>
       <c r="Y10">
-        <v>0.0140693853091196</v>
+        <v>0.01406938530911959</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1386,76 +1386,76 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>0.0887445887445887</v>
+        <v>0.08874458874458874</v>
       </c>
       <c r="C11">
-        <v>0.223778197136559</v>
+        <v>0.2237781971365593</v>
       </c>
       <c r="D11">
-        <v>0.0571428571428571</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E11">
-        <v>0.140038689430161</v>
+        <v>0.1400386894301608</v>
       </c>
       <c r="F11">
-        <v>0.183911998623885</v>
+        <v>0.1839119986238853</v>
       </c>
       <c r="G11">
-        <v>0.0571428571428571</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H11">
-        <v>0.147186147186147</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="I11">
-        <v>0.328463203463203</v>
+        <v>0.3284632034632034</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.210156245188407</v>
+        <v>-0.2101562451884072</v>
       </c>
       <c r="L11">
-        <v>0.434557703773674</v>
+        <v>0.4345577037736736</v>
       </c>
       <c r="M11">
-        <v>0.166175158335423</v>
+        <v>0.1661751583354228</v>
       </c>
       <c r="N11">
-        <v>0.0155948744602361</v>
+        <v>0.01559487446023613</v>
       </c>
       <c r="O11">
-        <v>0.00328456024331307</v>
+        <v>0.003284560243313071</v>
       </c>
       <c r="P11">
-        <v>0.00630201738911904</v>
+        <v>0.006302017389119043</v>
       </c>
       <c r="Q11">
-        <v>0.00257764562893796</v>
+        <v>0.002577645628937957</v>
       </c>
       <c r="R11">
-        <v>0.252606405952974</v>
+        <v>0.2526064059529742</v>
       </c>
       <c r="S11">
-        <v>0.0984857249303236</v>
+        <v>0.09848572493032363</v>
       </c>
       <c r="T11">
-        <v>1.56458947739323</v>
+        <v>1.564589477393232</v>
       </c>
       <c r="U11">
-        <v>2.64665190728862</v>
+        <v>2.646651907288623</v>
       </c>
       <c r="V11">
-        <v>0.866815032280218</v>
+        <v>0.8668150322802175</v>
       </c>
       <c r="W11">
-        <v>-0.192578685742613</v>
+        <v>-0.1925786857426129</v>
       </c>
       <c r="X11">
-        <v>0.817432300754284</v>
+        <v>0.8174323007542839</v>
       </c>
       <c r="Y11">
-        <v>0.0146604642632208</v>
+        <v>0.01466046426322081</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1466,79 +1466,79 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>0.0711462450592885</v>
+        <v>0.07114624505928853</v>
       </c>
       <c r="C12">
-        <v>0.275118709328379</v>
+        <v>0.2751187093283788</v>
       </c>
       <c r="D12">
         <v>0.077733860342556</v>
       </c>
       <c r="E12">
-        <v>0.152944989841292</v>
+        <v>0.1529449898412922</v>
       </c>
       <c r="F12">
-        <v>0.189669125046814</v>
+        <v>0.1896691250468145</v>
       </c>
       <c r="G12">
         <v>0.077733860342556</v>
       </c>
       <c r="H12">
-        <v>0.146245059288538</v>
+        <v>0.1462450592885375</v>
       </c>
       <c r="I12">
-        <v>0.311242863416776</v>
+        <v>0.3112428634167764</v>
       </c>
       <c r="J12">
-        <v>0.159162627197144</v>
+        <v>0.1591626271971439</v>
       </c>
       <c r="K12">
-        <v>-0.196526804855736</v>
+        <v>-0.1965268048557363</v>
       </c>
       <c r="L12">
-        <v>0.480983217444304</v>
+        <v>0.4809832174443036</v>
       </c>
       <c r="M12">
-        <v>0.0822056478409405</v>
+        <v>0.08220564784094048</v>
       </c>
       <c r="N12">
-        <v>0.051903732997595</v>
+        <v>0.05190373299759497</v>
       </c>
       <c r="O12">
         <v>0.000937584186792267</v>
       </c>
       <c r="P12">
-        <v>-0.000271422356818972</v>
+        <v>-0.0002714223568189722</v>
       </c>
       <c r="Q12">
-        <v>-0.0589987343165555</v>
+        <v>-0.05899873431655546</v>
       </c>
       <c r="R12">
         <v>0.138328722680016</v>
       </c>
       <c r="S12">
-        <v>0.56137724230637</v>
+        <v>0.5613772423063702</v>
       </c>
       <c r="T12">
-        <v>0.873609664017829</v>
+        <v>0.8736096640178295</v>
       </c>
       <c r="U12">
-        <v>3.60129484592719</v>
+        <v>3.601294845927185</v>
       </c>
       <c r="V12">
         <v>0.864472116206825</v>
       </c>
       <c r="W12">
-        <v>1.0337269710037</v>
+        <v>1.033726971003696</v>
       </c>
       <c r="X12">
-        <v>1.22070400001624</v>
+        <v>1.220704000016236</v>
       </c>
       <c r="Y12">
-        <v>0.0126813590867767</v>
+        <v>0.01268135908677668</v>
       </c>
       <c r="Z12">
-        <v>0.238364489148295</v>
+        <v>0.2383644891482947</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1546,79 +1546,79 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>0.0707692307692308</v>
+        <v>0.07076923076923078</v>
       </c>
       <c r="C13">
-        <v>0.169031874379257</v>
+        <v>0.1690318743792574</v>
       </c>
       <c r="D13">
-        <v>0.0288034188034188</v>
+        <v>0.02880341880341881</v>
       </c>
       <c r="E13">
-        <v>0.136185194327928</v>
+        <v>0.1361851943279277</v>
       </c>
       <c r="F13">
-        <v>0.17244723549779</v>
+        <v>0.1724472354977904</v>
       </c>
       <c r="G13">
-        <v>0.0288034188034188</v>
+        <v>0.02880341880341881</v>
       </c>
       <c r="H13">
-        <v>0.126153846153846</v>
+        <v>0.1261538461538461</v>
       </c>
       <c r="I13">
-        <v>0.330001408847563</v>
+        <v>0.3300014088475627</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.203658323643238</v>
+        <v>-0.2036583236432377</v>
       </c>
       <c r="L13">
-        <v>0.417165580465977</v>
+        <v>0.4171655804659767</v>
       </c>
       <c r="M13">
-        <v>0.191127730423139</v>
+        <v>0.1911277304231394</v>
       </c>
       <c r="N13">
-        <v>-0.00208608351790336</v>
+        <v>-0.002086083517903355</v>
       </c>
       <c r="O13">
-        <v>0.00100472028478111</v>
+        <v>0.001004720284781111</v>
       </c>
       <c r="P13">
-        <v>-0.00157762626189479</v>
+        <v>-0.001577626261894795</v>
       </c>
       <c r="Q13">
-        <v>0.010606835287258</v>
+        <v>0.01060683528725797</v>
       </c>
       <c r="R13">
-        <v>0.24206070582967</v>
+        <v>0.2420607058296695</v>
       </c>
       <c r="S13">
-        <v>0.00918503072751308</v>
+        <v>0.009185030727513083</v>
       </c>
       <c r="T13">
-        <v>1.94223309670409</v>
+        <v>1.942233096704093</v>
       </c>
       <c r="U13">
         <v>2.30044561405935</v>
       </c>
       <c r="V13">
-        <v>0.882611041995053</v>
+        <v>0.8826110419950534</v>
       </c>
       <c r="W13">
-        <v>-1.63461113465214</v>
+        <v>-1.634611134652137</v>
       </c>
       <c r="X13">
-        <v>1.26845788294828</v>
+        <v>1.268457882948276</v>
       </c>
       <c r="Y13">
-        <v>0.0150110876767611</v>
+        <v>0.01501108767676111</v>
       </c>
       <c r="Z13">
-        <v>-0.358161479693835</v>
+        <v>-0.3581614796938349</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1626,79 +1626,79 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>0.0857142857142857</v>
+        <v>0.08571428571428573</v>
       </c>
       <c r="C14">
-        <v>0.179564014473042</v>
+        <v>0.1795640144730419</v>
       </c>
       <c r="D14">
-        <v>0.0511278195488722</v>
+        <v>0.05112781954887218</v>
       </c>
       <c r="E14">
-        <v>0.147848044117481</v>
+        <v>0.1478480441174808</v>
       </c>
       <c r="F14">
-        <v>0.194930973777029</v>
+        <v>0.1949309737770292</v>
       </c>
       <c r="G14">
-        <v>0.0511278195488722</v>
+        <v>0.05112781954887218</v>
       </c>
       <c r="H14">
-        <v>0.142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I14">
-        <v>0.24671201814059</v>
+        <v>0.2467120181405896</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.181724391419811</v>
+        <v>-0.1817243914198106</v>
       </c>
       <c r="L14">
-        <v>0.471686267339045</v>
+        <v>0.4716862673390449</v>
       </c>
       <c r="M14">
-        <v>0.299122198827776</v>
+        <v>0.2991221988277762</v>
       </c>
       <c r="N14">
         <v>0.0260732122901997</v>
       </c>
       <c r="O14">
-        <v>0.00153946641530762</v>
+        <v>0.001539466415307616</v>
       </c>
       <c r="P14">
-        <v>0.00316977639007487</v>
+        <v>0.003169776390074866</v>
       </c>
       <c r="Q14">
-        <v>-0.0351738994298548</v>
+        <v>-0.03517389942985477</v>
       </c>
       <c r="R14">
-        <v>0.148699385268202</v>
+        <v>0.1486993852682018</v>
       </c>
       <c r="S14">
-        <v>0.249958193542512</v>
+        <v>0.2499581935425119</v>
       </c>
       <c r="T14">
-        <v>2.88826893497679</v>
+        <v>2.888268934976789</v>
       </c>
       <c r="U14">
-        <v>2.40865514191426</v>
+        <v>2.408655141914263</v>
       </c>
       <c r="V14">
-        <v>0.868312685532289</v>
+        <v>0.8683126855322889</v>
       </c>
       <c r="W14">
         <v>2.22407908330382</v>
       </c>
       <c r="X14">
-        <v>0.603924264107491</v>
+        <v>0.6039242641074914</v>
       </c>
       <c r="Y14">
-        <v>0.0144114044132633</v>
+        <v>0.01441140441326328</v>
       </c>
       <c r="Z14">
-        <v>0.413917603076899</v>
+        <v>0.4139176030768987</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1706,79 +1706,79 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>0.0256892230576441</v>
+        <v>0.02568922305764411</v>
       </c>
       <c r="C15">
-        <v>0.147366507037232</v>
+        <v>0.1473665070372319</v>
       </c>
       <c r="D15">
-        <v>0.0388357256778309</v>
+        <v>0.03883572567783095</v>
       </c>
       <c r="E15">
-        <v>0.0699805257841254</v>
+        <v>0.06998052578412543</v>
       </c>
       <c r="F15">
-        <v>0.106213076196652</v>
+        <v>0.1062130761966523</v>
       </c>
       <c r="G15">
-        <v>0.0388357256778309</v>
+        <v>0.03883572567783095</v>
       </c>
       <c r="H15">
-        <v>0.0538847117794486</v>
+        <v>0.05388471177944862</v>
       </c>
       <c r="I15">
-        <v>0.207714771182263</v>
+        <v>0.2077147711822634</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.23153039933072</v>
+        <v>-0.2315303993307199</v>
       </c>
       <c r="L15">
-        <v>0.309685078534734</v>
+        <v>0.3096850785347343</v>
       </c>
       <c r="M15">
-        <v>-0.0270740083446561</v>
+        <v>-0.02707400834465611</v>
       </c>
       <c r="N15">
-        <v>0.0178159795753498</v>
+        <v>0.01781597957534981</v>
       </c>
       <c r="O15">
-        <v>-0.000578366690273433</v>
+        <v>-0.0005783666902734328</v>
       </c>
       <c r="P15">
         <v>-0.000297548393679581</v>
       </c>
       <c r="Q15">
-        <v>-0.00597074058808397</v>
+        <v>-0.005970740588083973</v>
       </c>
       <c r="R15">
-        <v>0.0517563383985708</v>
+        <v>0.05175633839857083</v>
       </c>
       <c r="S15">
-        <v>0.307814874254852</v>
+        <v>0.3078148742548518</v>
       </c>
       <c r="T15">
-        <v>-0.47246324086553</v>
+        <v>-0.4724632408655297</v>
       </c>
       <c r="U15">
-        <v>3.91014917138463</v>
+        <v>3.910149171384632</v>
       </c>
       <c r="V15">
-        <v>0.886019297085595</v>
+        <v>0.8860192970855953</v>
       </c>
       <c r="W15">
-        <v>0.700871081985116</v>
+        <v>0.7008710819851158</v>
       </c>
       <c r="X15">
         <v>3.47512635591994</v>
       </c>
       <c r="Y15">
-        <v>0.0117327874776519</v>
+        <v>0.01173278747765192</v>
       </c>
       <c r="Z15">
-        <v>-0.132478793920336</v>
+        <v>-0.1324787939203355</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1786,79 +1786,79 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>0.0223776223776224</v>
+        <v>0.02237762237762238</v>
       </c>
       <c r="C16">
-        <v>0.165627662340844</v>
+        <v>0.1656276623408439</v>
       </c>
       <c r="D16">
-        <v>0.0349478126040626</v>
+        <v>0.03494781260406261</v>
       </c>
       <c r="E16">
-        <v>0.0688937933411225</v>
+        <v>0.06889379334112247</v>
       </c>
       <c r="F16">
-        <v>0.0995557405453889</v>
+        <v>0.09955574054538889</v>
       </c>
       <c r="G16">
         <v>0.0349509366501554</v>
       </c>
       <c r="H16">
-        <v>0.0503496503496504</v>
+        <v>0.05034965034965035</v>
       </c>
       <c r="I16">
-        <v>0.167911633820725</v>
+        <v>0.1679116338207247</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.224650227251936</v>
+        <v>-0.2246502272519364</v>
       </c>
       <c r="L16">
-        <v>0.277579871687265</v>
+        <v>0.2775798716872654</v>
       </c>
       <c r="M16">
-        <v>0.0328668938995324</v>
+        <v>0.03286689389953239</v>
       </c>
       <c r="N16">
         <v>0.00160131401067385</v>
       </c>
       <c r="O16">
-        <v>-0.000493238466812668</v>
+        <v>-0.0004932384668126683</v>
       </c>
       <c r="P16">
-        <v>-0.00125271233193707</v>
+        <v>-0.001252712331937072</v>
       </c>
       <c r="Q16">
-        <v>0.00471851973131614</v>
+        <v>0.004718519731316142</v>
       </c>
       <c r="R16">
-        <v>0.0559820956748534</v>
+        <v>0.05598209567485343</v>
       </c>
       <c r="S16">
-        <v>0.0163260351307649</v>
+        <v>0.01632603513076485</v>
       </c>
       <c r="T16">
-        <v>0.559209850154011</v>
+        <v>0.5592098501540115</v>
       </c>
       <c r="U16">
-        <v>3.99559473284366</v>
+        <v>3.995594732843662</v>
       </c>
       <c r="V16">
-        <v>0.874580664789574</v>
+        <v>0.8745806647895743</v>
       </c>
       <c r="W16">
-        <v>-2.8331062521871</v>
+        <v>-2.833106252187105</v>
       </c>
       <c r="X16">
-        <v>0.648501521447253</v>
+        <v>0.6485015214472533</v>
       </c>
       <c r="Y16">
-        <v>0.0144638770879786</v>
+        <v>0.01446387708797865</v>
       </c>
       <c r="Z16">
-        <v>-0.57735225429387</v>
+        <v>-0.5773522542938702</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1866,79 +1866,79 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>0.0266257040450589</v>
+        <v>0.02662570404505888</v>
       </c>
       <c r="C17">
-        <v>0.208592874032934</v>
+        <v>0.2085928740329342</v>
       </c>
       <c r="D17">
-        <v>0.0353255645051369</v>
+        <v>0.03532556450513692</v>
       </c>
       <c r="E17">
-        <v>0.083169663428687</v>
+        <v>0.08316966342868701</v>
       </c>
       <c r="F17">
-        <v>0.104651531925811</v>
+        <v>0.1046515319258108</v>
       </c>
       <c r="G17">
-        <v>0.0353609391344528</v>
+        <v>0.03536093913445276</v>
       </c>
       <c r="H17">
-        <v>0.0614439324116743</v>
+        <v>0.06144393241167435</v>
       </c>
       <c r="I17">
-        <v>0.381450114908762</v>
+        <v>0.3814501149087615</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>-0.210329892699916</v>
+        <v>-0.2103298926999155</v>
       </c>
       <c r="L17">
-        <v>0.281748546300824</v>
+        <v>0.2817485463008241</v>
       </c>
       <c r="M17">
-        <v>0.0777366654642959</v>
+        <v>0.07773666546429595</v>
       </c>
       <c r="N17">
-        <v>-0.000124001399021118</v>
+        <v>-0.0001240013990211175</v>
       </c>
       <c r="O17">
-        <v>0.00112109783972034</v>
+        <v>0.001121097839720343</v>
       </c>
       <c r="P17">
-        <v>-0.00140402990808853</v>
+        <v>-0.001404029908088531</v>
       </c>
       <c r="Q17">
-        <v>0.00126872972129382</v>
+        <v>0.001268729721293819</v>
       </c>
       <c r="R17">
-        <v>0.080870076275406</v>
+        <v>0.08087007627540604</v>
       </c>
       <c r="S17">
-        <v>-0.00529401535446122</v>
+        <v>-0.005294015354461219</v>
       </c>
       <c r="T17">
-        <v>1.39659784307366</v>
+        <v>1.396597843073655</v>
       </c>
       <c r="U17">
-        <v>3.59628811091275</v>
+        <v>3.596288110912752</v>
       </c>
       <c r="V17">
-        <v>0.906442057572407</v>
+        <v>0.9064420575724069</v>
       </c>
       <c r="W17">
-        <v>1.17264436501075</v>
+        <v>1.172644365010747</v>
       </c>
       <c r="X17">
-        <v>0.986712034676278</v>
+        <v>0.9867120346762777</v>
       </c>
       <c r="Y17">
-        <v>0.0149080112065648</v>
+        <v>0.01490801120656481</v>
       </c>
       <c r="Z17">
-        <v>0.559698651951497</v>
+        <v>0.5596986519514968</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1946,79 +1946,79 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>0.014809329877823</v>
+        <v>0.01480932987782303</v>
       </c>
       <c r="C18">
-        <v>0.157984848152193</v>
+        <v>0.1579848481521933</v>
       </c>
       <c r="D18">
-        <v>0.0465311201612571</v>
+        <v>0.04653112016125715</v>
       </c>
       <c r="E18">
-        <v>0.0657119563945911</v>
+        <v>0.06571195639459108</v>
       </c>
       <c r="F18">
-        <v>0.0973542790063602</v>
+        <v>0.09735427900636016</v>
       </c>
       <c r="G18">
-        <v>0.0465311201612572</v>
+        <v>0.04653112016125716</v>
       </c>
       <c r="H18">
-        <v>0.0459089226212514</v>
+        <v>0.04590892262125139</v>
       </c>
       <c r="I18">
-        <v>0.235756360756361</v>
+        <v>0.2357563607563606</v>
       </c>
       <c r="J18">
-        <v>0.0646489545249878</v>
+        <v>0.06464895452498659</v>
       </c>
       <c r="K18">
-        <v>-0.237276142988631</v>
+        <v>-0.2372761429886313</v>
       </c>
       <c r="L18">
-        <v>0.258870104125833</v>
+        <v>0.2588701041258331</v>
       </c>
       <c r="M18">
-        <v>-0.0143878124057886</v>
+        <v>-0.01438781240578858</v>
       </c>
       <c r="N18">
         <v>0.00229428000061773</v>
       </c>
       <c r="O18">
-        <v>0.000770633427730446</v>
+        <v>0.0007706334277304457</v>
       </c>
       <c r="P18">
-        <v>-0.000582474384166742</v>
+        <v>-0.0005824743841667421</v>
       </c>
       <c r="Q18">
-        <v>0.00781645915669914</v>
+        <v>0.007816459156699136</v>
       </c>
       <c r="R18">
         <v>0.110447534472621</v>
       </c>
       <c r="S18">
-        <v>0.0156421854251986</v>
+        <v>0.01564218542519857</v>
       </c>
       <c r="T18">
-        <v>-0.285604834389905</v>
+        <v>-0.2856048343899052</v>
       </c>
       <c r="U18">
-        <v>5.36382157674723</v>
+        <v>5.363821576747232</v>
       </c>
       <c r="V18">
-        <v>0.890153580267585</v>
+        <v>0.8901535802675848</v>
       </c>
       <c r="W18">
-        <v>-0.246935913586076</v>
+        <v>-0.2469359135860756</v>
       </c>
       <c r="X18">
-        <v>1.15017241711094</v>
+        <v>1.150172417110941</v>
       </c>
       <c r="Y18">
-        <v>0.0147139542167973</v>
+        <v>0.01471395421679726</v>
       </c>
       <c r="Z18">
-        <v>-0.154902939293719</v>
+        <v>-0.1549029392937194</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2026,76 +2026,76 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <v>0.0104642313546423</v>
+        <v>0.01046423135464231</v>
       </c>
       <c r="C19">
-        <v>0.113772826624366</v>
+        <v>0.1137728266243656</v>
       </c>
       <c r="D19">
-        <v>0.0422642399296846</v>
+        <v>0.04226423992968464</v>
       </c>
       <c r="E19">
-        <v>0.053698032906828</v>
+        <v>0.05369803290682802</v>
       </c>
       <c r="F19">
-        <v>0.103359082534663</v>
+        <v>0.1033590825346634</v>
       </c>
       <c r="G19">
-        <v>0.0422642399296847</v>
+        <v>0.04226423992968466</v>
       </c>
       <c r="H19">
-        <v>0.0403348554033486</v>
+        <v>0.04033485540334855</v>
       </c>
       <c r="I19">
-        <v>0.189225918677973</v>
+        <v>0.1892259186779734</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-0.23595002788418</v>
+        <v>-0.2359500278841803</v>
       </c>
       <c r="L19">
-        <v>0.285089830796333</v>
+        <v>0.2850898307963334</v>
       </c>
       <c r="M19">
-        <v>0.145107117384171</v>
+        <v>0.1451071173841713</v>
       </c>
       <c r="N19">
-        <v>-0.0041274550123702</v>
+        <v>-0.004127455012370201</v>
       </c>
       <c r="O19">
         <v>0.000308610129900834</v>
       </c>
       <c r="P19">
-        <v>0.00181615696146753</v>
+        <v>0.001816156961467532</v>
       </c>
       <c r="Q19">
-        <v>0.00998611653927925</v>
+        <v>0.009986116539279251</v>
       </c>
       <c r="R19">
-        <v>0.0447981483232654</v>
+        <v>0.04479814832326545</v>
       </c>
       <c r="S19">
-        <v>-0.103636370188901</v>
+        <v>-0.1036363701889011</v>
       </c>
       <c r="T19">
-        <v>2.98868154159287</v>
+        <v>2.988681541592867</v>
       </c>
       <c r="U19">
-        <v>6.43388816542624</v>
+        <v>6.433888165426242</v>
       </c>
       <c r="V19">
-        <v>0.860997637027291</v>
+        <v>0.8609976370272912</v>
       </c>
       <c r="W19">
-        <v>-0.370739975058558</v>
+        <v>-0.3707399750585582</v>
       </c>
       <c r="X19">
-        <v>1.06896439663969</v>
+        <v>1.068964396639693</v>
       </c>
       <c r="Y19">
-        <v>0.0146851340915834</v>
+        <v>0.01468513409158343</v>
       </c>
       <c r="Z19">
         <v>0.334896929626224</v>
@@ -2106,79 +2106,79 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <v>0.0140350877192982</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="C20">
-        <v>0.164460089472047</v>
+        <v>0.1644600894720469</v>
       </c>
       <c r="D20">
-        <v>0.0330912754860123</v>
+        <v>0.03309127548601234</v>
       </c>
       <c r="E20">
-        <v>0.072435091637446</v>
+        <v>0.07243509163744596</v>
       </c>
       <c r="F20">
         <v>0.104187684027673</v>
       </c>
       <c r="G20">
-        <v>0.0330894051946684</v>
+        <v>0.03308940519466835</v>
       </c>
       <c r="H20">
-        <v>0.0449122807017544</v>
+        <v>0.04491228070175438</v>
       </c>
       <c r="I20">
-        <v>0.230804867646973</v>
+        <v>0.2308048676469729</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-0.219646951004686</v>
+        <v>-0.2196469510046859</v>
       </c>
       <c r="L20">
-        <v>0.269341919349585</v>
+        <v>0.2693419193495852</v>
       </c>
       <c r="M20">
-        <v>-0.0122434349699341</v>
+        <v>-0.01224343496993411</v>
       </c>
       <c r="N20">
         <v>0.00360411467939993</v>
       </c>
       <c r="O20">
-        <v>0.00107156193125798</v>
+        <v>0.001071561931257979</v>
       </c>
       <c r="P20">
-        <v>0.00504571338390595</v>
+        <v>0.005045713383905954</v>
       </c>
       <c r="Q20">
-        <v>0.000690181864198979</v>
+        <v>0.0006901818641989787</v>
       </c>
       <c r="R20">
-        <v>0.140120860230549</v>
+        <v>0.1401208602305489</v>
       </c>
       <c r="S20">
-        <v>0.0562873279684746</v>
+        <v>0.05628732796847462</v>
       </c>
       <c r="T20">
         <v>-0.243878494774433</v>
       </c>
       <c r="U20">
-        <v>3.99088824392554</v>
+        <v>3.990888243925538</v>
       </c>
       <c r="V20">
-        <v>0.884417516687752</v>
+        <v>0.8844175166877526</v>
       </c>
       <c r="W20">
-        <v>1.05075613713745</v>
+        <v>1.050756137137452</v>
       </c>
       <c r="X20">
-        <v>0.907380390841924</v>
+        <v>0.9073803908419242</v>
       </c>
       <c r="Y20">
-        <v>0.0143175271401195</v>
+        <v>0.01431752714011953</v>
       </c>
       <c r="Z20">
-        <v>-0.35705103697006</v>
+        <v>-0.3570510369700597</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2186,79 +2186,79 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>0.0108669108669109</v>
+        <v>0.01086691086691087</v>
       </c>
       <c r="C21">
-        <v>0.192021569260385</v>
+        <v>0.1920215692603851</v>
       </c>
       <c r="D21">
-        <v>0.0278772413603874</v>
+        <v>0.02787724136038743</v>
       </c>
       <c r="E21">
-        <v>0.0685023667932585</v>
+        <v>0.06850236679325852</v>
       </c>
       <c r="F21">
-        <v>0.0912098343907094</v>
+        <v>0.09120983439070943</v>
       </c>
       <c r="G21">
-        <v>0.028107722489745</v>
+        <v>0.02810772248974496</v>
       </c>
       <c r="H21">
         <v>0.0402930402930403</v>
       </c>
       <c r="I21">
-        <v>0.203959345976153</v>
+        <v>0.2039593459761527</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-0.238588670872382</v>
+        <v>-0.2385886708723824</v>
       </c>
       <c r="L21">
-        <v>0.252908694279592</v>
+        <v>0.2529086942795916</v>
       </c>
       <c r="M21">
-        <v>0.0694821968903536</v>
+        <v>0.06948219689035362</v>
       </c>
       <c r="N21">
-        <v>-0.0016288409453957</v>
+        <v>-0.001628840945395696</v>
       </c>
       <c r="O21">
-        <v>0.000501393363660224</v>
+        <v>0.0005013933636602243</v>
       </c>
       <c r="P21">
-        <v>0.00107611411949736</v>
+        <v>0.001076114119497361</v>
       </c>
       <c r="Q21">
-        <v>-0.00225959280695003</v>
+        <v>-0.002259592806950025</v>
       </c>
       <c r="R21">
-        <v>0.0411614729774173</v>
+        <v>0.04116147297741727</v>
       </c>
       <c r="S21">
-        <v>-0.0260206705562634</v>
+        <v>-0.02602067055626343</v>
       </c>
       <c r="T21">
-        <v>1.59470545332285</v>
+        <v>1.594705453322851</v>
       </c>
       <c r="U21">
-        <v>3.46593592744942</v>
+        <v>3.465935927449423</v>
       </c>
       <c r="V21">
-        <v>0.883580622264781</v>
+        <v>0.8835806222647808</v>
       </c>
       <c r="W21">
         <v>1.145740474131</v>
       </c>
       <c r="X21">
-        <v>0.993876622141327</v>
+        <v>0.9938766221413269</v>
       </c>
       <c r="Y21">
-        <v>0.0144948667796186</v>
+        <v>0.01449486677961863</v>
       </c>
       <c r="Z21">
-        <v>0.148189741358793</v>
+        <v>0.1481897413587928</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2266,79 +2266,79 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>0.012697323266987</v>
+        <v>0.01269732326698696</v>
       </c>
       <c r="C22">
-        <v>0.20603496248547</v>
+        <v>0.2060349624854702</v>
       </c>
       <c r="D22">
-        <v>0.0267869971306903</v>
+        <v>0.02678699713069025</v>
       </c>
       <c r="E22">
-        <v>0.0682675509441143</v>
+        <v>0.06826755094411426</v>
       </c>
       <c r="F22">
-        <v>0.0860935286033843</v>
+        <v>0.08609352860338429</v>
       </c>
       <c r="G22">
-        <v>0.0267849963859297</v>
+        <v>0.02678499638592966</v>
       </c>
       <c r="H22">
         <v>0.0464424616792496</v>
       </c>
       <c r="I22">
-        <v>0.265708314952436</v>
+        <v>0.2657083149524359</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-0.242133917147366</v>
+        <v>-0.2421339171473664</v>
       </c>
       <c r="L22">
-        <v>0.232943294066526</v>
+        <v>0.2329432940665256</v>
       </c>
       <c r="M22">
-        <v>0.148613797169423</v>
+        <v>0.1486137971694229</v>
       </c>
       <c r="N22">
-        <v>0.0137456992810343</v>
+        <v>0.01374569928103433</v>
       </c>
       <c r="O22">
-        <v>0.000957671523664443</v>
+        <v>0.0009576715236644428</v>
       </c>
       <c r="P22">
-        <v>-0.000770937503635759</v>
+        <v>-0.0007709375036357591</v>
       </c>
       <c r="Q22">
-        <v>0.00344033090538006</v>
+        <v>0.003440330905380064</v>
       </c>
       <c r="R22">
-        <v>0.136325827525888</v>
+        <v>0.1363258275258882</v>
       </c>
       <c r="S22">
-        <v>0.294456990676908</v>
+        <v>0.2944569906769082</v>
       </c>
       <c r="T22">
-        <v>3.2675269361724</v>
+        <v>3.267526936172399</v>
       </c>
       <c r="U22">
-        <v>3.20554070036015</v>
+        <v>3.205540700360148</v>
       </c>
       <c r="V22">
-        <v>0.906075454707446</v>
+        <v>0.9060754547074459</v>
       </c>
       <c r="W22">
-        <v>-1.50978661909184</v>
+        <v>-1.509786619091843</v>
       </c>
       <c r="X22">
-        <v>1.14969210902986</v>
+        <v>1.149692109029864</v>
       </c>
       <c r="Y22">
-        <v>0.0148856073997434</v>
+        <v>0.01488560739974336</v>
       </c>
       <c r="Z22">
-        <v>-0.0561623409332326</v>
+        <v>-0.05616234093323264</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2346,79 +2346,79 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <v>0.0165137614678899</v>
+        <v>0.01651376146788991</v>
       </c>
       <c r="C23">
-        <v>0.223131490269215</v>
+        <v>0.2231314902692147</v>
       </c>
       <c r="D23">
-        <v>0.017814682061624</v>
+        <v>0.01781468206162396</v>
       </c>
       <c r="E23">
-        <v>0.0627867102642266</v>
+        <v>0.06278671026422658</v>
       </c>
       <c r="F23">
-        <v>0.0684365807313087</v>
+        <v>0.06843658073130875</v>
       </c>
       <c r="G23">
         <v>0.0178144179036126</v>
       </c>
       <c r="H23">
-        <v>0.0495412844036697</v>
+        <v>0.04954128440366973</v>
       </c>
       <c r="I23">
-        <v>0.401301828968167</v>
+        <v>0.4013018289681674</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-0.247620351137696</v>
+        <v>-0.2476203511376958</v>
       </c>
       <c r="L23">
-        <v>0.216864362850934</v>
+        <v>0.2168643628509338</v>
       </c>
       <c r="M23">
-        <v>-0.0172667504772496</v>
+        <v>-0.01726675047724958</v>
       </c>
       <c r="N23">
-        <v>0.00135057574206262</v>
+        <v>0.001350575742062618</v>
       </c>
       <c r="O23">
-        <v>0.00068200509311711</v>
+        <v>0.0006820050931171101</v>
       </c>
       <c r="P23">
-        <v>-0.000409349390446451</v>
+        <v>-0.0004093493904464515</v>
       </c>
       <c r="Q23">
-        <v>0.0019604700279352</v>
+        <v>0.001960470027935202</v>
       </c>
       <c r="R23">
-        <v>0.0599470991942968</v>
+        <v>0.05994709919429676</v>
       </c>
       <c r="S23">
-        <v>0.030085174546529</v>
+        <v>0.03008517454652901</v>
       </c>
       <c r="T23">
-        <v>-0.40633790080587</v>
+        <v>-0.4063379008058702</v>
       </c>
       <c r="U23">
-        <v>2.79120281224702</v>
+        <v>2.791202812247024</v>
       </c>
       <c r="V23">
         <v>0.919218457148041</v>
       </c>
       <c r="W23">
-        <v>1.12579431337031</v>
+        <v>1.125794313370311</v>
       </c>
       <c r="X23">
-        <v>0.823466610119958</v>
+        <v>0.8234666101199579</v>
       </c>
       <c r="Y23">
-        <v>0.0152495724643812</v>
+        <v>0.01524957246438115</v>
       </c>
       <c r="Z23">
-        <v>-0.26180802243297</v>
+        <v>-0.2618080224329702</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2426,79 +2426,79 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.0121474685694869</v>
+        <v>0.01214746856948692</v>
       </c>
       <c r="C24">
-        <v>0.192691318202759</v>
+        <v>0.1926913182027589</v>
       </c>
       <c r="D24">
-        <v>0.0194173148347547</v>
+        <v>0.01941731483475468</v>
       </c>
       <c r="E24">
-        <v>0.0617225746596252</v>
+        <v>0.06172257465962519</v>
       </c>
       <c r="F24">
-        <v>0.0737468264816389</v>
+        <v>0.07374682648163891</v>
       </c>
       <c r="G24">
-        <v>0.0194173516609576</v>
+        <v>0.01941735166095758</v>
       </c>
       <c r="H24">
-        <v>0.0445124023105674</v>
+        <v>0.04451240231056745</v>
       </c>
       <c r="I24">
-        <v>0.278366282036007</v>
+        <v>0.2783662820360068</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>-0.217097257605055</v>
+        <v>-0.2170972576050548</v>
       </c>
       <c r="L24">
-        <v>0.224761030932934</v>
+        <v>0.2247610309329336</v>
       </c>
       <c r="M24">
-        <v>0.0184215409353352</v>
+        <v>0.01842154093533519</v>
       </c>
       <c r="N24">
-        <v>0.0151250566839699</v>
+        <v>0.01512505668396989</v>
       </c>
       <c r="O24">
         <v>-0.000110837198679724</v>
       </c>
       <c r="P24">
-        <v>-0.000735062749019804</v>
+        <v>-0.0007350627490198039</v>
       </c>
       <c r="Q24">
-        <v>-0.0147849502089147</v>
+        <v>-0.01478495020891472</v>
       </c>
       <c r="R24">
-        <v>0.0554205040006838</v>
+        <v>0.05542050400068382</v>
       </c>
       <c r="S24">
-        <v>0.379619377279066</v>
+        <v>0.3796193772790659</v>
       </c>
       <c r="T24">
-        <v>0.479904588516142</v>
+        <v>0.4799045885161422</v>
       </c>
       <c r="U24">
-        <v>3.04697053345346</v>
+        <v>3.046970533453458</v>
       </c>
       <c r="V24">
-        <v>0.902101413567922</v>
+        <v>0.9021014135679224</v>
       </c>
       <c r="W24">
-        <v>-0.541538212690746</v>
+        <v>-0.5415382126907458</v>
       </c>
       <c r="X24">
-        <v>6.36640412963768</v>
+        <v>6.366404129637678</v>
       </c>
       <c r="Y24">
-        <v>0.0155777332513541</v>
+        <v>0.01557773325135412</v>
       </c>
       <c r="Z24">
-        <v>0.460156153055922</v>
+        <v>0.4601561530559219</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2506,79 +2506,79 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>0.018085842852198</v>
+        <v>0.01808584285219798</v>
       </c>
       <c r="C25">
-        <v>0.222388390166307</v>
+        <v>0.2223883901663065</v>
       </c>
       <c r="D25">
-        <v>0.0197769330858305</v>
+        <v>0.01977693308583054</v>
       </c>
       <c r="E25">
-        <v>0.0624494123772589</v>
+        <v>0.06244941237725895</v>
       </c>
       <c r="F25">
-        <v>0.0641638796808436</v>
+        <v>0.06416387968084362</v>
       </c>
       <c r="G25">
-        <v>0.0197776889187228</v>
+        <v>0.01977768891872284</v>
       </c>
       <c r="H25">
-        <v>0.0510557286258221</v>
+        <v>0.05105572862582208</v>
       </c>
       <c r="I25">
-        <v>0.396230270322118</v>
+        <v>0.3962302703221176</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.208469657206978</v>
+        <v>-0.2084696572069784</v>
       </c>
       <c r="L25">
-        <v>0.212094960232248</v>
+        <v>0.2120949602322476</v>
       </c>
       <c r="M25">
-        <v>0.03537767490876</v>
+        <v>0.03537767490875995</v>
       </c>
       <c r="N25">
-        <v>0.00285148466123196</v>
+        <v>0.002851484661231962</v>
       </c>
       <c r="O25">
-        <v>-0.000628119921765591</v>
+        <v>-0.0006281199217655915</v>
       </c>
       <c r="P25">
-        <v>2.91084213109642e-05</v>
+        <v>2.910842131096416e-05</v>
       </c>
       <c r="Q25">
-        <v>-0.00232726284882278</v>
+        <v>-0.002327262848822785</v>
       </c>
       <c r="R25">
-        <v>0.0838119294705013</v>
+        <v>0.08381192947050126</v>
       </c>
       <c r="S25">
-        <v>0.0813855752753708</v>
+        <v>0.08138557527537076</v>
       </c>
       <c r="T25">
-        <v>0.825007946136305</v>
+        <v>0.8250079461363053</v>
       </c>
       <c r="U25">
-        <v>2.89053231611236</v>
+        <v>2.890532316112359</v>
       </c>
       <c r="V25">
-        <v>0.918644292746289</v>
+        <v>0.9186442927462893</v>
       </c>
       <c r="W25">
-        <v>-0.40115131886765</v>
+        <v>-0.4011513188676501</v>
       </c>
       <c r="X25">
-        <v>0.158850872775147</v>
+        <v>0.1588508727751467</v>
       </c>
       <c r="Y25">
-        <v>0.0151595679564344</v>
+        <v>0.01515956795643435</v>
       </c>
       <c r="Z25">
-        <v>-0.521949939264941</v>
+        <v>-0.5219499392649406</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2586,79 +2586,79 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <v>0.0108838185156045</v>
+        <v>0.01088381851560451</v>
       </c>
       <c r="C26">
-        <v>0.17758918687124</v>
+        <v>0.1775891868712398</v>
       </c>
       <c r="D26">
-        <v>0.0177885834913347</v>
+        <v>0.01778858349133465</v>
       </c>
       <c r="E26">
-        <v>0.0546613673021631</v>
+        <v>0.05466136730216314</v>
       </c>
       <c r="F26">
-        <v>0.0586200737823094</v>
+        <v>0.05862007378230936</v>
       </c>
       <c r="G26">
-        <v>0.0177885834913346</v>
+        <v>0.01778858349133464</v>
       </c>
       <c r="H26">
-        <v>0.041699449252557</v>
+        <v>0.04169944925255704</v>
       </c>
       <c r="I26">
-        <v>0.317179978465557</v>
+        <v>0.3171799784655573</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-0.238366236676582</v>
+        <v>-0.2383662366765821</v>
       </c>
       <c r="L26">
-        <v>0.20637215130076</v>
+        <v>0.2063721513007605</v>
       </c>
       <c r="M26">
-        <v>-0.00063607672975818</v>
+        <v>-0.0006360767297581798</v>
       </c>
       <c r="N26">
-        <v>-0.000418001234049909</v>
+        <v>-0.0004180012340499094</v>
       </c>
       <c r="O26">
-        <v>-0.000543599765062118</v>
+        <v>-0.0005435997650621182</v>
       </c>
       <c r="P26">
-        <v>-0.000478545884941443</v>
+        <v>-0.0004785458849414426</v>
       </c>
       <c r="Q26">
-        <v>-0.0020268346135824</v>
+        <v>-0.002026834613582397</v>
       </c>
       <c r="R26">
-        <v>0.0804607241310467</v>
+        <v>0.08046072413104667</v>
       </c>
       <c r="S26">
-        <v>0.00151703978246233</v>
+        <v>0.001517039782462326</v>
       </c>
       <c r="T26">
         <v>-0.010548687411952</v>
       </c>
       <c r="U26">
-        <v>3.41931170020565</v>
+        <v>3.419311700205648</v>
       </c>
       <c r="V26">
-        <v>0.906208256156452</v>
+        <v>0.9062082561564521</v>
       </c>
       <c r="W26">
-        <v>0.0650015997574016</v>
+        <v>0.06500159975740158</v>
       </c>
       <c r="X26">
         <v>2.31070909967728</v>
       </c>
       <c r="Y26">
-        <v>0.0150256219724753</v>
+        <v>0.01502562197247527</v>
       </c>
       <c r="Z26">
-        <v>0.266213101201688</v>
+        <v>0.2662131012016882</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2666,79 +2666,79 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>0.013886910696482</v>
+        <v>0.01388691069648198</v>
       </c>
       <c r="C27">
-        <v>0.174585005790862</v>
+        <v>0.1745850057908618</v>
       </c>
       <c r="D27">
-        <v>0.0191988138149654</v>
+        <v>0.01919881381496535</v>
       </c>
       <c r="E27">
-        <v>0.0514510159016959</v>
+        <v>0.05145101590169594</v>
       </c>
       <c r="F27">
-        <v>0.0389426665588692</v>
+        <v>0.03894266655886923</v>
       </c>
       <c r="G27">
-        <v>0.0191988138149654</v>
+        <v>0.01919881381496536</v>
       </c>
       <c r="H27">
-        <v>0.0450078336419313</v>
+        <v>0.04500783364193135</v>
       </c>
       <c r="I27">
-        <v>0.370813708944286</v>
+        <v>0.3708137089442864</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>-0.200702341752568</v>
+        <v>-0.2007023417525684</v>
       </c>
       <c r="L27">
-        <v>0.212814006867601</v>
+        <v>0.2128140068676015</v>
       </c>
       <c r="M27">
-        <v>0.0468805716548063</v>
+        <v>0.04688057165480632</v>
       </c>
       <c r="N27">
-        <v>-0.000693271324243439</v>
+        <v>-0.0006932713242434394</v>
       </c>
       <c r="O27">
         <v>-0.00137926356270731</v>
       </c>
       <c r="P27">
-        <v>-0.000537535978567043</v>
+        <v>-0.0005375359785670434</v>
       </c>
       <c r="Q27">
-        <v>-0.000605183560490364</v>
+        <v>-0.0006051835604903641</v>
       </c>
       <c r="R27">
-        <v>0.0607968593536576</v>
+        <v>0.06079685935365759</v>
       </c>
       <c r="S27">
-        <v>-0.0275244328985548</v>
+        <v>-0.02752443289855479</v>
       </c>
       <c r="T27">
-        <v>1.19862504872148</v>
+        <v>1.198625048721483</v>
       </c>
       <c r="U27">
-        <v>3.52066171800198</v>
+        <v>3.520661718001982</v>
       </c>
       <c r="V27">
-        <v>0.911104447221316</v>
+        <v>0.9111044472213162</v>
       </c>
       <c r="W27">
         <v>-0.141684921779725</v>
       </c>
       <c r="X27">
-        <v>0.487947303386618</v>
+        <v>0.4879473033866176</v>
       </c>
       <c r="Y27">
-        <v>0.0152915029211626</v>
+        <v>0.01529150292116263</v>
       </c>
       <c r="Z27">
-        <v>-0.0850882192141973</v>
+        <v>-0.08508821921419735</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2746,37 +2746,37 @@
         <v>51</v>
       </c>
       <c r="B28">
-        <v>0.0131785995279308</v>
+        <v>0.01317859952793077</v>
       </c>
       <c r="C28">
-        <v>0.191559282276844</v>
+        <v>0.1915592822768436</v>
       </c>
       <c r="D28">
-        <v>0.0177101202529741</v>
+        <v>0.01771012025297408</v>
       </c>
       <c r="E28">
         <v>0.0551698745630715</v>
       </c>
       <c r="F28">
-        <v>0.0482438407278875</v>
+        <v>0.04824384072788754</v>
       </c>
       <c r="G28">
-        <v>0.0177101202529741</v>
+        <v>0.01771012025297407</v>
       </c>
       <c r="H28">
-        <v>0.0439286650931025</v>
+        <v>0.04392866509310255</v>
       </c>
       <c r="I28">
-        <v>0.341070029707301</v>
+        <v>0.3410700297073012</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-0.265312186797414</v>
+        <v>-0.2653121867974138</v>
       </c>
       <c r="L28">
-        <v>0.204862601840763</v>
+        <v>0.2048626018407633</v>
       </c>
       <c r="M28">
         <v>-6.62923777814734e-05</v>
@@ -2785,40 +2785,40 @@
         <v>0.00281353354938494</v>
       </c>
       <c r="O28">
-        <v>-0.000668052040469291</v>
+        <v>-0.0006680520404692913</v>
       </c>
       <c r="P28">
-        <v>0.000260754853689388</v>
+        <v>0.0002607548536893885</v>
       </c>
       <c r="Q28">
-        <v>0.00317089695816674</v>
+        <v>0.003170896958166742</v>
       </c>
       <c r="R28">
-        <v>0.073767870179543</v>
+        <v>0.07376787017954305</v>
       </c>
       <c r="S28">
-        <v>0.0716242104115418</v>
+        <v>0.07162421041154182</v>
       </c>
       <c r="T28">
-        <v>-0.0168650889539627</v>
+        <v>-0.01686508895396272</v>
       </c>
       <c r="U28">
-        <v>3.15863502856579</v>
+        <v>3.158635028565787</v>
       </c>
       <c r="V28">
-        <v>0.918795853622625</v>
+        <v>0.9187958536226253</v>
       </c>
       <c r="W28">
-        <v>-0.491368424547045</v>
+        <v>-0.4913684245470448</v>
       </c>
       <c r="X28">
-        <v>0.938555672609553</v>
+        <v>0.9385556726095534</v>
       </c>
       <c r="Y28">
-        <v>0.0157780267940741</v>
+        <v>0.01577802679407413</v>
       </c>
       <c r="Z28">
-        <v>-0.215953510322965</v>
+        <v>-0.2159535103229649</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2826,79 +2826,79 @@
         <v>52</v>
       </c>
       <c r="B29">
-        <v>0.0120518688024409</v>
+        <v>0.01205186880244088</v>
       </c>
       <c r="C29">
-        <v>0.208445950047306</v>
+        <v>0.2084459500473057</v>
       </c>
       <c r="D29">
-        <v>0.0218669203863541</v>
+        <v>0.02186692038635413</v>
       </c>
       <c r="E29">
-        <v>0.0649339033932292</v>
+        <v>0.06493390339322916</v>
       </c>
       <c r="F29">
-        <v>0.074620180597347</v>
+        <v>0.07462018059734704</v>
       </c>
       <c r="G29">
-        <v>0.0218670087624831</v>
+        <v>0.02186700876248307</v>
       </c>
       <c r="H29">
-        <v>0.045766590389016</v>
+        <v>0.04576659038901602</v>
       </c>
       <c r="I29">
-        <v>0.354674485787018</v>
+        <v>0.3546744857870176</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.235240158883351</v>
+        <v>-0.2352401588833511</v>
       </c>
       <c r="L29">
-        <v>0.219950283262223</v>
+        <v>0.2199502832622234</v>
       </c>
       <c r="M29">
-        <v>-0.0502300751573509</v>
+        <v>-0.05023007515735091</v>
       </c>
       <c r="N29">
-        <v>-0.002250190606349</v>
+        <v>-0.002250190606349001</v>
       </c>
       <c r="O29">
-        <v>-0.000726808021595738</v>
+        <v>-0.0007268080215957384</v>
       </c>
       <c r="P29">
-        <v>-0.000959535077172782</v>
+        <v>-0.0009595350771727816</v>
       </c>
       <c r="Q29">
-        <v>0.00535224004220277</v>
+        <v>0.005352240042202773</v>
       </c>
       <c r="R29">
-        <v>0.05267927586099</v>
+        <v>0.05267927586098998</v>
       </c>
       <c r="S29">
-        <v>-0.0613853594063631</v>
+        <v>-0.06138535940636309</v>
       </c>
       <c r="T29">
-        <v>-1.2637015952273</v>
+        <v>-1.263701595227302</v>
       </c>
       <c r="U29">
-        <v>3.61397596517137</v>
+        <v>3.613975965171366</v>
       </c>
       <c r="V29">
-        <v>0.914105246860338</v>
+        <v>0.9141052468603382</v>
       </c>
       <c r="W29">
-        <v>-0.225297129925138</v>
+        <v>-0.2252971299251379</v>
       </c>
       <c r="X29">
-        <v>1.19335042512633</v>
+        <v>1.193350425126332</v>
       </c>
       <c r="Y29">
-        <v>0.0159099168373131</v>
+        <v>0.01590991683731311</v>
       </c>
       <c r="Z29">
-        <v>-0.0679067473002224</v>
+        <v>-0.06790674730022236</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2906,79 +2906,79 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>0.0129819040125885</v>
+        <v>0.01298190401258852</v>
       </c>
       <c r="C30">
-        <v>0.186307096489513</v>
+        <v>0.1863070964895128</v>
       </c>
       <c r="D30">
-        <v>0.0175248267621899</v>
+        <v>0.01752482676218989</v>
       </c>
       <c r="E30">
-        <v>0.0587812459360855</v>
+        <v>0.05878124593608546</v>
       </c>
       <c r="F30">
-        <v>0.0573386507422087</v>
+        <v>0.05733865074220872</v>
       </c>
       <c r="G30">
-        <v>0.0175266027101704</v>
+        <v>0.01752660271017041</v>
       </c>
       <c r="H30">
-        <v>0.046420141620771</v>
+        <v>0.04642014162077104</v>
       </c>
       <c r="I30">
-        <v>0.33253801609689</v>
+        <v>0.3325380160968897</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.266190243125435</v>
+        <v>-0.2661902431254347</v>
       </c>
       <c r="L30">
-        <v>0.203317207850935</v>
+        <v>0.2033172078509353</v>
       </c>
       <c r="M30">
-        <v>0.00967629844840278</v>
+        <v>0.009676298448402782</v>
       </c>
       <c r="N30">
-        <v>0.00247360909229837</v>
+        <v>0.002473609092298369</v>
       </c>
       <c r="O30">
-        <v>-0.000253911235636766</v>
+        <v>-0.0002539112356367657</v>
       </c>
       <c r="P30">
-        <v>0.000573863038903924</v>
+        <v>0.0005738630389039243</v>
       </c>
       <c r="Q30">
-        <v>-0.00221152677423605</v>
+        <v>-0.002211526774236053</v>
       </c>
       <c r="R30">
-        <v>0.0847009732245648</v>
+        <v>0.08470097322456477</v>
       </c>
       <c r="S30">
         <v>0.0658322839296239</v>
       </c>
       <c r="T30">
-        <v>0.219601621426497</v>
+        <v>0.2196016214264966</v>
       </c>
       <c r="U30">
-        <v>3.04533528674403</v>
+        <v>3.045335286744027</v>
       </c>
       <c r="V30">
-        <v>0.920765432702475</v>
+        <v>0.9207654327024754</v>
       </c>
       <c r="W30">
-        <v>0.227354792574308</v>
+        <v>0.2273547925743083</v>
       </c>
       <c r="X30">
-        <v>0.946094252235949</v>
+        <v>0.9460942522359488</v>
       </c>
       <c r="Y30">
-        <v>0.0157259107248023</v>
+        <v>0.01572591072480228</v>
       </c>
       <c r="Z30">
-        <v>0.197099755044444</v>
+        <v>0.1970997550444444</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2986,79 +2986,79 @@
         <v>54</v>
       </c>
       <c r="B31">
-        <v>0.0156071998177261</v>
+        <v>0.01560719981772613</v>
       </c>
       <c r="C31">
-        <v>0.214056455085496</v>
+        <v>0.2140564550854959</v>
       </c>
       <c r="D31">
-        <v>0.0179282348828351</v>
+        <v>0.01792823488283512</v>
       </c>
       <c r="E31">
-        <v>0.0517206953879717</v>
+        <v>0.05172069538797174</v>
       </c>
       <c r="F31">
-        <v>0.00299546276384042</v>
+        <v>0.002995462763840423</v>
       </c>
       <c r="G31">
-        <v>0.0179282348828351</v>
+        <v>0.01792823488283513</v>
       </c>
       <c r="H31">
-        <v>0.0479608111187059</v>
+        <v>0.04796081111870586</v>
       </c>
       <c r="I31">
-        <v>0.369885804397546</v>
+        <v>0.3698858043975464</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>-0.259133433037852</v>
+        <v>-0.2591334330378519</v>
       </c>
       <c r="L31">
-        <v>0.204135923011333</v>
+        <v>0.2041359230113332</v>
       </c>
       <c r="M31">
-        <v>-0.00777244184544407</v>
+        <v>-0.007772441845444066</v>
       </c>
       <c r="N31">
-        <v>-5.69613192794711e-06</v>
+        <v>-5.696131927947113e-06</v>
       </c>
       <c r="O31">
-        <v>0.000195140638252579</v>
+        <v>0.0001951406382525794</v>
       </c>
       <c r="P31">
-        <v>0.000355765912549851</v>
+        <v>0.0003557659125498514</v>
       </c>
       <c r="Q31">
-        <v>0.00331297044236777</v>
+        <v>0.003312970442367773</v>
       </c>
       <c r="R31">
         <v>0.0427988696544067</v>
       </c>
       <c r="S31">
-        <v>-0.00858531383938013</v>
+        <v>-0.008585313839380134</v>
       </c>
       <c r="T31">
-        <v>-0.196085918974164</v>
+        <v>-0.1960859189741637</v>
       </c>
       <c r="U31">
         <v>3.07962983421652</v>
       </c>
       <c r="V31">
-        <v>0.921753188231864</v>
+        <v>0.9217531882318637</v>
       </c>
       <c r="W31">
-        <v>1.30380508791649</v>
+        <v>1.303805087916489</v>
       </c>
       <c r="X31">
-        <v>0.904090206526913</v>
+        <v>0.9040902065269132</v>
       </c>
       <c r="Y31">
-        <v>0.0157337758377093</v>
+        <v>0.01573377583770933</v>
       </c>
       <c r="Z31">
-        <v>0.0801055503271912</v>
+        <v>0.08010555032719111</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -3066,79 +3066,79 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.0124005027230834</v>
+        <v>0.01240050272308337</v>
       </c>
       <c r="C32">
-        <v>0.221824371517337</v>
+        <v>0.2218243715173372</v>
       </c>
       <c r="D32">
-        <v>0.0115482368474337</v>
+        <v>0.01154823684743373</v>
       </c>
       <c r="E32">
-        <v>0.054498945448189</v>
+        <v>0.05449894544818899</v>
       </c>
       <c r="F32">
-        <v>0.0221077853966976</v>
+        <v>0.02210778539669757</v>
       </c>
       <c r="G32">
-        <v>0.0115501225139175</v>
+        <v>0.01155012251391753</v>
       </c>
       <c r="H32">
-        <v>0.0407205697528278</v>
+        <v>0.04072056975282782</v>
       </c>
       <c r="I32">
-        <v>0.404109749623435</v>
+        <v>0.4041097496234355</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>-0.280048793161237</v>
+        <v>-0.2800487931612374</v>
       </c>
       <c r="L32">
-        <v>0.182735639150944</v>
+        <v>0.1827356391509443</v>
       </c>
       <c r="M32">
-        <v>-0.000566502642629996</v>
+        <v>-0.0005665026426299959</v>
       </c>
       <c r="N32">
-        <v>0.0015489179484145</v>
+        <v>0.001548917948414505</v>
       </c>
       <c r="O32">
-        <v>-0.000206835330696453</v>
+        <v>-0.0002068353306964533</v>
       </c>
       <c r="P32">
-        <v>-0.000119473697315765</v>
+        <v>-0.0001194736973157646</v>
       </c>
       <c r="Q32">
-        <v>0.000935022888260413</v>
+        <v>0.0009350228882604127</v>
       </c>
       <c r="R32">
         <v>0.0417187394197838</v>
       </c>
       <c r="S32">
-        <v>0.0442747293255571</v>
+        <v>0.04427472932555714</v>
       </c>
       <c r="T32">
-        <v>-0.0591637155308961</v>
+        <v>-0.05916371553089607</v>
       </c>
       <c r="U32">
-        <v>2.78185191994785</v>
+        <v>2.781851919947846</v>
       </c>
       <c r="V32">
-        <v>0.932925077025979</v>
+        <v>0.9329250770259788</v>
       </c>
       <c r="W32">
-        <v>-0.485540704138178</v>
+        <v>-0.4855407041381783</v>
       </c>
       <c r="X32">
-        <v>1.05616235065536</v>
+        <v>1.056162350655356</v>
       </c>
       <c r="Y32">
-        <v>0.0156342445619601</v>
+        <v>0.01563424456196005</v>
       </c>
       <c r="Z32">
-        <v>-0.256797705326727</v>
+        <v>-0.2567977053267271</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -3146,79 +3146,79 @@
         <v>56</v>
       </c>
       <c r="B33">
-        <v>0.00881458966565349</v>
+        <v>0.008814589665653494</v>
       </c>
       <c r="C33">
-        <v>0.209019012926935</v>
+        <v>0.2090190129269349</v>
       </c>
       <c r="D33">
-        <v>0.0199355409289589</v>
+        <v>0.01993554092895895</v>
       </c>
       <c r="E33">
-        <v>0.0490325490674652</v>
+        <v>0.04903254906746517</v>
       </c>
       <c r="F33">
-        <v>0.0590153931426619</v>
+        <v>0.05901539314266192</v>
       </c>
       <c r="G33">
-        <v>0.019935540928959</v>
+        <v>0.01993554092895896</v>
       </c>
       <c r="H33">
-        <v>0.0346504559270517</v>
+        <v>0.03465045592705168</v>
       </c>
       <c r="I33">
         <v>0.326122897076721</v>
       </c>
       <c r="J33">
-        <v>0.149515347706405</v>
+        <v>0.1495153477064051</v>
       </c>
       <c r="K33">
-        <v>-0.2742315177481</v>
+        <v>-0.2742315177480996</v>
       </c>
       <c r="L33">
-        <v>0.204788798717735</v>
+        <v>0.2047887987177348</v>
       </c>
       <c r="M33">
-        <v>0.129093862143841</v>
+        <v>0.1290938621438412</v>
       </c>
       <c r="N33">
-        <v>0.00224064601595518</v>
+        <v>0.002240646015955181</v>
       </c>
       <c r="O33">
         <v>5.45616399110618e-05</v>
       </c>
       <c r="P33">
-        <v>-0.00014799139199548</v>
+        <v>-0.0001479913919954795</v>
       </c>
       <c r="Q33">
-        <v>0.001104704448038</v>
+        <v>0.001104704448037995</v>
       </c>
       <c r="R33">
-        <v>0.0312439026590034</v>
+        <v>0.03124390265900336</v>
       </c>
       <c r="S33">
-        <v>0.0592519594426678</v>
+        <v>0.05925195944266782</v>
       </c>
       <c r="T33">
-        <v>3.73164921749713</v>
+        <v>3.731649217497133</v>
       </c>
       <c r="U33">
-        <v>3.35566144823923</v>
+        <v>3.355661448239235</v>
       </c>
       <c r="V33">
-        <v>0.913906824522309</v>
+        <v>0.9139068245223086</v>
       </c>
       <c r="W33">
-        <v>-0.730432509767316</v>
+        <v>-0.7304325097673161</v>
       </c>
       <c r="X33">
-        <v>0.989825199424454</v>
+        <v>0.9898251994244541</v>
       </c>
       <c r="Y33">
-        <v>0.0151630422936738</v>
+        <v>0.01516304229367382</v>
       </c>
       <c r="Z33">
-        <v>0.46149533125323</v>
+        <v>0.4614953312532298</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -3226,79 +3226,79 @@
         <v>57</v>
       </c>
       <c r="B34">
-        <v>0.0160364145658263</v>
+        <v>0.01603641456582633</v>
       </c>
       <c r="C34">
-        <v>0.199306292740814</v>
+        <v>0.1993062927408137</v>
       </c>
       <c r="D34">
-        <v>0.0205392822254736</v>
+        <v>0.02053928222547364</v>
       </c>
       <c r="E34">
-        <v>0.0534003926785189</v>
+        <v>0.05340039267851888</v>
       </c>
       <c r="F34">
-        <v>0.0465793288516832</v>
+        <v>0.04657932885168321</v>
       </c>
       <c r="G34">
-        <v>0.0205393244868569</v>
+        <v>0.02053932448685691</v>
       </c>
       <c r="H34">
-        <v>0.042156862745098</v>
+        <v>0.04215686274509804</v>
       </c>
       <c r="I34">
-        <v>0.475686182995433</v>
+        <v>0.4756861829954327</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>-0.185334795624715</v>
+        <v>-0.1853347956247148</v>
       </c>
       <c r="L34">
-        <v>0.207260554986778</v>
+        <v>0.2072605549867783</v>
       </c>
       <c r="M34">
-        <v>0.027418504853362</v>
+        <v>0.02741850485336195</v>
       </c>
       <c r="N34">
-        <v>0.000763208462512595</v>
+        <v>0.0007632084625125951</v>
       </c>
       <c r="O34">
-        <v>-0.00258502863211183</v>
+        <v>-0.002585028632111831</v>
       </c>
       <c r="P34">
-        <v>-0.00194560207195088</v>
+        <v>-0.001945602071950876</v>
       </c>
       <c r="Q34">
-        <v>-0.00085814043978589</v>
+        <v>-0.0008581404397858902</v>
       </c>
       <c r="R34">
-        <v>0.0629422585013351</v>
+        <v>0.06294225850133513</v>
       </c>
       <c r="S34">
-        <v>0.023500701164744</v>
+        <v>0.02350070116474403</v>
       </c>
       <c r="T34">
-        <v>0.68083691022446</v>
+        <v>0.6808369102244596</v>
       </c>
       <c r="U34">
-        <v>3.63654152113342</v>
+        <v>3.636541521133421</v>
       </c>
       <c r="V34">
-        <v>0.919118334403736</v>
+        <v>0.9191183344037361</v>
       </c>
       <c r="W34">
-        <v>1.41127049960005</v>
+        <v>1.411270499600047</v>
       </c>
       <c r="X34">
-        <v>0.963061159874462</v>
+        <v>0.9630611598744623</v>
       </c>
       <c r="Y34">
         <v>0.0152251810372928</v>
       </c>
       <c r="Z34">
-        <v>-0.0724060902544021</v>
+        <v>-0.07240609025440213</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -3306,79 +3306,79 @@
         <v>58</v>
       </c>
       <c r="B35">
-        <v>0.0166390270867883</v>
+        <v>0.01663902708678828</v>
       </c>
       <c r="C35">
-        <v>0.247620755259623</v>
+        <v>0.2476207552596231</v>
       </c>
       <c r="D35">
-        <v>0.0151856886949631</v>
+        <v>0.01518568869496307</v>
       </c>
       <c r="E35">
-        <v>0.0513519462672571</v>
+        <v>0.05135194626725711</v>
       </c>
       <c r="F35">
-        <v>5.68157241573899e-05</v>
+        <v>5.681572415738987e-05</v>
       </c>
       <c r="G35">
-        <v>0.0151850748548865</v>
+        <v>0.01518507485488646</v>
       </c>
       <c r="H35">
-        <v>0.0470978441127695</v>
+        <v>0.04709784411276949</v>
       </c>
       <c r="I35">
-        <v>0.430715138814504</v>
+        <v>0.4307151388145042</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>-0.247428772276916</v>
+        <v>-0.2474287722769162</v>
       </c>
       <c r="L35">
-        <v>0.196205690769427</v>
+        <v>0.1962056907694267</v>
       </c>
       <c r="M35">
         <v>0.0269299883141363</v>
       </c>
       <c r="N35">
-        <v>-0.0056564294374281</v>
+        <v>-0.005656429437428103</v>
       </c>
       <c r="O35">
-        <v>-0.000587970530368822</v>
+        <v>-0.0005879705303688216</v>
       </c>
       <c r="P35">
-        <v>-0.000302869893115774</v>
+        <v>-0.0003028698931157738</v>
       </c>
       <c r="Q35">
-        <v>-0.00055977135142378</v>
+        <v>-0.0005597713514237802</v>
       </c>
       <c r="R35">
-        <v>0.0631925417148788</v>
+        <v>0.06319254171487883</v>
       </c>
       <c r="S35">
-        <v>-0.133969537969895</v>
+        <v>-0.1339695379698946</v>
       </c>
       <c r="T35">
-        <v>0.726206320225508</v>
+        <v>0.7262063202255079</v>
       </c>
       <c r="U35">
-        <v>2.94392706621614</v>
+        <v>2.943927066216141</v>
       </c>
       <c r="V35">
-        <v>0.931232742432657</v>
+        <v>0.9312327424326575</v>
       </c>
       <c r="W35">
-        <v>-0.824144253910764</v>
+        <v>-0.8241442539107644</v>
       </c>
       <c r="X35">
-        <v>0.968744140452917</v>
+        <v>0.9687441404529172</v>
       </c>
       <c r="Y35">
-        <v>0.0154138480280696</v>
+        <v>0.01541384802806958</v>
       </c>
       <c r="Z35">
-        <v>-0.364759213703024</v>
+        <v>-0.3647592137030245</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -3386,79 +3386,79 @@
         <v>59</v>
       </c>
       <c r="B36">
-        <v>0.0129300524037366</v>
+        <v>0.01293005240373661</v>
       </c>
       <c r="C36">
-        <v>0.195912076505571</v>
+        <v>0.1959120765055709</v>
       </c>
       <c r="D36">
-        <v>0.021406743785209</v>
+        <v>0.02140674378520902</v>
       </c>
       <c r="E36">
-        <v>0.0516106236237534</v>
+        <v>0.05161062362375337</v>
       </c>
       <c r="F36">
-        <v>0.0215311173590645</v>
+        <v>0.02153111735906445</v>
       </c>
       <c r="G36">
-        <v>0.021406743785209</v>
+        <v>0.02140674378520901</v>
       </c>
       <c r="H36">
-        <v>0.0463659147869674</v>
+        <v>0.04636591478696742</v>
       </c>
       <c r="I36">
-        <v>0.475553674381394</v>
+        <v>0.4755536743813937</v>
       </c>
       <c r="J36">
-        <v>0.0618976942766625</v>
+        <v>0.06189769427665191</v>
       </c>
       <c r="K36">
-        <v>-0.272013123310375</v>
+        <v>-0.2720131233103754</v>
       </c>
       <c r="L36">
-        <v>0.201199627431617</v>
+        <v>0.2011996274316168</v>
       </c>
       <c r="M36">
-        <v>0.00429684781591948</v>
+        <v>0.004296847815919476</v>
       </c>
       <c r="N36">
-        <v>0.000680157082250581</v>
+        <v>0.0006801570822505805</v>
       </c>
       <c r="O36">
-        <v>-2.68470674871125e-05</v>
+        <v>-2.684706748711248e-05</v>
       </c>
       <c r="P36">
-        <v>0.00043877427564367</v>
+        <v>0.0004387742756436696</v>
       </c>
       <c r="Q36">
-        <v>0.00116785286216539</v>
+        <v>0.001167852862165393</v>
       </c>
       <c r="R36">
         <v>0.0403714936513744</v>
       </c>
       <c r="S36">
-        <v>0.022838269420949</v>
+        <v>0.02283826942094905</v>
       </c>
       <c r="T36">
-        <v>0.0982250877610291</v>
+        <v>0.09822508776102915</v>
       </c>
       <c r="U36">
-        <v>4.37580469093585</v>
+        <v>4.375804690935854</v>
       </c>
       <c r="V36">
         <v>0.923288431094891</v>
       </c>
       <c r="W36">
-        <v>1.51776277387999</v>
+        <v>1.517762773879986</v>
       </c>
       <c r="X36">
-        <v>1.10770841969219</v>
+        <v>1.107708419692187</v>
       </c>
       <c r="Y36">
-        <v>0.0159495456745096</v>
+        <v>0.01594954567450961</v>
       </c>
       <c r="Z36">
-        <v>0.387115237276646</v>
+        <v>0.3871152372766458</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -3466,79 +3466,79 @@
         <v>60</v>
       </c>
       <c r="B37">
-        <v>0.019378683448207</v>
+        <v>0.01937868344820697</v>
       </c>
       <c r="C37">
-        <v>0.232163183294438</v>
+        <v>0.2321631832944384</v>
       </c>
       <c r="D37">
-        <v>0.0127431254191818</v>
+        <v>0.01274312541918176</v>
       </c>
       <c r="E37">
-        <v>0.0583419618778432</v>
+        <v>0.05834196187784315</v>
       </c>
       <c r="F37">
-        <v>0.00394883301773006</v>
+        <v>0.003948833017730061</v>
       </c>
       <c r="G37">
-        <v>0.0127431254191818</v>
+        <v>0.01274312541918176</v>
       </c>
       <c r="H37">
         <v>0.0628308860253721</v>
       </c>
       <c r="I37">
-        <v>0.44524411681384</v>
+        <v>0.4452441168138402</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>-0.267756090882947</v>
+        <v>-0.2677560908829469</v>
       </c>
       <c r="L37">
         <v>0.17700872524272</v>
       </c>
       <c r="M37">
-        <v>-0.0791969611434888</v>
+        <v>-0.07919696114348876</v>
       </c>
       <c r="N37">
-        <v>0.00470424097844968</v>
+        <v>0.004704240978449676</v>
       </c>
       <c r="O37">
-        <v>0.000172741740114218</v>
+        <v>0.0001727417401142178</v>
       </c>
       <c r="P37">
-        <v>0.000168318363427491</v>
+        <v>0.0001683183634274911</v>
       </c>
       <c r="Q37">
-        <v>0.00270298542076123</v>
+        <v>0.002702985420761225</v>
       </c>
       <c r="R37">
-        <v>0.0924687882118701</v>
+        <v>0.09246878821187011</v>
       </c>
       <c r="S37">
-        <v>0.131534538093388</v>
+        <v>0.1315345380933876</v>
       </c>
       <c r="T37">
-        <v>-1.97870344897175</v>
+        <v>-1.978703448971755</v>
       </c>
       <c r="U37">
-        <v>2.80416663950777</v>
+        <v>2.804166639507773</v>
       </c>
       <c r="V37">
-        <v>0.944826924421932</v>
+        <v>0.9448269244219316</v>
       </c>
       <c r="W37">
-        <v>0.709658773503338</v>
+        <v>0.7096587735033383</v>
       </c>
       <c r="X37">
-        <v>0.847050069997274</v>
+        <v>0.8470500699972738</v>
       </c>
       <c r="Y37">
-        <v>0.016355920291595</v>
+        <v>0.01635592029159499</v>
       </c>
       <c r="Z37">
-        <v>-0.524657911894669</v>
+        <v>-0.5246579118946686</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -3546,76 +3546,76 @@
         <v>61</v>
       </c>
       <c r="B38">
-        <v>0.0166122004357298</v>
+        <v>0.01661220043572985</v>
       </c>
       <c r="C38">
-        <v>0.241737406609054</v>
+        <v>0.2417374066090538</v>
       </c>
       <c r="D38">
-        <v>0.017047759921067</v>
+        <v>0.01704775992106699</v>
       </c>
       <c r="E38">
         <v>0.0569694381534733</v>
       </c>
       <c r="F38">
-        <v>0.00239163901620455</v>
+        <v>0.002391639016204552</v>
       </c>
       <c r="G38">
-        <v>0.0170477347931987</v>
+        <v>0.01704773479319866</v>
       </c>
       <c r="H38">
-        <v>0.0570806100217865</v>
+        <v>0.05708061002178649</v>
       </c>
       <c r="I38">
-        <v>0.468790521669867</v>
+        <v>0.4687905216698665</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>-0.271374452264055</v>
+        <v>-0.2713744522640552</v>
       </c>
       <c r="L38">
-        <v>0.18860370039328</v>
+        <v>0.1886037003932803</v>
       </c>
       <c r="M38">
-        <v>0.0482975802379301</v>
+        <v>0.04829758023793013</v>
       </c>
       <c r="N38">
-        <v>0.00174168528289572</v>
+        <v>0.001741685282895721</v>
       </c>
       <c r="O38">
-        <v>-3.86612272533335e-05</v>
+        <v>-3.866122725333354e-05</v>
       </c>
       <c r="P38">
-        <v>-8.19547140702226e-05</v>
+        <v>-8.195471407022262e-05</v>
       </c>
       <c r="Q38">
-        <v>0.000487221395101195</v>
+        <v>0.0004872213951011954</v>
       </c>
       <c r="R38">
-        <v>0.0804570072277418</v>
+        <v>0.08045700722774181</v>
       </c>
       <c r="S38">
-        <v>0.0277548657938062</v>
+        <v>0.02775486579380619</v>
       </c>
       <c r="T38">
-        <v>1.26271858356252</v>
+        <v>1.262718583562515</v>
       </c>
       <c r="U38">
         <v>3.6031745715791</v>
       </c>
       <c r="V38">
-        <v>0.931874621662693</v>
+        <v>0.9318746216626933</v>
       </c>
       <c r="W38">
         <v>-2.07262794079266</v>
       </c>
       <c r="X38">
-        <v>1.0703991782136</v>
+        <v>1.070399178213602</v>
       </c>
       <c r="Y38">
-        <v>0.0159172224388354</v>
+        <v>0.01591722243883538</v>
       </c>
       <c r="Z38">
         <v>0.262346845575722</v>
@@ -3626,79 +3626,79 @@
         <v>62</v>
       </c>
       <c r="B39">
-        <v>0.0117889773062187</v>
+        <v>0.01178897730621869</v>
       </c>
       <c r="C39">
-        <v>0.202480602516948</v>
+        <v>0.2024806025169483</v>
       </c>
       <c r="D39">
-        <v>0.0226879140854845</v>
+        <v>0.02268791408548454</v>
       </c>
       <c r="E39">
-        <v>0.0652925068842347</v>
+        <v>0.06529250688423466</v>
       </c>
       <c r="F39">
-        <v>0.0742138020614793</v>
+        <v>0.07421380206147929</v>
       </c>
       <c r="G39">
-        <v>0.0226879947965239</v>
+        <v>0.02268799479652385</v>
       </c>
       <c r="H39">
-        <v>0.0483348069554966</v>
+        <v>0.04833480695549661</v>
       </c>
       <c r="I39">
-        <v>0.404298244043134</v>
+        <v>0.4042982440431339</v>
       </c>
       <c r="J39">
-        <v>0.0768814325141839</v>
+        <v>0.07688143251418667</v>
       </c>
       <c r="K39">
         <v>-0.26293492117317</v>
       </c>
       <c r="L39">
-        <v>0.216701782541297</v>
+        <v>0.2167017825412972</v>
       </c>
       <c r="M39">
-        <v>0.037144810837062</v>
+        <v>0.03714481083706205</v>
       </c>
       <c r="N39">
-        <v>0.00046086764986979</v>
+        <v>0.0004608676498697897</v>
       </c>
       <c r="O39">
-        <v>-6.20510290493012e-06</v>
+        <v>-6.205102904930125e-06</v>
       </c>
       <c r="P39">
-        <v>-0.000420203268863843</v>
+        <v>-0.0004202032688638427</v>
       </c>
       <c r="Q39">
-        <v>-0.00317413729926709</v>
+        <v>-0.003174137299267086</v>
       </c>
       <c r="R39">
-        <v>0.0474981740539727</v>
+        <v>0.04749817405397267</v>
       </c>
       <c r="S39">
-        <v>0.0256340039517877</v>
+        <v>0.02563400395178773</v>
       </c>
       <c r="T39">
-        <v>0.912287191551589</v>
+        <v>0.9122871915515888</v>
       </c>
       <c r="U39">
-        <v>3.68945821315586</v>
+        <v>3.689458213155857</v>
       </c>
       <c r="V39">
-        <v>0.920027684349608</v>
+        <v>0.9200276843496081</v>
       </c>
       <c r="W39">
-        <v>-0.400862997033865</v>
+        <v>-0.4008629970338645</v>
       </c>
       <c r="X39">
-        <v>1.06547540132603</v>
+        <v>1.065475401326033</v>
       </c>
       <c r="Y39">
-        <v>0.0155770191005026</v>
+        <v>0.01557701910050258</v>
       </c>
       <c r="Z39">
-        <v>0.198365554767924</v>
+        <v>0.1983655547679246</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -3706,79 +3706,79 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <v>0.018018018018018</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C40">
-        <v>0.191513710745915</v>
+        <v>0.1915137107459154</v>
       </c>
       <c r="D40">
-        <v>0.0226640318604604</v>
+        <v>0.02266403186046043</v>
       </c>
       <c r="E40">
-        <v>0.055595312623296</v>
+        <v>0.05559531262329597</v>
       </c>
       <c r="F40">
-        <v>0.0423586679624272</v>
+        <v>0.04235866796242715</v>
       </c>
       <c r="G40">
-        <v>0.0226643468607754</v>
+        <v>0.02266434686077544</v>
       </c>
       <c r="H40">
-        <v>0.0513191763191763</v>
+        <v>0.05131917631917632</v>
       </c>
       <c r="I40">
-        <v>0.394688710980037</v>
+        <v>0.3946887109800368</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>-0.254125834532627</v>
+        <v>-0.2541258345326272</v>
       </c>
       <c r="L40">
-        <v>0.215427630100461</v>
+        <v>0.2154276301004608</v>
       </c>
       <c r="M40">
-        <v>0.0596429941227705</v>
+        <v>0.05964299412277049</v>
       </c>
       <c r="N40">
-        <v>0.000409366180251967</v>
+        <v>0.0004093661802519667</v>
       </c>
       <c r="O40">
-        <v>0.000239927956350057</v>
+        <v>0.0002399279563500571</v>
       </c>
       <c r="P40">
-        <v>-0.000158971182373318</v>
+        <v>-0.0001589711823733183</v>
       </c>
       <c r="Q40">
-        <v>-0.000529648379374242</v>
+        <v>-0.0005296483793742418</v>
       </c>
       <c r="R40">
-        <v>0.063810180310566</v>
+        <v>0.06381018031056601</v>
       </c>
       <c r="S40">
-        <v>0.0186704434362845</v>
+        <v>0.01867044343628449</v>
       </c>
       <c r="T40">
-        <v>1.41840504112023</v>
+        <v>1.418405041120228</v>
       </c>
       <c r="U40">
-        <v>4.46947547692328</v>
+        <v>4.469475476923282</v>
       </c>
       <c r="V40">
-        <v>0.909879266755755</v>
+        <v>0.9098792667557555</v>
       </c>
       <c r="W40">
-        <v>1.2102469506713</v>
+        <v>1.210246950671301</v>
       </c>
       <c r="X40">
-        <v>0.939497303142611</v>
+        <v>0.9394973031426113</v>
       </c>
       <c r="Y40">
-        <v>0.0150777823848693</v>
+        <v>0.01507778238486934</v>
       </c>
       <c r="Z40">
-        <v>0.270989747365018</v>
+        <v>0.2709897473650181</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -3786,76 +3786,76 @@
         <v>64</v>
       </c>
       <c r="B41">
-        <v>0.0218181818181818</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="C41">
-        <v>0.193145637999476</v>
+        <v>0.1931456379994764</v>
       </c>
       <c r="D41">
-        <v>0.022487502466666</v>
+        <v>0.02248750246666598</v>
       </c>
       <c r="E41">
-        <v>0.065151331707877</v>
+        <v>0.06515133170787699</v>
       </c>
       <c r="F41">
-        <v>0.0465857645278992</v>
+        <v>0.04658576452789918</v>
       </c>
       <c r="G41">
-        <v>0.0222972371254013</v>
+        <v>0.02229723712540128</v>
       </c>
       <c r="H41">
-        <v>0.0551515151515152</v>
+        <v>0.05515151515151515</v>
       </c>
       <c r="I41">
-        <v>0.37828465028424</v>
+        <v>0.3782846502842403</v>
       </c>
       <c r="J41">
-        <v>0.0486754109713522</v>
+        <v>0.048675410971352</v>
       </c>
       <c r="K41">
-        <v>-0.253422772445006</v>
+        <v>-0.2534227724450061</v>
       </c>
       <c r="L41">
-        <v>0.224137553578769</v>
+        <v>0.2241375535787694</v>
       </c>
       <c r="M41">
-        <v>0.0429072280317572</v>
+        <v>0.04290722803175721</v>
       </c>
       <c r="N41">
-        <v>-0.00416716951724084</v>
+        <v>-0.004167169517240843</v>
       </c>
       <c r="O41">
-        <v>-7.92764686140063e-05</v>
+        <v>-7.927646861400626e-05</v>
       </c>
       <c r="P41">
-        <v>4.74055136622706e-05</v>
+        <v>4.740551366227064e-05</v>
       </c>
       <c r="Q41">
         <v>0.0042877706687894</v>
       </c>
       <c r="R41">
-        <v>0.0826971388201054</v>
+        <v>0.08269713882010542</v>
       </c>
       <c r="S41">
         <v>-0.0728663787556849</v>
       </c>
       <c r="T41">
-        <v>0.933459988123445</v>
+        <v>0.9334599881234453</v>
       </c>
       <c r="U41">
-        <v>4.6916762392681</v>
+        <v>4.691676239268101</v>
       </c>
       <c r="V41">
         <v>0.926206485054065</v>
       </c>
       <c r="W41">
-        <v>-0.787205708643641</v>
+        <v>-0.7872057086436414</v>
       </c>
       <c r="X41">
-        <v>1.02138039698852</v>
+        <v>1.021380396988524</v>
       </c>
       <c r="Y41">
-        <v>0.0154598484993082</v>
+        <v>0.01545984849930816</v>
       </c>
       <c r="Z41">
         <v>-0.221664518883855</v>
@@ -3866,28 +3866,28 @@
         <v>65</v>
       </c>
       <c r="B42">
-        <v>0.0493951612903226</v>
+        <v>0.04939516129032258</v>
       </c>
       <c r="C42">
-        <v>0.133727193844016</v>
+        <v>0.1337271938440159</v>
       </c>
       <c r="D42">
-        <v>0.0337365591397849</v>
+        <v>0.03373655913978493</v>
       </c>
       <c r="E42">
-        <v>0.108396354828889</v>
+        <v>0.1083963548288886</v>
       </c>
       <c r="F42">
-        <v>0.131886692392855</v>
+        <v>0.1318866923928552</v>
       </c>
       <c r="G42">
-        <v>0.0337365591397849</v>
+        <v>0.03373655913978494</v>
       </c>
       <c r="H42">
-        <v>0.141129032258065</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="I42">
-        <v>0.493010461760462</v>
+        <v>0.4930104617604618</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3896,49 +3896,49 @@
         <v>-0.212665141139862</v>
       </c>
       <c r="L42">
-        <v>0.351043823990731</v>
+        <v>0.3510438239907313</v>
       </c>
       <c r="M42">
-        <v>0.165592629626167</v>
+        <v>0.1655926296261669</v>
       </c>
       <c r="N42">
-        <v>-0.00626678893930677</v>
+        <v>-0.006266788939306768</v>
       </c>
       <c r="O42">
-        <v>0.000227178473585469</v>
+        <v>0.0002271784735854692</v>
       </c>
       <c r="P42">
-        <v>0.00358401713339298</v>
+        <v>0.003584017133392979</v>
       </c>
       <c r="Q42">
-        <v>0.0191584276274168</v>
+        <v>0.01915842762741678</v>
       </c>
       <c r="R42">
-        <v>0.263529894606492</v>
+        <v>0.2635298946064919</v>
       </c>
       <c r="S42">
-        <v>-0.073480668493335</v>
+        <v>-0.07348066849333496</v>
       </c>
       <c r="T42">
-        <v>1.827190671876</v>
+        <v>1.827190671875996</v>
       </c>
       <c r="U42">
-        <v>4.15966253816412</v>
+        <v>4.159662538164122</v>
       </c>
       <c r="V42">
-        <v>0.874617590281242</v>
+        <v>0.8746175902812422</v>
       </c>
       <c r="W42">
         <v>-0.449599716257388</v>
       </c>
       <c r="X42">
-        <v>0.67358089270154</v>
+        <v>0.6735808927015403</v>
       </c>
       <c r="Y42">
-        <v>0.0102927220225329</v>
+        <v>0.01029272202253293</v>
       </c>
       <c r="Z42">
-        <v>0.120640415061534</v>
+        <v>0.1206404150615337</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -3949,22 +3949,22 @@
         <v>0.2</v>
       </c>
       <c r="C43">
-        <v>0.193333333333333</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="D43">
-        <v>0.05</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="E43">
-        <v>0.306718767791671</v>
+        <v>0.3067187677916709</v>
       </c>
       <c r="F43">
-        <v>0.277665759407482</v>
+        <v>0.2776657594074821</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="H43">
-        <v>0.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3973,52 +3973,52 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>-0.135996115828661</v>
+        <v>-0.1359961158286606</v>
       </c>
       <c r="L43">
-        <v>0.849133218835895</v>
+        <v>0.8491332188358945</v>
       </c>
       <c r="M43">
-        <v>0.176033137187353</v>
+        <v>0.1760331371873526</v>
       </c>
       <c r="N43">
-        <v>0.0116042004087977</v>
+        <v>0.01160420040879765</v>
       </c>
       <c r="O43">
-        <v>-0.00176149037799115</v>
+        <v>-0.001761490377991149</v>
       </c>
       <c r="P43">
         <v>-0.0359473599965106</v>
       </c>
       <c r="Q43">
-        <v>0.0995510844131487</v>
+        <v>0.09955108441314869</v>
       </c>
       <c r="R43">
-        <v>0.350672404430456</v>
+        <v>0.3506724044304562</v>
       </c>
       <c r="S43">
-        <v>0.189475435636066</v>
+        <v>0.1894754356360663</v>
       </c>
       <c r="T43">
-        <v>0.882645993666084</v>
+        <v>0.8826459936660839</v>
       </c>
       <c r="U43">
-        <v>1.01020408163265</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="V43">
-        <v>0.78344949004277</v>
+        <v>0.7834494900427695</v>
       </c>
       <c r="W43">
-        <v>-1.72972907025383</v>
+        <v>-1.729729070253828</v>
       </c>
       <c r="X43">
         <v>0.316045913814248</v>
       </c>
       <c r="Y43">
-        <v>0.0101511599586583</v>
+        <v>0.01015115995865831</v>
       </c>
       <c r="Z43">
-        <v>-0.520518817067044</v>
+        <v>-0.5205188170670442</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -4026,79 +4026,79 @@
         <v>67</v>
       </c>
       <c r="B44">
-        <v>0.106617647058824</v>
+        <v>0.1066176470588235</v>
       </c>
       <c r="C44">
-        <v>0.234242532301174</v>
+        <v>0.2342425323011737</v>
       </c>
       <c r="D44">
-        <v>0.0941176470588235</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="E44">
-        <v>0.180673724972677</v>
+        <v>0.1806737249726774</v>
       </c>
       <c r="F44">
-        <v>0.212197700127084</v>
+        <v>0.2121977001270838</v>
       </c>
       <c r="G44">
-        <v>0.0941176470588235</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="H44">
-        <v>0.161764705882353</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="I44">
-        <v>0.198039215686274</v>
+        <v>0.1980392156862745</v>
       </c>
       <c r="J44">
-        <v>0.18121326453262</v>
+        <v>0.1812132645326193</v>
       </c>
       <c r="K44">
         <v>-0.187750022430375</v>
       </c>
       <c r="L44">
-        <v>0.520879977522327</v>
+        <v>0.5208799775223267</v>
       </c>
       <c r="M44">
-        <v>0.25559791266944</v>
+        <v>0.2555979126694397</v>
       </c>
       <c r="N44">
-        <v>0.0135902114777562</v>
+        <v>0.01359021147775616</v>
       </c>
       <c r="O44">
-        <v>0.00233196065075343</v>
+        <v>0.002331960650753434</v>
       </c>
       <c r="P44">
-        <v>-0.000960797160877371</v>
+        <v>-0.0009607971608773714</v>
       </c>
       <c r="Q44">
-        <v>-0.0115355589788568</v>
+        <v>-0.01153555897885684</v>
       </c>
       <c r="R44">
-        <v>0.147931491129832</v>
+        <v>0.1479314911298323</v>
       </c>
       <c r="S44">
-        <v>0.0999214999530457</v>
+        <v>0.09992149995304565</v>
       </c>
       <c r="T44">
-        <v>2.19642155352231</v>
+        <v>2.196421553522305</v>
       </c>
       <c r="U44">
-        <v>3.21537487788863</v>
+        <v>3.215374877888632</v>
       </c>
       <c r="V44">
-        <v>0.90539233240597</v>
+        <v>0.9053923324059699</v>
       </c>
       <c r="W44">
-        <v>0.292188771086001</v>
+        <v>0.2921887710860013</v>
       </c>
       <c r="X44">
-        <v>1.88897245302525</v>
+        <v>1.888972453025254</v>
       </c>
       <c r="Y44">
-        <v>0.00973434845084926</v>
+        <v>0.009734348450849259</v>
       </c>
       <c r="Z44">
-        <v>0.612750513681449</v>
+        <v>0.6127505136814488</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -4106,79 +4106,79 @@
         <v>68</v>
       </c>
       <c r="B45">
-        <v>0.357142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C45">
-        <v>0.462192569335426</v>
+        <v>0.4621925693354265</v>
       </c>
       <c r="D45">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E45">
-        <v>0.336275374153461</v>
+        <v>0.3362753741534608</v>
       </c>
       <c r="F45">
         <v>0.273203084835807</v>
       </c>
       <c r="G45">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H45">
-        <v>0.476190476190476</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="I45">
         <v>0.4</v>
       </c>
       <c r="J45">
-        <v>0.703539576766948</v>
+        <v>0.7035395767669481</v>
       </c>
       <c r="K45">
-        <v>-0.158235625624246</v>
+        <v>-0.1582356256242465</v>
       </c>
       <c r="L45">
         <v>0.785374104561626</v>
       </c>
       <c r="M45">
-        <v>0.585448029889159</v>
+        <v>0.5854480298891592</v>
       </c>
       <c r="N45">
-        <v>-0.156230485940843</v>
+        <v>-0.1562304859408432</v>
       </c>
       <c r="O45">
-        <v>0.0143491794700205</v>
+        <v>0.01434917947002052</v>
       </c>
       <c r="P45">
-        <v>-0.0304338187910031</v>
+        <v>-0.03043381879100308</v>
       </c>
       <c r="Q45">
-        <v>0.0837922102268129</v>
+        <v>0.08379221022681288</v>
       </c>
       <c r="R45">
-        <v>0.299862405665706</v>
+        <v>0.2998624056657062</v>
       </c>
       <c r="S45">
-        <v>-0.835664605974133</v>
+        <v>-0.8356646059741328</v>
       </c>
       <c r="T45">
-        <v>3.13746084020405</v>
+        <v>3.137460840204055</v>
       </c>
       <c r="U45">
-        <v>1.75897892732976</v>
+        <v>1.758978927329758</v>
       </c>
       <c r="V45">
-        <v>0.874853617732142</v>
+        <v>0.8748536177321418</v>
       </c>
       <c r="W45">
-        <v>0.303596422697832</v>
+        <v>0.3035964226978315</v>
       </c>
       <c r="X45">
-        <v>0.692824659123163</v>
+        <v>0.6928246591231628</v>
       </c>
       <c r="Y45">
-        <v>0.0112321475677077</v>
+        <v>0.01123214756770773</v>
       </c>
       <c r="Z45">
-        <v>-0.0156003432744088</v>
+        <v>-0.01560034327440882</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis/Code/enron_dynet_attvol_lap.xlsx
+++ b/Thesis/Code/enron_dynet_attvol_lap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AvgDeg</t>
   </si>
@@ -73,6 +73,9 @@
     <t>IAwIP</t>
   </si>
   <si>
+    <t>Power</t>
+  </si>
+  <si>
     <t>MeanResistanceDist</t>
   </si>
   <si>
@@ -85,10 +88,19 @@
     <t>NormNMFRatio</t>
   </si>
   <si>
+    <t>MeanPSD</t>
+  </si>
+  <si>
     <t>SubgraphStat</t>
   </si>
   <si>
     <t>Emergence</t>
+  </si>
+  <si>
+    <t>ZCR</t>
+  </si>
+  <si>
+    <t>LogSpecCent</t>
   </si>
   <si>
     <t>Nov98</t>
@@ -578,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,25 +672,37 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="C2">
-        <v>0.1923076923076923</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="D2">
         <v>0.125</v>
       </c>
       <c r="E2">
-        <v>0.1886113133654776</v>
+        <v>7.3264961805708e-17</v>
       </c>
       <c r="F2">
-        <v>0.1854346340927896</v>
+        <v>0.18543463409279</v>
       </c>
       <c r="G2">
         <v>0.125</v>
@@ -690,46 +714,46 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9999999999999983</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K2">
-        <v>-0.1962467604246706</v>
+        <v>-0.196246760424671</v>
       </c>
       <c r="L2">
-        <v>0.7071228660698021</v>
+        <v>0.357912844113215</v>
       </c>
       <c r="M2">
-        <v>0.1083215869568129</v>
+        <v>0.196349540849362</v>
       </c>
       <c r="N2">
-        <v>-0.04499935693536994</v>
+        <v>-0.281479934980209</v>
       </c>
       <c r="O2">
-        <v>0.005236700369711357</v>
+        <v>-0.000290855532304192</v>
       </c>
       <c r="P2">
-        <v>-0.01335757592150546</v>
+        <v>-0.00628020825866659</v>
       </c>
       <c r="Q2">
-        <v>-0.04853751536207153</v>
+        <v>-0.193742531599144</v>
       </c>
       <c r="R2">
-        <v>0.3698913863806054</v>
+        <v>0.400583874516664</v>
       </c>
       <c r="S2">
-        <v>-0.2164452399670858</v>
+        <v>-0.151660558583893</v>
       </c>
       <c r="T2">
-        <v>0.3453014239078329</v>
+        <v>0.0832566872178078</v>
       </c>
       <c r="U2">
-        <v>1.603839864235384</v>
+        <v>0.191128330655385</v>
       </c>
       <c r="V2">
+        <v>1.60383986423538</v>
+      </c>
+      <c r="W2">
         <v>0.894427190999916</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -738,421 +762,493 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>5.46177415579384e-10</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.0009765625</v>
+      </c>
+      <c r="AD2">
+        <v>3.80640573113532</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>0.1454545454545455</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="C3">
-        <v>0.2427369671951715</v>
+        <v>0.242736967195172</v>
       </c>
       <c r="D3">
-        <v>0.08686868686868687</v>
+        <v>0.0868686868686869</v>
       </c>
       <c r="E3">
-        <v>0.1989992995033837</v>
+        <v>0.233759914226578</v>
       </c>
       <c r="F3">
-        <v>0.1751105429800769</v>
+        <v>0.198999326241596</v>
       </c>
       <c r="G3">
-        <v>0.08686868686868687</v>
+        <v>0.0868686868686869</v>
       </c>
       <c r="H3">
-        <v>0.2181818181818182</v>
+        <v>0.218181818181818</v>
       </c>
       <c r="I3">
-        <v>0.2464646464646465</v>
+        <v>0.246464646464646</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>-0.1992124847835268</v>
+        <v>-0.199212484783527</v>
       </c>
       <c r="L3">
-        <v>0.6184268778123516</v>
+        <v>0.294755389818568</v>
       </c>
       <c r="M3">
-        <v>0.2073305732429563</v>
+        <v>-0.0981403610417624</v>
       </c>
       <c r="N3">
-        <v>0.2411166355894028</v>
+        <v>-0.00739392182766623</v>
       </c>
       <c r="O3">
-        <v>0.00872589419574727</v>
+        <v>-0.00136412407597397</v>
       </c>
       <c r="P3">
-        <v>-0.009422840411707259</v>
+        <v>0.00242556579945339</v>
       </c>
       <c r="Q3">
-        <v>-0.012272809832913</v>
+        <v>0.144664492283322</v>
       </c>
       <c r="R3">
-        <v>0.2106465735483418</v>
+        <v>0.252329442170557</v>
       </c>
       <c r="S3">
-        <v>1.753911914120626</v>
+        <v>0.00490644439385712</v>
       </c>
       <c r="T3">
-        <v>1.255140481558623</v>
+        <v>-0.0344397982419477</v>
       </c>
       <c r="U3">
+        <v>0.124031996607859</v>
+      </c>
+      <c r="V3">
         <v>1.80404959028772</v>
       </c>
-      <c r="V3">
-        <v>0.9082951062292476</v>
-      </c>
       <c r="W3">
-        <v>-0.3107943407460569</v>
+        <v>0.908295106229248</v>
       </c>
       <c r="X3">
-        <v>1.478060840970622</v>
+        <v>-0.614383454515078</v>
       </c>
       <c r="Y3">
-        <v>0.01444323263739811</v>
+        <v>1.65520906507215</v>
       </c>
       <c r="Z3">
-        <v>0.4479994839305085</v>
+        <v>3.82324190905569e-10</v>
+      </c>
+      <c r="AA3">
+        <v>0.0144432326373981</v>
+      </c>
+      <c r="AB3">
+        <v>0.190991423173619</v>
+      </c>
+      <c r="AC3">
+        <v>0.0029296875</v>
+      </c>
+      <c r="AD3">
+        <v>3.80637658925763</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>0.08333333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="C4">
         <v>0.117056856187291</v>
       </c>
       <c r="D4">
-        <v>0.07692307692307693</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="E4">
-        <v>0.1329021159497081</v>
+        <v>6.61863726218843e-17</v>
       </c>
       <c r="F4">
-        <v>0.05769230769230771</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="G4">
-        <v>0.07692307692307693</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H4">
-        <v>0.1538461538461539</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K4">
-        <v>-0.2067949743899957</v>
+        <v>-0.206794974389996</v>
       </c>
       <c r="L4">
-        <v>0.5724933883472606</v>
+        <v>0.319244162917335</v>
       </c>
       <c r="M4">
-        <v>0.3225293269942843</v>
+        <v>0.111535833855257</v>
       </c>
       <c r="N4">
-        <v>0.1405652496263672</v>
+        <v>0.14663950850853</v>
       </c>
       <c r="O4">
-        <v>0.00800787508793192</v>
+        <v>-0.000316121807658314</v>
       </c>
       <c r="P4">
-        <v>0.00566931638437425</v>
+        <v>-0.00043920842479813</v>
       </c>
       <c r="Q4">
-        <v>-0.1448912463665599</v>
+        <v>-0.0260691681889053</v>
       </c>
       <c r="R4">
-        <v>0.1494474648493321</v>
+        <v>0.195451798924076</v>
       </c>
       <c r="S4">
-        <v>0.9562196442589168</v>
+        <v>0.0563866572093839</v>
       </c>
       <c r="T4">
-        <v>2.265634212426979</v>
+        <v>0.040597412378039</v>
       </c>
       <c r="U4">
-        <v>1.751266873462354</v>
+        <v>0.123533002441724</v>
       </c>
       <c r="V4">
-        <v>0.9309493362512626</v>
+        <v>1.75126687346235</v>
       </c>
       <c r="W4">
-        <v>0.5383979826095068</v>
+        <v>0.930949336251263</v>
       </c>
       <c r="X4">
-        <v>0.8956885748716797</v>
+        <v>0.387559752143189</v>
       </c>
       <c r="Y4">
-        <v>0.01532039168411032</v>
+        <v>0.850969427275761</v>
       </c>
       <c r="Z4">
-        <v>-0.04532203580579625</v>
+        <v>1.29632931652005e-07</v>
+      </c>
+      <c r="AA4">
+        <v>0.0153203916841103</v>
+      </c>
+      <c r="AB4">
+        <v>-0.0687864122677545</v>
+      </c>
+      <c r="AC4">
+        <v>0.0048828125</v>
+      </c>
+      <c r="AD4">
+        <v>3.84411793284544</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555555</v>
+        <v>0.555555555555555</v>
       </c>
       <c r="D5">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E5">
-        <v>0.5690355937288492</v>
+        <v>7.40148683083437e-17</v>
       </c>
       <c r="F5">
-        <v>0.3902230588954538</v>
+        <v>0.390223058895454</v>
       </c>
       <c r="G5">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H5">
-        <v>0.6666666666666666</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>-0.05874974732605791</v>
+        <v>-0.0587497473260579</v>
       </c>
       <c r="L5">
-        <v>1.27022363692625</v>
+        <v>0.411872476498506</v>
       </c>
       <c r="M5">
-        <v>0.7415081089383215</v>
+        <v>-3.08395284618099e-17</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.622639614380666</v>
       </c>
       <c r="O5">
-        <v>2.467162276944792e-17</v>
+        <v>-6.16790569236198e-18</v>
       </c>
       <c r="P5">
-        <v>0.02817268263712584</v>
+        <v>0.153608108182478</v>
       </c>
       <c r="Q5">
-        <v>-0.4512821068775263</v>
+        <v>3.70074341541719e-17</v>
       </c>
       <c r="R5">
-        <v>0.6677214447545347</v>
+        <v>0.618522265624125</v>
       </c>
       <c r="S5">
-        <v>-1.233581138472396e-17</v>
+        <v>0.257904635609859</v>
       </c>
       <c r="T5">
-        <v>2.714094992476945</v>
+        <v>6.78469626159818e-17</v>
       </c>
       <c r="U5">
-        <v>0.9904681735970102</v>
+        <v>0.361383678254841</v>
       </c>
       <c r="V5">
-        <v>0.7745966692414834</v>
+        <v>0.99046817359701</v>
       </c>
       <c r="W5">
-        <v>-1.051910826651087</v>
+        <v>0.774596669241483</v>
       </c>
       <c r="X5">
-        <v>0.4879057598761152</v>
+        <v>-0.897201725003773</v>
       </c>
       <c r="Y5">
-        <v>0.01162790697674419</v>
+        <v>0.506036927659891</v>
       </c>
       <c r="Z5">
-        <v>0.0547474406556968</v>
+        <v>1.19512584713704e-10</v>
+      </c>
+      <c r="AA5">
+        <v>0.0116279069767442</v>
+      </c>
+      <c r="AB5">
+        <v>0.1387457862687</v>
+      </c>
+      <c r="AC5">
+        <v>0.0009765625</v>
+      </c>
+      <c r="AD5">
+        <v>3.96044920306086</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0.2</v>
       </c>
       <c r="C6">
-        <v>0.2592592592592592</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="D6">
-        <v>0.1666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6">
-        <v>0.2759650132061769</v>
+        <v>0.32866964087565</v>
       </c>
       <c r="F6">
-        <v>0.2776840538002493</v>
+        <v>0.277684053800249</v>
       </c>
       <c r="G6">
-        <v>0.1666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H6">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K6">
-        <v>-0.1574053834550387</v>
+        <v>-0.157405383455039</v>
       </c>
       <c r="L6">
-        <v>0.8178550368923746</v>
+        <v>0.388317890791957</v>
       </c>
       <c r="M6">
-        <v>0.3984704074373512</v>
+        <v>0.269499705255033</v>
       </c>
       <c r="N6">
-        <v>0.2175885991825981</v>
+        <v>-0.211594569674237</v>
       </c>
       <c r="O6">
-        <v>-0.02001180816694959</v>
+        <v>-0.022443446246289</v>
       </c>
       <c r="P6">
-        <v>0.05820457255994432</v>
+        <v>0.0625083073122254</v>
       </c>
       <c r="Q6">
-        <v>-0.2794942110272285</v>
+        <v>-0.0631129839256955</v>
       </c>
       <c r="R6">
-        <v>0.5506743980805605</v>
+        <v>0.490897007878425</v>
       </c>
       <c r="S6">
-        <v>1.049832644220043</v>
+        <v>-0.0920261932805841</v>
       </c>
       <c r="T6">
-        <v>1.703480915131351</v>
+        <v>0.0814655424895186</v>
       </c>
       <c r="U6">
-        <v>1.478779666041661</v>
+        <v>0.246605896796301</v>
       </c>
       <c r="V6">
-        <v>0.8660254037844387</v>
+        <v>1.47877966604166</v>
       </c>
       <c r="W6">
-        <v>1.69741990976954</v>
+        <v>0.866025403784439</v>
       </c>
       <c r="X6">
-        <v>1.318328954682116</v>
+        <v>0.488559381720309</v>
       </c>
       <c r="Y6">
+        <v>1.26762472216491</v>
+      </c>
+      <c r="Z6">
+        <v>4.78050338854817e-11</v>
+      </c>
+      <c r="AA6">
         <v>0.0144226435568847</v>
       </c>
-      <c r="Z6">
-        <v>0.1550154723661482</v>
+      <c r="AB6">
+        <v>0.00614005930638878</v>
+      </c>
+      <c r="AC6">
+        <v>0.0009765625</v>
+      </c>
+      <c r="AD6">
+        <v>3.85320202704885</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555555</v>
+        <v>0.555555555555555</v>
       </c>
       <c r="D7">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E7">
-        <v>0.5690355937288492</v>
+        <v>0.569035593728849</v>
       </c>
       <c r="F7">
-        <v>0.3902230588954538</v>
+        <v>0.390223058895454</v>
       </c>
       <c r="G7">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H7">
-        <v>0.6666666666666666</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>-0.05874974732605791</v>
+        <v>-0.0587497473260579</v>
       </c>
       <c r="L7">
-        <v>1.27022363692625</v>
+        <v>0.411872476498506</v>
       </c>
       <c r="M7">
-        <v>0.7415081089383215</v>
+        <v>-3.08395284618099e-17</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.622639614380666</v>
       </c>
       <c r="O7">
-        <v>2.467162276944792e-17</v>
+        <v>-6.16790569236198e-18</v>
       </c>
       <c r="P7">
-        <v>0.02817268263712584</v>
+        <v>0.153608108182478</v>
       </c>
       <c r="Q7">
-        <v>-0.4512821068775263</v>
+        <v>3.70074341541719e-17</v>
       </c>
       <c r="R7">
-        <v>0.6677214447545347</v>
+        <v>0.618522265624125</v>
       </c>
       <c r="S7">
-        <v>-1.233581138472396e-17</v>
+        <v>0.257904635609859</v>
       </c>
       <c r="T7">
-        <v>2.714094992476945</v>
+        <v>6.78469626159818e-17</v>
       </c>
       <c r="U7">
-        <v>0.9904681735970102</v>
+        <v>0.361383678254841</v>
       </c>
       <c r="V7">
-        <v>0.7745966692414834</v>
+        <v>0.99046817359701</v>
       </c>
       <c r="W7">
-        <v>-1.69741990976954</v>
+        <v>0.774596669241483</v>
       </c>
       <c r="X7">
-        <v>0.7585360212627104</v>
+        <v>-0.488559381720309</v>
       </c>
       <c r="Y7">
+        <v>0.788877009508105</v>
+      </c>
+      <c r="Z7">
+        <v>1.19512584713704e-10</v>
+      </c>
+      <c r="AA7">
         <v>0.0144226435568847</v>
       </c>
-      <c r="Z7">
-        <v>-0.1850373933323195</v>
+      <c r="AB7">
+        <v>0.0879255349861035</v>
+      </c>
+      <c r="AC7">
+        <v>0.0009765625</v>
+      </c>
+      <c r="AD7">
+        <v>3.96044920306086</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0.1208791208791209</v>
+        <v>0.120879120879121</v>
       </c>
       <c r="C8">
-        <v>0.3726442735834123</v>
+        <v>0.372644273583412</v>
       </c>
       <c r="D8">
-        <v>0.1108058608058608</v>
+        <v>0.110805860805861</v>
       </c>
       <c r="E8">
         <v>0.224884496487303</v>
@@ -1161,2733 +1257,3141 @@
         <v>0.26306750102135</v>
       </c>
       <c r="G8">
-        <v>0.1108058608058608</v>
+        <v>0.110805860805861</v>
       </c>
       <c r="H8">
-        <v>0.2197802197802198</v>
+        <v>0.21978021978022</v>
       </c>
       <c r="I8">
-        <v>0.4622448979591837</v>
+        <v>0.462244897959184</v>
       </c>
       <c r="J8">
-        <v>0.2884447405659595</v>
+        <v>0.28844474056596</v>
       </c>
       <c r="K8">
-        <v>-0.1708203965790822</v>
+        <v>-0.170820396579082</v>
       </c>
       <c r="L8">
-        <v>0.5426596465150449</v>
+        <v>0.191674415843427</v>
       </c>
       <c r="M8">
-        <v>0.1556827159737727</v>
+        <v>0.195116226703824</v>
       </c>
       <c r="N8">
-        <v>0.05556966575684169</v>
+        <v>0.0105794124954303</v>
       </c>
       <c r="O8">
-        <v>0.003898339636959821</v>
+        <v>-0.00301460888414284</v>
       </c>
       <c r="P8">
-        <v>0.01248807190090003</v>
+        <v>-0.00975806698153376</v>
       </c>
       <c r="Q8">
-        <v>-0.04288846294649031</v>
+        <v>-0.0287901952490083</v>
       </c>
       <c r="R8">
-        <v>0.2808792704575214</v>
+        <v>0.361067617192525</v>
       </c>
       <c r="S8">
-        <v>0.4369716509460416</v>
+        <v>-0.00281319403272853</v>
       </c>
       <c r="T8">
-        <v>1.136132348298414</v>
+        <v>0.0384731433619002</v>
       </c>
       <c r="U8">
-        <v>2.999760161851788</v>
+        <v>0.0871712111921416</v>
       </c>
       <c r="V8">
-        <v>0.8751994496842849</v>
+        <v>2.99976016185179</v>
       </c>
       <c r="W8">
+        <v>0.875199449684285</v>
+      </c>
+      <c r="X8">
         <v>1.04529271084357</v>
       </c>
-      <c r="X8">
-        <v>2.012795972179264</v>
-      </c>
       <c r="Y8">
+        <v>2.31444824464738</v>
+      </c>
+      <c r="Z8">
+        <v>1.22132278022043e-06</v>
+      </c>
+      <c r="AA8">
         <v>0.010778280692413</v>
       </c>
-      <c r="Z8">
-        <v>0.1238308158874847</v>
+      <c r="AB8">
+        <v>0.0879889872275869</v>
+      </c>
+      <c r="AC8">
+        <v>0.005859375</v>
+      </c>
+      <c r="AD8">
+        <v>3.88437753064181</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0.06617647058823529</v>
+        <v>0.0661764705882353</v>
       </c>
       <c r="C9">
-        <v>0.1570041779247753</v>
+        <v>0.157004177924775</v>
       </c>
       <c r="D9">
-        <v>0.02892156862745098</v>
+        <v>0.028921568627451</v>
       </c>
       <c r="E9">
-        <v>0.1663105296304933</v>
+        <v>0.151530994839338</v>
       </c>
       <c r="F9">
-        <v>0.1910238565134025</v>
+        <v>0.191023856513403</v>
       </c>
       <c r="G9">
-        <v>0.02892156862745098</v>
+        <v>0.028921568627451</v>
       </c>
       <c r="H9">
-        <v>0.1397058823529412</v>
+        <v>0.139705882352941</v>
       </c>
       <c r="I9">
-        <v>0.3316526610644258</v>
+        <v>0.331652661064426</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.2062981162565719</v>
+        <v>-0.206298116256572</v>
       </c>
       <c r="L9">
-        <v>0.5629346975550076</v>
+        <v>0.217457289766567</v>
       </c>
       <c r="M9">
-        <v>0.2194061893865902</v>
+        <v>-0.0769603226257332</v>
       </c>
       <c r="N9">
-        <v>0.07120642773065818</v>
+        <v>-0.0716004788758056</v>
       </c>
       <c r="O9">
-        <v>-0.01155391885130322</v>
+        <v>0.00296828043024089</v>
       </c>
       <c r="P9">
-        <v>0.002609273694333348</v>
+        <v>-0.00440679261003947</v>
       </c>
       <c r="Q9">
-        <v>0.01261372957185229</v>
+        <v>0.122655122216967</v>
       </c>
       <c r="R9">
-        <v>0.1496035889329086</v>
+        <v>0.168844023696225</v>
       </c>
       <c r="S9">
-        <v>0.6958801867256523</v>
+        <v>-0.0203250552474332</v>
       </c>
       <c r="T9">
-        <v>2.064822897970687</v>
+        <v>-0.030788059056574</v>
       </c>
       <c r="U9">
-        <v>1.858518501157709</v>
+        <v>0.113071983782244</v>
       </c>
       <c r="V9">
-        <v>0.8071359173444221</v>
+        <v>1.85851850115771</v>
       </c>
       <c r="W9">
-        <v>14.07092020305392</v>
+        <v>0.807135917344422</v>
       </c>
       <c r="X9">
-        <v>0.9088844679519154</v>
+        <v>14.2035235053185</v>
       </c>
       <c r="Y9">
-        <v>0.01463350172612224</v>
+        <v>0.808652281774728</v>
       </c>
       <c r="Z9">
-        <v>0.4837697053652315</v>
+        <v>3.45730489041979e-06</v>
+      </c>
+      <c r="AA9">
+        <v>0.0146335017261222</v>
+      </c>
+      <c r="AB9">
+        <v>0.393941351072319</v>
+      </c>
+      <c r="AC9">
+        <v>0.0048828125</v>
+      </c>
+      <c r="AD9">
+        <v>3.79947115448903</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>0.09477124183006536</v>
+        <v>0.0947712418300654</v>
       </c>
       <c r="C10">
-        <v>0.2951890947548947</v>
+        <v>0.295189094754895</v>
       </c>
       <c r="D10">
-        <v>0.1004901960784314</v>
+        <v>0.100490196078431</v>
       </c>
       <c r="E10">
-        <v>0.1896057627874571</v>
+        <v>0.189605762787457</v>
       </c>
       <c r="F10">
-        <v>0.2211683371430339</v>
+        <v>0.221168337143034</v>
       </c>
       <c r="G10">
-        <v>0.1004901960784314</v>
+        <v>0.100490196078431</v>
       </c>
       <c r="H10">
-        <v>0.1895424836601307</v>
+        <v>0.189542483660131</v>
       </c>
       <c r="I10">
-        <v>0.3879629629629628</v>
+        <v>0.387962962962963</v>
       </c>
       <c r="J10">
-        <v>0.2384655915900276</v>
+        <v>0.238465591590028</v>
       </c>
       <c r="K10">
-        <v>-0.1760511384475156</v>
+        <v>-0.176051138447516</v>
       </c>
       <c r="L10">
-        <v>0.4663037384474061</v>
+        <v>0.195910563385899</v>
       </c>
       <c r="M10">
-        <v>0.1035308739514229</v>
+        <v>0.31918406132311</v>
       </c>
       <c r="N10">
-        <v>-0.01798593962864525</v>
+        <v>0.0130179740812593</v>
       </c>
       <c r="O10">
-        <v>0.001219753699766798</v>
+        <v>-0.00130577477993373</v>
       </c>
       <c r="P10">
-        <v>-0.001960640093436703</v>
+        <v>0.0018199204800016</v>
       </c>
       <c r="Q10">
-        <v>0.03510363203667307</v>
+        <v>0.0195304820695329</v>
       </c>
       <c r="R10">
-        <v>0.2244240166586075</v>
+        <v>0.244845257321564</v>
       </c>
       <c r="S10">
-        <v>-0.1831838973998497</v>
+        <v>0.00597066427265145</v>
       </c>
       <c r="T10">
-        <v>0.8675799083425787</v>
+        <v>0.0766475874919977</v>
       </c>
       <c r="U10">
-        <v>3.279084650144586</v>
+        <v>0.0851640695135395</v>
       </c>
       <c r="V10">
+        <v>3.27908465014458</v>
+      </c>
+      <c r="W10">
         <v>0.877326717582169</v>
       </c>
-      <c r="W10">
-        <v>-13.6340352261333</v>
-      </c>
       <c r="X10">
-        <v>1.721343445871258</v>
+        <v>-13.7666385283979</v>
       </c>
       <c r="Y10">
-        <v>0.01406938530911959</v>
+        <v>1.67478901222027</v>
       </c>
       <c r="Z10">
+        <v>2.35028199841793e-06</v>
+      </c>
+      <c r="AA10">
+        <v>0.0140693853091196</v>
+      </c>
+      <c r="AB10">
         <v>-1</v>
       </c>
+      <c r="AC10">
+        <v>0.005859375</v>
+      </c>
+      <c r="AD10">
+        <v>3.86566034790477</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>0.08874458874458874</v>
+        <v>0.0887445887445887</v>
       </c>
       <c r="C11">
-        <v>0.2237781971365593</v>
+        <v>0.223778197136559</v>
       </c>
       <c r="D11">
-        <v>0.05714285714285714</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="E11">
-        <v>0.1400386894301608</v>
+        <v>0.154598055827368</v>
       </c>
       <c r="F11">
-        <v>0.1839119986238853</v>
+        <v>0.183911998623885</v>
       </c>
       <c r="G11">
-        <v>0.05714285714285714</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="H11">
-        <v>0.1471861471861472</v>
+        <v>0.147186147186147</v>
       </c>
       <c r="I11">
-        <v>0.3284632034632034</v>
+        <v>0.328463203463203</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.2101562451884072</v>
+        <v>-0.210156245188407</v>
       </c>
       <c r="L11">
-        <v>0.4345577037736736</v>
+        <v>0.188674159040593</v>
       </c>
       <c r="M11">
-        <v>0.1661751583354228</v>
+        <v>0.0521148171784959</v>
       </c>
       <c r="N11">
-        <v>0.01559487446023613</v>
+        <v>-0.0277477518507294</v>
       </c>
       <c r="O11">
-        <v>0.003284560243313071</v>
+        <v>0.00166027012890737</v>
       </c>
       <c r="P11">
-        <v>0.006302017389119043</v>
+        <v>-0.00615464616951718</v>
       </c>
       <c r="Q11">
-        <v>0.002577645628937957</v>
+        <v>0.0310620369467444</v>
       </c>
       <c r="R11">
-        <v>0.2526064059529742</v>
+        <v>0.261149023173021</v>
       </c>
       <c r="S11">
-        <v>0.09848572493032363</v>
+        <v>-0.00594768695380803</v>
       </c>
       <c r="T11">
-        <v>1.564589477393232</v>
+        <v>-0.0164675683249836</v>
       </c>
       <c r="U11">
-        <v>2.646651907288623</v>
+        <v>0.0799516902561911</v>
       </c>
       <c r="V11">
-        <v>0.8668150322802175</v>
+        <v>2.64665190728862</v>
       </c>
       <c r="W11">
-        <v>-0.1925786857426129</v>
+        <v>0.866815032280218</v>
       </c>
       <c r="X11">
-        <v>0.8174323007542839</v>
+        <v>-0.192578685742593</v>
       </c>
       <c r="Y11">
-        <v>0.01466046426322081</v>
+        <v>0.777286658254289</v>
       </c>
       <c r="Z11">
+        <v>8.79792459363521e-07</v>
+      </c>
+      <c r="AA11">
+        <v>0.0146604642632208</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
+      <c r="AC11">
+        <v>0.0048828125</v>
+      </c>
+      <c r="AD11">
+        <v>3.8081723778816</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>0.07114624505928853</v>
+        <v>0.0711462450592885</v>
       </c>
       <c r="C12">
-        <v>0.2751187093283788</v>
+        <v>0.275118709328379</v>
       </c>
       <c r="D12">
         <v>0.077733860342556</v>
       </c>
       <c r="E12">
-        <v>0.1529449898412922</v>
+        <v>0.143163996951595</v>
       </c>
       <c r="F12">
-        <v>0.1896691250468145</v>
+        <v>0.189669125046814</v>
       </c>
       <c r="G12">
         <v>0.077733860342556</v>
       </c>
       <c r="H12">
-        <v>0.1462450592885375</v>
+        <v>0.146245059288538</v>
       </c>
       <c r="I12">
-        <v>0.3112428634167764</v>
+        <v>0.311242863416776</v>
       </c>
       <c r="J12">
-        <v>0.1591626271971439</v>
+        <v>0.159162627197144</v>
       </c>
       <c r="K12">
-        <v>-0.1965268048557363</v>
+        <v>-0.196526804855736</v>
       </c>
       <c r="L12">
-        <v>0.4809832174443036</v>
+        <v>0.183457996431986</v>
       </c>
       <c r="M12">
-        <v>0.08220564784094048</v>
+        <v>-0.0201265069395386</v>
       </c>
       <c r="N12">
-        <v>0.05190373299759497</v>
+        <v>-0.0393028416681035</v>
       </c>
       <c r="O12">
-        <v>0.000937584186792267</v>
+        <v>-0.00444199938535368</v>
       </c>
       <c r="P12">
-        <v>-0.0002714223568189722</v>
+        <v>-0.00091469707470701</v>
       </c>
       <c r="Q12">
-        <v>-0.05899873431655546</v>
+        <v>0.0230953983965241</v>
       </c>
       <c r="R12">
-        <v>0.138328722680016</v>
+        <v>0.15767682657122</v>
       </c>
       <c r="S12">
-        <v>0.5613772423063702</v>
+        <v>-0.046035753439124</v>
       </c>
       <c r="T12">
-        <v>0.8736096640178295</v>
+        <v>-0.0069551271857433</v>
       </c>
       <c r="U12">
-        <v>3.601294845927185</v>
+        <v>0.073071957105848</v>
       </c>
       <c r="V12">
+        <v>3.60129484592718</v>
+      </c>
+      <c r="W12">
         <v>0.864472116206825</v>
       </c>
-      <c r="W12">
-        <v>1.033726971003696</v>
-      </c>
       <c r="X12">
-        <v>1.220704000016236</v>
+        <v>1.03372697100383</v>
       </c>
       <c r="Y12">
-        <v>0.01268135908677668</v>
+        <v>1.26413840366728</v>
       </c>
       <c r="Z12">
-        <v>0.2383644891482947</v>
+        <v>3.15553663304419e-06</v>
+      </c>
+      <c r="AA12">
+        <v>0.0126813590867767</v>
+      </c>
+      <c r="AB12">
+        <v>0.159487948070518</v>
+      </c>
+      <c r="AC12">
+        <v>0.0078125</v>
+      </c>
+      <c r="AD12">
+        <v>3.83470776649325</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0.07076923076923078</v>
+        <v>0.0707692307692308</v>
       </c>
       <c r="C13">
-        <v>0.1690318743792574</v>
+        <v>0.169031874379257</v>
       </c>
       <c r="D13">
-        <v>0.02880341880341881</v>
+        <v>0.0288034188034188</v>
       </c>
       <c r="E13">
-        <v>0.1361851943279277</v>
+        <v>0.136185194327928</v>
       </c>
       <c r="F13">
-        <v>0.1724472354977904</v>
+        <v>0.17244723549779</v>
       </c>
       <c r="G13">
-        <v>0.02880341880341881</v>
+        <v>0.0288034188034188</v>
       </c>
       <c r="H13">
-        <v>0.1261538461538461</v>
+        <v>0.126153846153846</v>
       </c>
       <c r="I13">
-        <v>0.3300014088475627</v>
+        <v>0.330001408847563</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.2036583236432377</v>
+        <v>-0.203658323643238</v>
       </c>
       <c r="L13">
-        <v>0.4171655804659767</v>
+        <v>0.161990455951043</v>
       </c>
       <c r="M13">
-        <v>0.1911277304231394</v>
+        <v>0.121115927721232</v>
       </c>
       <c r="N13">
-        <v>-0.002086083517903355</v>
+        <v>-0.0468255206287268</v>
       </c>
       <c r="O13">
-        <v>0.001004720284781111</v>
+        <v>0.00123027701264868</v>
       </c>
       <c r="P13">
-        <v>-0.001577626261894795</v>
+        <v>-0.00382504825637207</v>
       </c>
       <c r="Q13">
-        <v>0.01060683528725797</v>
+        <v>0.00347081115435525</v>
       </c>
       <c r="R13">
-        <v>0.2420607058296695</v>
+        <v>0.289634219167747</v>
       </c>
       <c r="S13">
-        <v>0.009185030727513083</v>
+        <v>0.00755999487638986</v>
       </c>
       <c r="T13">
-        <v>1.942233096704093</v>
+        <v>0.0097047744418702</v>
       </c>
       <c r="U13">
+        <v>0.062935989719498</v>
+      </c>
+      <c r="V13">
         <v>2.30044561405935</v>
       </c>
-      <c r="V13">
-        <v>0.8826110419950534</v>
-      </c>
       <c r="W13">
-        <v>-1.634611134652137</v>
+        <v>0.882611041995053</v>
       </c>
       <c r="X13">
-        <v>1.268457882948276</v>
+        <v>-1.63461113465225</v>
       </c>
       <c r="Y13">
-        <v>0.01501108767676111</v>
+        <v>1.11245614660158</v>
       </c>
       <c r="Z13">
-        <v>-0.3581614796938349</v>
+        <v>3.51443024038988e-06</v>
+      </c>
+      <c r="AA13">
+        <v>0.0150110876767611</v>
+      </c>
+      <c r="AB13">
+        <v>-0.402960279332192</v>
+      </c>
+      <c r="AC13">
+        <v>0.0078125</v>
+      </c>
+      <c r="AD13">
+        <v>3.82389519199657</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>0.08571428571428573</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="C14">
-        <v>0.1795640144730419</v>
+        <v>0.179564014473042</v>
       </c>
       <c r="D14">
-        <v>0.05112781954887218</v>
+        <v>0.0511278195488722</v>
       </c>
       <c r="E14">
-        <v>0.1478480441174808</v>
+        <v>0.147848044117481</v>
       </c>
       <c r="F14">
-        <v>0.1949309737770292</v>
+        <v>0.194930973777029</v>
       </c>
       <c r="G14">
-        <v>0.05112781954887218</v>
+        <v>0.0511278195488722</v>
       </c>
       <c r="H14">
-        <v>0.1428571428571428</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I14">
-        <v>0.2467120181405896</v>
+        <v>0.24671201814059</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.1817243914198106</v>
+        <v>-0.181724391419811</v>
       </c>
       <c r="L14">
-        <v>0.4716862673390449</v>
+        <v>0.193997588609881</v>
       </c>
       <c r="M14">
-        <v>0.2991221988277762</v>
+        <v>0.030946021215847</v>
       </c>
       <c r="N14">
-        <v>0.0260732122901997</v>
+        <v>0.0211188662008968</v>
       </c>
       <c r="O14">
-        <v>0.001539466415307616</v>
+        <v>-0.00209524400316018</v>
       </c>
       <c r="P14">
-        <v>0.003169776390074866</v>
+        <v>0.00489521450690299</v>
       </c>
       <c r="Q14">
-        <v>-0.03517389942985477</v>
+        <v>0.00850677280436031</v>
       </c>
       <c r="R14">
-        <v>0.1486993852682018</v>
+        <v>0.156673540195834</v>
       </c>
       <c r="S14">
-        <v>0.2499581935425119</v>
+        <v>-0.00822222219950051</v>
       </c>
       <c r="T14">
-        <v>2.888268934976789</v>
+        <v>0.0175904381370694</v>
       </c>
       <c r="U14">
-        <v>2.408655141914263</v>
+        <v>0.078226188527841</v>
       </c>
       <c r="V14">
-        <v>0.8683126855322889</v>
+        <v>2.40865514191426</v>
       </c>
       <c r="W14">
-        <v>2.22407908330382</v>
+        <v>0.868312685532289</v>
       </c>
       <c r="X14">
-        <v>0.6039242641074914</v>
+        <v>2.22407908330415</v>
       </c>
       <c r="Y14">
-        <v>0.01441140441326328</v>
+        <v>0.670956461095335</v>
       </c>
       <c r="Z14">
-        <v>0.4139176030768987</v>
+        <v>3.05343144282683e-07</v>
+      </c>
+      <c r="AA14">
+        <v>0.0144114044132633</v>
+      </c>
+      <c r="AB14">
+        <v>0.373055263905222</v>
+      </c>
+      <c r="AC14">
+        <v>0.0048828125</v>
+      </c>
+      <c r="AD14">
+        <v>3.84688448365841</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>0.02568922305764411</v>
+        <v>0.0256892230576441</v>
       </c>
       <c r="C15">
-        <v>0.1473665070372319</v>
+        <v>0.147366507037232</v>
       </c>
       <c r="D15">
-        <v>0.03883572567783095</v>
+        <v>0.0388357256778309</v>
       </c>
       <c r="E15">
-        <v>0.06998052578412543</v>
+        <v>0.0694609925537772</v>
       </c>
       <c r="F15">
-        <v>0.1062130761966523</v>
+        <v>0.106213076196652</v>
       </c>
       <c r="G15">
-        <v>0.03883572567783095</v>
+        <v>0.0388357256778309</v>
       </c>
       <c r="H15">
-        <v>0.05388471177944862</v>
+        <v>0.0538847117794486</v>
       </c>
       <c r="I15">
-        <v>0.2077147711822634</v>
+        <v>0.207714771182263</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.2315303993307199</v>
+        <v>-0.23153039933072</v>
       </c>
       <c r="L15">
-        <v>0.3096850785347343</v>
+        <v>0.129217919046187</v>
       </c>
       <c r="M15">
-        <v>-0.02707400834465611</v>
+        <v>0.0352180784365337</v>
       </c>
       <c r="N15">
-        <v>0.01781597957534981</v>
+        <v>0.000603838438550874</v>
       </c>
       <c r="O15">
-        <v>-0.0005783666902734328</v>
+        <v>-0.000862854304499837</v>
       </c>
       <c r="P15">
-        <v>-0.000297548393679581</v>
+        <v>0.000352267530052026</v>
       </c>
       <c r="Q15">
-        <v>-0.005970740588083973</v>
+        <v>-0.0274263548275778</v>
       </c>
       <c r="R15">
-        <v>0.05175633839857083</v>
+        <v>0.0629677859673895</v>
       </c>
       <c r="S15">
-        <v>0.3078148742548518</v>
+        <v>-0.00462086877859745</v>
       </c>
       <c r="T15">
-        <v>-0.4724632408655297</v>
+        <v>0.00681267305823463</v>
       </c>
       <c r="U15">
-        <v>3.910149171384632</v>
+        <v>0.037545071434319</v>
       </c>
       <c r="V15">
-        <v>0.8860192970855953</v>
+        <v>3.91014917138464</v>
       </c>
       <c r="W15">
-        <v>0.7008710819851158</v>
+        <v>0.886019297085595</v>
       </c>
       <c r="X15">
-        <v>3.47512635591994</v>
+        <v>0.700871081987218</v>
       </c>
       <c r="Y15">
-        <v>0.01173278747765192</v>
+        <v>1.9831463476176</v>
       </c>
       <c r="Z15">
-        <v>-0.1324787939203355</v>
+        <v>7.13897563107773e-08</v>
+      </c>
+      <c r="AA15">
+        <v>0.0117327874776519</v>
+      </c>
+      <c r="AB15">
+        <v>0.0167708093797059</v>
+      </c>
+      <c r="AC15">
+        <v>0.01953125</v>
+      </c>
+      <c r="AD15">
+        <v>3.83789784122026</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>0.02237762237762238</v>
+        <v>0.0223776223776224</v>
       </c>
       <c r="C16">
-        <v>0.1656276623408439</v>
+        <v>0.165627662340844</v>
       </c>
       <c r="D16">
-        <v>0.03494781260406261</v>
+        <v>0.0349478126040626</v>
       </c>
       <c r="E16">
-        <v>0.06889379334112247</v>
+        <v>0.068352885212977</v>
       </c>
       <c r="F16">
-        <v>0.09955574054538889</v>
+        <v>0.0970862771987126</v>
       </c>
       <c r="G16">
         <v>0.0349509366501554</v>
       </c>
       <c r="H16">
-        <v>0.05034965034965035</v>
+        <v>0.0503496503496504</v>
       </c>
       <c r="I16">
-        <v>0.1679116338207247</v>
+        <v>0.167911633820725</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.2246502272519364</v>
+        <v>-0.224650227251936</v>
       </c>
       <c r="L16">
-        <v>0.2775798716872654</v>
+        <v>0.120411157376961</v>
       </c>
       <c r="M16">
-        <v>0.03286689389953239</v>
+        <v>0.278615583184412</v>
       </c>
       <c r="N16">
-        <v>0.00160131401067385</v>
+        <v>-0.0149755656752919</v>
       </c>
       <c r="O16">
-        <v>-0.0004932384668126683</v>
+        <v>-0.000697495971623223</v>
       </c>
       <c r="P16">
-        <v>-0.001252712331937072</v>
+        <v>-0.000242006768582587</v>
       </c>
       <c r="Q16">
-        <v>0.004718519731316142</v>
+        <v>0.00808229369982337</v>
       </c>
       <c r="R16">
-        <v>0.05598209567485343</v>
+        <v>0.204786038621035</v>
       </c>
       <c r="S16">
-        <v>0.01632603513076485</v>
+        <v>-0.00114035763706363</v>
       </c>
       <c r="T16">
-        <v>0.5592098501540115</v>
+        <v>0.0289393308421235</v>
       </c>
       <c r="U16">
-        <v>3.995594732843662</v>
+        <v>0.0347371437838371</v>
       </c>
       <c r="V16">
-        <v>0.8745806647895743</v>
+        <v>3.99559473284366</v>
       </c>
       <c r="W16">
-        <v>-2.833106252187105</v>
+        <v>0.874580664789574</v>
       </c>
       <c r="X16">
-        <v>0.6485015214472533</v>
+        <v>-2.83310625218948</v>
       </c>
       <c r="Y16">
-        <v>0.01446387708797865</v>
+        <v>1.20154532247878</v>
       </c>
       <c r="Z16">
-        <v>-0.5773522542938702</v>
+        <v>1.03706345321604e-07</v>
+      </c>
+      <c r="AA16">
+        <v>0.0144638770879786</v>
+      </c>
+      <c r="AB16">
+        <v>-0.364382473256952</v>
+      </c>
+      <c r="AC16">
+        <v>0.0146484375</v>
+      </c>
+      <c r="AD16">
+        <v>3.82975817773659</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>0.02662570404505888</v>
+        <v>0.0266257040450589</v>
       </c>
       <c r="C17">
-        <v>0.2085928740329342</v>
+        <v>0.208592874032934</v>
       </c>
       <c r="D17">
-        <v>0.03532556450513692</v>
+        <v>0.0353255645051369</v>
       </c>
       <c r="E17">
-        <v>0.08316966342868701</v>
+        <v>0.0843650154643254</v>
       </c>
       <c r="F17">
-        <v>0.1046515319258108</v>
+        <v>0.104651531925811</v>
       </c>
       <c r="G17">
-        <v>0.03536093913445276</v>
+        <v>0.0353609391344528</v>
       </c>
       <c r="H17">
-        <v>0.06144393241167435</v>
+        <v>0.0614439324116743</v>
       </c>
       <c r="I17">
-        <v>0.3814501149087615</v>
+        <v>0.381450114908762</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>-0.2103298926999155</v>
+        <v>-0.210329892699916</v>
       </c>
       <c r="L17">
-        <v>0.2817485463008241</v>
+        <v>0.116732691346814</v>
       </c>
       <c r="M17">
-        <v>0.07773666546429595</v>
+        <v>0.0190550588782117</v>
       </c>
       <c r="N17">
-        <v>-0.0001240013990211175</v>
+        <v>-0.00094922125372712</v>
       </c>
       <c r="O17">
-        <v>0.001121097839720343</v>
+        <v>-0.000833200432622898</v>
       </c>
       <c r="P17">
-        <v>-0.001404029908088531</v>
+        <v>0.00219727757442935</v>
       </c>
       <c r="Q17">
-        <v>0.001268729721293819</v>
+        <v>-0.0212967061048391</v>
       </c>
       <c r="R17">
-        <v>0.08087007627540604</v>
+        <v>0.0806394445207399</v>
       </c>
       <c r="S17">
-        <v>-0.005294015354461219</v>
+        <v>-0.00736634136913713</v>
       </c>
       <c r="T17">
-        <v>1.396597843073655</v>
+        <v>0.00185910767412581</v>
       </c>
       <c r="U17">
-        <v>3.596288110912752</v>
+        <v>0.0310798408397032</v>
       </c>
       <c r="V17">
-        <v>0.9064420575724069</v>
+        <v>3.59628811091275</v>
       </c>
       <c r="W17">
-        <v>1.172644365010747</v>
+        <v>0.906442057572407</v>
       </c>
       <c r="X17">
-        <v>0.9867120346762777</v>
+        <v>1.17264436501067</v>
       </c>
       <c r="Y17">
-        <v>0.01490801120656481</v>
+        <v>0.924802671300506</v>
       </c>
       <c r="Z17">
-        <v>0.5596986519514968</v>
+        <v>1.19512584713704e-11</v>
+      </c>
+      <c r="AA17">
+        <v>0.0149080112065648</v>
+      </c>
+      <c r="AB17">
+        <v>0.349776734858221</v>
+      </c>
+      <c r="AC17">
+        <v>0.015625</v>
+      </c>
+      <c r="AD17">
+        <v>3.83749494991808</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>0.01480932987782303</v>
+        <v>0.014809329877823</v>
       </c>
       <c r="C18">
-        <v>0.1579848481521933</v>
+        <v>0.157984848152193</v>
       </c>
       <c r="D18">
-        <v>0.04653112016125715</v>
+        <v>0.0465311201612571</v>
       </c>
       <c r="E18">
-        <v>0.06571195639459108</v>
+        <v>0.0657119563945911</v>
       </c>
       <c r="F18">
-        <v>0.09735427900636016</v>
+        <v>0.0983420077274808</v>
       </c>
       <c r="G18">
-        <v>0.04653112016125716</v>
+        <v>0.0465311201612572</v>
       </c>
       <c r="H18">
-        <v>0.04590892262125139</v>
+        <v>0.0459089226212514</v>
       </c>
       <c r="I18">
-        <v>0.2357563607563606</v>
+        <v>0.235756360756361</v>
       </c>
       <c r="J18">
-        <v>0.06464895452498659</v>
+        <v>0.0646489545249888</v>
       </c>
       <c r="K18">
-        <v>-0.2372761429886313</v>
+        <v>-0.237276142988631</v>
       </c>
       <c r="L18">
-        <v>0.2588701041258331</v>
+        <v>0.11409491194983</v>
       </c>
       <c r="M18">
-        <v>-0.01438781240578858</v>
+        <v>0.0929459330682707</v>
       </c>
       <c r="N18">
-        <v>0.00229428000061773</v>
+        <v>-0.00396509166652811</v>
       </c>
       <c r="O18">
-        <v>0.0007706334277304457</v>
+        <v>5.84449828782077e-05</v>
       </c>
       <c r="P18">
-        <v>-0.0005824743841667421</v>
+        <v>-0.000178697769647947</v>
       </c>
       <c r="Q18">
-        <v>0.007816459156699136</v>
+        <v>0.00722384044739528</v>
       </c>
       <c r="R18">
-        <v>0.110447534472621</v>
+        <v>0.166480607425059</v>
       </c>
       <c r="S18">
-        <v>0.01564218542519857</v>
+        <v>0.0038234899382274</v>
       </c>
       <c r="T18">
-        <v>-0.2856048343899052</v>
+        <v>0.0115842285137134</v>
       </c>
       <c r="U18">
-        <v>5.363821576747232</v>
+        <v>0.0312250896882756</v>
       </c>
       <c r="V18">
-        <v>0.8901535802675848</v>
+        <v>5.36382157674724</v>
       </c>
       <c r="W18">
-        <v>-0.2469359135860756</v>
+        <v>0.890153580267585</v>
       </c>
       <c r="X18">
-        <v>1.150172417110941</v>
+        <v>-0.246935913586046</v>
       </c>
       <c r="Y18">
-        <v>0.01471395421679726</v>
+        <v>1.15043757269209</v>
       </c>
       <c r="Z18">
-        <v>-0.1549029392937194</v>
+        <v>0.000202013092617169</v>
+      </c>
+      <c r="AA18">
+        <v>0.0147139542167973</v>
+      </c>
+      <c r="AB18">
+        <v>0.0175534088899326</v>
+      </c>
+      <c r="AC18">
+        <v>0.0185546875</v>
+      </c>
+      <c r="AD18">
+        <v>3.83277976202723</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>0.01046423135464231</v>
+        <v>0.0104642313546423</v>
       </c>
       <c r="C19">
-        <v>0.1137728266243656</v>
+        <v>0.113772826624366</v>
       </c>
       <c r="D19">
-        <v>0.04226423992968464</v>
+        <v>0.0422642399296846</v>
       </c>
       <c r="E19">
-        <v>0.05369803290682802</v>
+        <v>0.0536980329068317</v>
       </c>
       <c r="F19">
-        <v>0.1033590825346634</v>
+        <v>0.103244650763905</v>
       </c>
       <c r="G19">
-        <v>0.04226423992968466</v>
+        <v>0.0422642399296847</v>
       </c>
       <c r="H19">
-        <v>0.04033485540334855</v>
+        <v>0.0403348554033486</v>
       </c>
       <c r="I19">
-        <v>0.1892259186779734</v>
+        <v>0.189225918677973</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-0.2359500278841803</v>
+        <v>-0.23595002788418</v>
       </c>
       <c r="L19">
-        <v>0.2850898307963334</v>
+        <v>0.119642464831084</v>
       </c>
       <c r="M19">
-        <v>0.1451071173841713</v>
+        <v>-0.00892678710796571</v>
       </c>
       <c r="N19">
-        <v>-0.004127455012370201</v>
+        <v>0.00646809169964433</v>
       </c>
       <c r="O19">
-        <v>0.000308610129900834</v>
+        <v>0.000145946869210091</v>
       </c>
       <c r="P19">
-        <v>0.001816156961467532</v>
+        <v>1.11605240339749e-05</v>
       </c>
       <c r="Q19">
-        <v>0.009986116539279251</v>
+        <v>-0.00137304206019296</v>
       </c>
       <c r="R19">
-        <v>0.04479814832326545</v>
+        <v>0.0483112918521481</v>
       </c>
       <c r="S19">
-        <v>-0.1036363701889011</v>
+        <v>0.0278271767956478</v>
       </c>
       <c r="T19">
-        <v>2.988681541592867</v>
+        <v>-0.00476584195565021</v>
       </c>
       <c r="U19">
-        <v>6.433888165426242</v>
+        <v>0.0352723021712188</v>
       </c>
       <c r="V19">
-        <v>0.8609976370272912</v>
+        <v>6.43388816542621</v>
       </c>
       <c r="W19">
-        <v>-0.3707399750585582</v>
+        <v>0.860997637027291</v>
       </c>
       <c r="X19">
-        <v>1.068964396639693</v>
+        <v>0.267763637933634</v>
       </c>
       <c r="Y19">
-        <v>0.01468513409158343</v>
+        <v>1.21194834513487</v>
       </c>
       <c r="Z19">
-        <v>0.334896929626224</v>
+        <v>0.000239153467673183</v>
+      </c>
+      <c r="AA19">
+        <v>0.0146851340915834</v>
+      </c>
+      <c r="AB19">
+        <v>0.0960178729578644</v>
+      </c>
+      <c r="AC19">
+        <v>0.0205078125</v>
+      </c>
+      <c r="AD19">
+        <v>3.81277979280286</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20">
-        <v>0.01403508771929825</v>
+        <v>0.0140350877192982</v>
       </c>
       <c r="C20">
-        <v>0.1644600894720469</v>
+        <v>0.164460089472047</v>
       </c>
       <c r="D20">
-        <v>0.03309127548601234</v>
+        <v>0.0330912754860123</v>
       </c>
       <c r="E20">
-        <v>0.07243509163744596</v>
+        <v>0.0714575293344729</v>
       </c>
       <c r="F20">
-        <v>0.104187684027673</v>
+        <v>0.106258330785552</v>
       </c>
       <c r="G20">
-        <v>0.03308940519466835</v>
+        <v>0.0330894051946684</v>
       </c>
       <c r="H20">
-        <v>0.04491228070175438</v>
+        <v>0.0449122807017544</v>
       </c>
       <c r="I20">
-        <v>0.2308048676469729</v>
+        <v>0.230804867646973</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-0.2196469510046859</v>
+        <v>-0.219646951004686</v>
       </c>
       <c r="L20">
-        <v>0.2693419193495852</v>
+        <v>0.112568682370837</v>
       </c>
       <c r="M20">
-        <v>-0.01224343496993411</v>
+        <v>0.164948619352432</v>
       </c>
       <c r="N20">
-        <v>0.00360411467939993</v>
+        <v>-0.00637036695576798</v>
       </c>
       <c r="O20">
-        <v>0.001071561931257979</v>
+        <v>0.000508440798627961</v>
       </c>
       <c r="P20">
-        <v>0.005045713383905954</v>
+        <v>0.00236586626917238</v>
       </c>
       <c r="Q20">
-        <v>0.0006901818641989787</v>
+        <v>0.0108983847692731</v>
       </c>
       <c r="R20">
-        <v>0.1401208602305489</v>
+        <v>0.19695128005031</v>
       </c>
       <c r="S20">
-        <v>0.05628732796847462</v>
+        <v>0.00204659983515829</v>
       </c>
       <c r="T20">
-        <v>-0.243878494774433</v>
+        <v>0.017566758941837</v>
       </c>
       <c r="U20">
-        <v>3.990888243925538</v>
+        <v>0.0307866402290047</v>
       </c>
       <c r="V20">
-        <v>0.8844175166877526</v>
+        <v>3.99088824392553</v>
       </c>
       <c r="W20">
-        <v>1.050756137137452</v>
+        <v>0.884417516687752</v>
       </c>
       <c r="X20">
-        <v>0.9073803908419242</v>
+        <v>0.412252524144743</v>
       </c>
       <c r="Y20">
-        <v>0.01431752714011953</v>
+        <v>0.857412349504984</v>
       </c>
       <c r="Z20">
-        <v>-0.3570510369700597</v>
+        <v>2.18453324649954e-05</v>
+      </c>
+      <c r="AA20">
+        <v>0.0143175271401195</v>
+      </c>
+      <c r="AB20">
+        <v>-0.191663377591152</v>
+      </c>
+      <c r="AC20">
+        <v>0.0205078125</v>
+      </c>
+      <c r="AD20">
+        <v>3.82491359539738</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>0.01086691086691087</v>
+        <v>0.0108669108669109</v>
       </c>
       <c r="C21">
-        <v>0.1920215692603851</v>
+        <v>0.192021569260385</v>
       </c>
       <c r="D21">
-        <v>0.02787724136038743</v>
+        <v>0.0278772413603874</v>
       </c>
       <c r="E21">
-        <v>0.06850236679325852</v>
+        <v>0.0683472895905107</v>
       </c>
       <c r="F21">
-        <v>0.09120983439070943</v>
+        <v>0.0912098343907094</v>
       </c>
       <c r="G21">
-        <v>0.02810772248974496</v>
+        <v>0.028107722489745</v>
       </c>
       <c r="H21">
         <v>0.0402930402930403</v>
       </c>
       <c r="I21">
-        <v>0.2039593459761527</v>
+        <v>0.203959345976153</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-0.2385886708723824</v>
+        <v>-0.238588670872382</v>
       </c>
       <c r="L21">
-        <v>0.2529086942795916</v>
+        <v>0.107268417474048</v>
       </c>
       <c r="M21">
-        <v>0.06948219689035362</v>
+        <v>0.0885583521781662</v>
       </c>
       <c r="N21">
-        <v>-0.001628840945395696</v>
+        <v>-0.00721794951154434</v>
       </c>
       <c r="O21">
-        <v>0.0005013933636602243</v>
+        <v>-0.000641154064293582</v>
       </c>
       <c r="P21">
-        <v>0.001076114119497361</v>
+        <v>-0.000204074060225814</v>
       </c>
       <c r="Q21">
-        <v>-0.002259592806950025</v>
+        <v>-0.00759061287096292</v>
       </c>
       <c r="R21">
-        <v>0.04116147297741727</v>
+        <v>0.0460330820414187</v>
       </c>
       <c r="S21">
-        <v>-0.02602067055626343</v>
+        <v>-0.000528905139156823</v>
       </c>
       <c r="T21">
-        <v>1.594705453322851</v>
+        <v>0.0088547618391552</v>
       </c>
       <c r="U21">
-        <v>3.465935927449423</v>
+        <v>0.0271353542748825</v>
       </c>
       <c r="V21">
-        <v>0.8835806222647808</v>
+        <v>3.46593592744942</v>
       </c>
       <c r="W21">
-        <v>1.145740474131</v>
+        <v>0.883580622264781</v>
       </c>
       <c r="X21">
-        <v>0.9938766221413269</v>
+        <v>1.14574047413131</v>
       </c>
       <c r="Y21">
-        <v>0.01449486677961863</v>
+        <v>1.00021621189333</v>
       </c>
       <c r="Z21">
-        <v>0.1481897413587928</v>
+        <v>0.000153503393914794</v>
+      </c>
+      <c r="AA21">
+        <v>0.0144948667796186</v>
+      </c>
+      <c r="AB21">
+        <v>0.0235412012355485</v>
+      </c>
+      <c r="AC21">
+        <v>0.0234375</v>
+      </c>
+      <c r="AD21">
+        <v>3.81755234370467</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22">
-        <v>0.01269732326698696</v>
+        <v>0.012697323266987</v>
       </c>
       <c r="C22">
-        <v>0.2060349624854702</v>
+        <v>0.20603496248547</v>
       </c>
       <c r="D22">
-        <v>0.02678699713069025</v>
+        <v>0.0267869971306903</v>
       </c>
       <c r="E22">
-        <v>0.06826755094411426</v>
+        <v>0.0681212585453699</v>
       </c>
       <c r="F22">
-        <v>0.08609352860338429</v>
+        <v>0.0855899035511182</v>
       </c>
       <c r="G22">
-        <v>0.02678499638592966</v>
+        <v>0.0267849963859297</v>
       </c>
       <c r="H22">
         <v>0.0464424616792496</v>
       </c>
       <c r="I22">
-        <v>0.2657083149524359</v>
+        <v>0.265708314952436</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-0.2421339171473664</v>
+        <v>-0.242133917147366</v>
       </c>
       <c r="L22">
-        <v>0.2329432940665256</v>
+        <v>0.0994691676848261</v>
       </c>
       <c r="M22">
-        <v>0.1486137971694229</v>
+        <v>0.0200873535865242</v>
       </c>
       <c r="N22">
-        <v>0.01374569928103433</v>
+        <v>-0.00127256527931088</v>
       </c>
       <c r="O22">
-        <v>0.0009576715236644428</v>
+        <v>-0.000544261811439016</v>
       </c>
       <c r="P22">
-        <v>-0.0007709375036357591</v>
+        <v>-0.000204208887692041</v>
       </c>
       <c r="Q22">
-        <v>0.003440330905380064</v>
+        <v>-0.000101436496364253</v>
       </c>
       <c r="R22">
-        <v>0.1363258275258882</v>
+        <v>0.201375406246784</v>
       </c>
       <c r="S22">
-        <v>0.2944569906769082</v>
+        <v>0.00265093974524011</v>
       </c>
       <c r="T22">
-        <v>3.267526936172399</v>
+        <v>0.000585658472167255</v>
       </c>
       <c r="U22">
-        <v>3.205540700360148</v>
+        <v>0.0235099931656236</v>
       </c>
       <c r="V22">
-        <v>0.9060754547074459</v>
+        <v>3.20554070036015</v>
       </c>
       <c r="W22">
-        <v>-1.509786619091843</v>
+        <v>0.906075454707446</v>
       </c>
       <c r="X22">
-        <v>1.149692109029864</v>
+        <v>-1.50978661909173</v>
       </c>
       <c r="Y22">
-        <v>0.01488560739974336</v>
+        <v>1.08262677035413</v>
       </c>
       <c r="Z22">
-        <v>-0.05616234093323264</v>
+        <v>3.85851573563408e-08</v>
+      </c>
+      <c r="AA22">
+        <v>0.0148856073997434</v>
+      </c>
+      <c r="AB22">
+        <v>-0.274788359245504</v>
+      </c>
+      <c r="AC22">
+        <v>0.025390625</v>
+      </c>
+      <c r="AD22">
+        <v>3.80930649786985</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>0.01651376146788991</v>
+        <v>0.0165137614678899</v>
       </c>
       <c r="C23">
-        <v>0.2231314902692147</v>
+        <v>0.223131490269215</v>
       </c>
       <c r="D23">
-        <v>0.01781468206162396</v>
+        <v>0.017814682061624</v>
       </c>
       <c r="E23">
-        <v>0.06278671026422658</v>
+        <v>0.062979172016208</v>
       </c>
       <c r="F23">
-        <v>0.06843658073130875</v>
+        <v>0.0693270581566532</v>
       </c>
       <c r="G23">
         <v>0.0178144179036126</v>
       </c>
       <c r="H23">
-        <v>0.04954128440366973</v>
+        <v>0.0495412844036697</v>
       </c>
       <c r="I23">
-        <v>0.4013018289681674</v>
+        <v>0.401301828968167</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-0.2476203511376958</v>
+        <v>-0.247620351137696</v>
       </c>
       <c r="L23">
-        <v>0.2168643628509338</v>
+        <v>0.0922102210547412</v>
       </c>
       <c r="M23">
-        <v>-0.01726675047724958</v>
+        <v>0.207514762343358</v>
       </c>
       <c r="N23">
-        <v>0.001350575742062618</v>
+        <v>0.00029679440323135</v>
       </c>
       <c r="O23">
-        <v>0.0006820050931171101</v>
+        <v>-8.52494730309718e-06</v>
       </c>
       <c r="P23">
-        <v>-0.0004093493904464515</v>
+        <v>0.000189591476107153</v>
       </c>
       <c r="Q23">
-        <v>0.001960470027935202</v>
+        <v>0.00577127630976756</v>
       </c>
       <c r="R23">
-        <v>0.05994709919429676</v>
+        <v>0.114466679787083</v>
       </c>
       <c r="S23">
-        <v>0.03008517454652901</v>
+        <v>-2.44861356732973e-05</v>
       </c>
       <c r="T23">
-        <v>-0.4063379008058702</v>
+        <v>0.0170365944726222</v>
       </c>
       <c r="U23">
-        <v>2.791202812247024</v>
+        <v>0.0199048112588216</v>
       </c>
       <c r="V23">
+        <v>2.79120281224702</v>
+      </c>
+      <c r="W23">
         <v>0.919218457148041</v>
       </c>
-      <c r="W23">
-        <v>1.125794313370311</v>
-      </c>
       <c r="X23">
-        <v>0.8234666101199579</v>
+        <v>1.12579431337032</v>
       </c>
       <c r="Y23">
-        <v>0.01524957246438115</v>
+        <v>0.843191566922032</v>
       </c>
       <c r="Z23">
-        <v>-0.2618080224329702</v>
+        <v>0.000146185767973351</v>
+      </c>
+      <c r="AA23">
+        <v>0.0152495724643812</v>
+      </c>
+      <c r="AB23">
+        <v>0.269056646323424</v>
+      </c>
+      <c r="AC23">
+        <v>0.0341796875</v>
+      </c>
+      <c r="AD23">
+        <v>3.82818707751805</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>0.01214746856948692</v>
+        <v>0.0121474685694869</v>
       </c>
       <c r="C24">
-        <v>0.1926913182027589</v>
+        <v>0.192691318202759</v>
       </c>
       <c r="D24">
-        <v>0.01941731483475468</v>
+        <v>0.0194173148347547</v>
       </c>
       <c r="E24">
-        <v>0.06172257465962519</v>
+        <v>0.0620148193059091</v>
       </c>
       <c r="F24">
-        <v>0.07374682648163891</v>
+        <v>0.0732996395206396</v>
       </c>
       <c r="G24">
-        <v>0.01941735166095758</v>
+        <v>0.0194173516609576</v>
       </c>
       <c r="H24">
-        <v>0.04451240231056745</v>
+        <v>0.0445124023105674</v>
       </c>
       <c r="I24">
-        <v>0.2783662820360068</v>
+        <v>0.278366282036007</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>-0.2170972576050548</v>
+        <v>-0.217097257605055</v>
       </c>
       <c r="L24">
-        <v>0.2247610309329336</v>
+        <v>0.0939047136058125</v>
       </c>
       <c r="M24">
-        <v>0.01842154093533519</v>
+        <v>-0.00475974549533768</v>
       </c>
       <c r="N24">
-        <v>0.01512505668396989</v>
+        <v>0.000461628051442944</v>
       </c>
       <c r="O24">
-        <v>-0.000110837198679724</v>
+        <v>5.55243645369204e-05</v>
       </c>
       <c r="P24">
-        <v>-0.0007350627490198039</v>
+        <v>0.000429701471792901</v>
       </c>
       <c r="Q24">
-        <v>-0.01478495020891472</v>
+        <v>-0.00404641688595072</v>
       </c>
       <c r="R24">
-        <v>0.05542050400068382</v>
+        <v>0.0659684348696301</v>
       </c>
       <c r="S24">
-        <v>0.3796193772790659</v>
+        <v>-0.0117602064994128</v>
       </c>
       <c r="T24">
-        <v>0.4799045885161422</v>
+        <v>-0.000571831759842222</v>
       </c>
       <c r="U24">
-        <v>3.046970533453458</v>
+        <v>0.0213430417581215</v>
       </c>
       <c r="V24">
-        <v>0.9021014135679224</v>
+        <v>3.04697053345346</v>
       </c>
       <c r="W24">
-        <v>-0.5415382126907458</v>
+        <v>0.902101413567922</v>
       </c>
       <c r="X24">
-        <v>6.366404129637678</v>
+        <v>-0.541538212692925</v>
       </c>
       <c r="Y24">
-        <v>0.01557773325135412</v>
+        <v>7.76865635718985</v>
       </c>
       <c r="Z24">
-        <v>0.4601561530559219</v>
+        <v>1.3108258817125e-05</v>
+      </c>
+      <c r="AA24">
+        <v>0.0155777332513541</v>
+      </c>
+      <c r="AB24">
+        <v>0.321333546247025</v>
+      </c>
+      <c r="AC24">
+        <v>0.029296875</v>
+      </c>
+      <c r="AD24">
+        <v>3.844755621309</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B25">
-        <v>0.01808584285219798</v>
+        <v>0.018085842852198</v>
       </c>
       <c r="C25">
-        <v>0.2223883901663065</v>
+        <v>0.222388390166307</v>
       </c>
       <c r="D25">
-        <v>0.01977693308583054</v>
+        <v>0.0197769330858305</v>
       </c>
       <c r="E25">
-        <v>0.06244941237725895</v>
+        <v>0.0623332980883429</v>
       </c>
       <c r="F25">
-        <v>0.06416387968084362</v>
+        <v>0.0641638796808436</v>
       </c>
       <c r="G25">
-        <v>0.01977768891872284</v>
+        <v>0.0197776889187228</v>
       </c>
       <c r="H25">
-        <v>0.05105572862582208</v>
+        <v>0.0510557286258221</v>
       </c>
       <c r="I25">
-        <v>0.3962302703221176</v>
+        <v>0.396230270322118</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.2084696572069784</v>
+        <v>-0.208469657206978</v>
       </c>
       <c r="L25">
-        <v>0.2120949602322476</v>
+        <v>0.0904849762507486</v>
       </c>
       <c r="M25">
-        <v>0.03537767490875995</v>
+        <v>0.224614942253078</v>
       </c>
       <c r="N25">
-        <v>0.002851484661231962</v>
+        <v>-0.000570593225526194</v>
       </c>
       <c r="O25">
-        <v>-0.0006281199217655915</v>
+        <v>0.000278864368439373</v>
       </c>
       <c r="P25">
-        <v>2.910842131096416e-05</v>
+        <v>0.000110703362582791</v>
       </c>
       <c r="Q25">
-        <v>-0.002327262848822785</v>
+        <v>-0.00129127116281143</v>
       </c>
       <c r="R25">
-        <v>0.08381192947050126</v>
+        <v>0.101503854748689</v>
       </c>
       <c r="S25">
-        <v>0.08138557527537076</v>
+        <v>-0.00049134104222228</v>
       </c>
       <c r="T25">
-        <v>0.8250079461363053</v>
+        <v>0.0199294613302774</v>
       </c>
       <c r="U25">
-        <v>2.890532316112359</v>
+        <v>0.0196467843191011</v>
       </c>
       <c r="V25">
-        <v>0.9186442927462893</v>
+        <v>2.89053231611236</v>
       </c>
       <c r="W25">
-        <v>-0.4011513188676501</v>
+        <v>0.918644292746289</v>
       </c>
       <c r="X25">
-        <v>0.1588508727751467</v>
+        <v>-0.401151318866104</v>
       </c>
       <c r="Y25">
-        <v>0.01515956795643435</v>
+        <v>0.12923718592526</v>
       </c>
       <c r="Z25">
-        <v>-0.5219499392649406</v>
+        <v>0.00168487047392851</v>
+      </c>
+      <c r="AA25">
+        <v>0.0151595679564344</v>
+      </c>
+      <c r="AB25">
+        <v>-0.510994607719957</v>
+      </c>
+      <c r="AC25">
+        <v>0.0302734375</v>
+      </c>
+      <c r="AD25">
+        <v>3.81563502824889</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26">
-        <v>0.01088381851560451</v>
+        <v>0.0108838185156045</v>
       </c>
       <c r="C26">
-        <v>0.1775891868712398</v>
+        <v>0.17758918687124</v>
       </c>
       <c r="D26">
-        <v>0.01778858349133465</v>
+        <v>0.0177885834913347</v>
       </c>
       <c r="E26">
-        <v>0.05466136730216314</v>
+        <v>0.0544276447760792</v>
       </c>
       <c r="F26">
-        <v>0.05862007378230936</v>
+        <v>0.0587299956992259</v>
       </c>
       <c r="G26">
-        <v>0.01778858349133464</v>
+        <v>0.0177885834913346</v>
       </c>
       <c r="H26">
-        <v>0.04169944925255704</v>
+        <v>0.041699449252557</v>
       </c>
       <c r="I26">
-        <v>0.3171799784655573</v>
+        <v>0.317179978465557</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-0.2383662366765821</v>
+        <v>-0.238366236676582</v>
       </c>
       <c r="L26">
-        <v>0.2063721513007605</v>
+        <v>0.0882204293621435</v>
       </c>
       <c r="M26">
-        <v>-0.0006360767297581798</v>
+        <v>0.03992954041196</v>
       </c>
       <c r="N26">
-        <v>-0.0004180012340499094</v>
+        <v>-0.000494513720410819</v>
       </c>
       <c r="O26">
-        <v>-0.0005435997650621182</v>
+        <v>0.000162347087225239</v>
       </c>
       <c r="P26">
-        <v>-0.0004785458849414426</v>
+        <v>0.00024699482605025</v>
       </c>
       <c r="Q26">
-        <v>-0.002026834613582397</v>
+        <v>0.000966534871780003</v>
       </c>
       <c r="R26">
-        <v>0.08046072413104667</v>
+        <v>0.127893868510584</v>
       </c>
       <c r="S26">
-        <v>0.001517039782462326</v>
+        <v>0.000767904111700939</v>
       </c>
       <c r="T26">
-        <v>-0.010548687411952</v>
+        <v>0.0039977648048987</v>
       </c>
       <c r="U26">
-        <v>3.419311700205648</v>
+        <v>0.0190514185111955</v>
       </c>
       <c r="V26">
-        <v>0.9062082561564521</v>
+        <v>3.41931170020565</v>
       </c>
       <c r="W26">
-        <v>0.06500159975740158</v>
+        <v>0.906208256156452</v>
       </c>
       <c r="X26">
-        <v>2.31070909967728</v>
+        <v>0.0503465735170285</v>
       </c>
       <c r="Y26">
-        <v>0.01502562197247527</v>
+        <v>2.31622776483311</v>
       </c>
       <c r="Z26">
-        <v>0.2662131012016882</v>
+        <v>0.00730624832477757</v>
+      </c>
+      <c r="AA26">
+        <v>0.0150256219724753</v>
+      </c>
+      <c r="AB26">
+        <v>0.322798869464243</v>
+      </c>
+      <c r="AC26">
+        <v>0.0341796875</v>
+      </c>
+      <c r="AD26">
+        <v>3.79222596027124</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B27">
-        <v>0.01388691069648198</v>
+        <v>0.013886910696482</v>
       </c>
       <c r="C27">
-        <v>0.1745850057908618</v>
+        <v>0.174585005790862</v>
       </c>
       <c r="D27">
-        <v>0.01919881381496535</v>
+        <v>0.0191988138149654</v>
       </c>
       <c r="E27">
-        <v>0.05145101590169594</v>
+        <v>0.051451015901696</v>
       </c>
       <c r="F27">
-        <v>0.03894266655886923</v>
+        <v>0.0389465104958087</v>
       </c>
       <c r="G27">
-        <v>0.01919881381496536</v>
+        <v>0.0191988138149654</v>
       </c>
       <c r="H27">
-        <v>0.04500783364193135</v>
+        <v>0.0450078336419313</v>
       </c>
       <c r="I27">
-        <v>0.3708137089442864</v>
+        <v>0.370813708944286</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>-0.2007023417525684</v>
+        <v>-0.200702341752568</v>
       </c>
       <c r="L27">
-        <v>0.2128140068676015</v>
+        <v>0.087625886527938</v>
       </c>
       <c r="M27">
-        <v>0.04688057165480632</v>
+        <v>-0.00725356385374923</v>
       </c>
       <c r="N27">
-        <v>-0.0006932713242434394</v>
+        <v>0.00735615556800284</v>
       </c>
       <c r="O27">
-        <v>-0.00137926356270731</v>
+        <v>0.000265507879830548</v>
       </c>
       <c r="P27">
-        <v>-0.0005375359785670434</v>
+        <v>-0.00019846690297056</v>
       </c>
       <c r="Q27">
-        <v>-0.0006051835604903641</v>
+        <v>0.00224276902775421</v>
       </c>
       <c r="R27">
-        <v>0.06079685935365759</v>
+        <v>0.063218198217853</v>
       </c>
       <c r="S27">
-        <v>-0.02752443289855479</v>
+        <v>0.000274326806421042</v>
       </c>
       <c r="T27">
-        <v>1.198625048721483</v>
+        <v>-0.00137286038910302</v>
       </c>
       <c r="U27">
-        <v>3.520661718001982</v>
+        <v>0.0190524137506657</v>
       </c>
       <c r="V27">
-        <v>0.9111044472213162</v>
+        <v>3.52066171800199</v>
       </c>
       <c r="W27">
-        <v>-0.141684921779725</v>
+        <v>0.911104447221316</v>
       </c>
       <c r="X27">
-        <v>0.4879473033866176</v>
+        <v>-0.127029895539097</v>
       </c>
       <c r="Y27">
-        <v>0.01529150292116263</v>
+        <v>0.476635904538478</v>
       </c>
       <c r="Z27">
-        <v>-0.08508821921419735</v>
+        <v>0.0030619163164253</v>
+      </c>
+      <c r="AA27">
+        <v>0.0152915029211626</v>
+      </c>
+      <c r="AB27">
+        <v>-0.22009809592749</v>
+      </c>
+      <c r="AC27">
+        <v>0.04296875</v>
+      </c>
+      <c r="AD27">
+        <v>3.80496079628797</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>0.01317859952793077</v>
+        <v>0.0131785995279308</v>
       </c>
       <c r="C28">
-        <v>0.1915592822768436</v>
+        <v>0.191559282276844</v>
       </c>
       <c r="D28">
-        <v>0.01771012025297408</v>
+        <v>0.0177101202529741</v>
       </c>
       <c r="E28">
         <v>0.0551698745630715</v>
       </c>
       <c r="F28">
-        <v>0.04824384072788754</v>
+        <v>0.0481767022283596</v>
       </c>
       <c r="G28">
-        <v>0.01771012025297407</v>
+        <v>0.0177101202529741</v>
       </c>
       <c r="H28">
-        <v>0.04392866509310255</v>
+        <v>0.0439286650931025</v>
       </c>
       <c r="I28">
-        <v>0.3410700297073012</v>
+        <v>0.341070029707301</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>-0.2653121867974138</v>
+        <v>-0.265312186797414</v>
       </c>
       <c r="L28">
-        <v>0.2048626018407633</v>
+        <v>0.0887316103306379</v>
       </c>
       <c r="M28">
-        <v>-6.62923777814734e-05</v>
+        <v>0.0262775200934503</v>
       </c>
       <c r="N28">
-        <v>0.00281353354938494</v>
+        <v>0.000365720316602484</v>
       </c>
       <c r="O28">
-        <v>-0.0006680520404692913</v>
+        <v>0.000286204460265316</v>
       </c>
       <c r="P28">
-        <v>0.0002607548536893885</v>
+        <v>0.000346508714515779</v>
       </c>
       <c r="Q28">
-        <v>0.003170896958166742</v>
+        <v>0.00241382169134899</v>
       </c>
       <c r="R28">
-        <v>0.07376787017954305</v>
+        <v>0.125748597451701</v>
       </c>
       <c r="S28">
-        <v>0.07162421041154182</v>
+        <v>-3.3057359207981e-06</v>
       </c>
       <c r="T28">
-        <v>-0.01686508895396272</v>
+        <v>0.000932436530171188</v>
       </c>
       <c r="U28">
-        <v>3.158635028565787</v>
+        <v>0.0183683431871502</v>
       </c>
       <c r="V28">
-        <v>0.9187958536226253</v>
+        <v>3.1586350285658</v>
       </c>
       <c r="W28">
-        <v>-0.4913684245470448</v>
+        <v>0.918795853622625</v>
       </c>
       <c r="X28">
-        <v>0.9385556726095534</v>
+        <v>-0.491368424546479</v>
       </c>
       <c r="Y28">
-        <v>0.01577802679407413</v>
+        <v>0.960949684158334</v>
       </c>
       <c r="Z28">
-        <v>-0.2159535103229649</v>
+        <v>0.0077697829280504</v>
+      </c>
+      <c r="AA28">
+        <v>0.0157780267940741</v>
+      </c>
+      <c r="AB28">
+        <v>-0.000329457957895624</v>
+      </c>
+      <c r="AC28">
+        <v>0.0361328125</v>
+      </c>
+      <c r="AD28">
+        <v>3.79077102852501</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>0.01205186880244088</v>
+        <v>0.0120518688024409</v>
       </c>
       <c r="C29">
-        <v>0.2084459500473057</v>
+        <v>0.208445950047306</v>
       </c>
       <c r="D29">
-        <v>0.02186692038635413</v>
+        <v>0.0218669203863541</v>
       </c>
       <c r="E29">
-        <v>0.06493390339322916</v>
+        <v>0.0649339033932291</v>
       </c>
       <c r="F29">
-        <v>0.07462018059734704</v>
+        <v>0.0745568173055648</v>
       </c>
       <c r="G29">
-        <v>0.02186700876248307</v>
+        <v>0.0218670087624831</v>
       </c>
       <c r="H29">
-        <v>0.04576659038901602</v>
+        <v>0.045766590389016</v>
       </c>
       <c r="I29">
-        <v>0.3546744857870176</v>
+        <v>0.354674485787018</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.2352401588833511</v>
+        <v>-0.235240158883351</v>
       </c>
       <c r="L29">
-        <v>0.2199502832622234</v>
+        <v>0.0919262000500517</v>
       </c>
       <c r="M29">
-        <v>-0.05023007515735091</v>
+        <v>-0.0604074529422849</v>
       </c>
       <c r="N29">
-        <v>-0.002250190606349001</v>
+        <v>-0.00373463567842006</v>
       </c>
       <c r="O29">
-        <v>-0.0007268080215957384</v>
+        <v>-0.00014297619278593</v>
       </c>
       <c r="P29">
-        <v>-0.0009595350771727816</v>
+        <v>6.63000509884683e-05</v>
       </c>
       <c r="Q29">
-        <v>0.005352240042202773</v>
+        <v>0.0024225896530567</v>
       </c>
       <c r="R29">
-        <v>0.05267927586098998</v>
+        <v>0.0569319406109201</v>
       </c>
       <c r="S29">
-        <v>-0.06138535940636309</v>
+        <v>-0.00236201810719594</v>
       </c>
       <c r="T29">
-        <v>-1.263701595227302</v>
+        <v>-0.00538450663406779</v>
       </c>
       <c r="U29">
-        <v>3.613975965171366</v>
+        <v>0.0196858965360119</v>
       </c>
       <c r="V29">
-        <v>0.9141052468603382</v>
+        <v>3.61397596517136</v>
       </c>
       <c r="W29">
-        <v>-0.2252971299251379</v>
+        <v>0.914105246860338</v>
       </c>
       <c r="X29">
-        <v>1.193350425126332</v>
+        <v>-0.225297129925249</v>
       </c>
       <c r="Y29">
-        <v>0.01590991683731311</v>
+        <v>1.14105994136533</v>
       </c>
       <c r="Z29">
-        <v>-0.06790674730022236</v>
+        <v>0.00240500558184415</v>
+      </c>
+      <c r="AA29">
+        <v>0.0159099168373131</v>
+      </c>
+      <c r="AB29">
+        <v>0.0998075592621902</v>
+      </c>
+      <c r="AC29">
+        <v>0.0244140625</v>
+      </c>
+      <c r="AD29">
+        <v>3.80378058824374</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>0.01298190401258852</v>
+        <v>0.0129819040125885</v>
       </c>
       <c r="C30">
-        <v>0.1863070964895128</v>
+        <v>0.186307096489513</v>
       </c>
       <c r="D30">
-        <v>0.01752482676218989</v>
+        <v>0.0175248267621899</v>
       </c>
       <c r="E30">
-        <v>0.05878124593608546</v>
+        <v>0.0587941074784044</v>
       </c>
       <c r="F30">
-        <v>0.05733865074220872</v>
+        <v>0.0571860152749577</v>
       </c>
       <c r="G30">
-        <v>0.01752660271017041</v>
+        <v>0.0175266027101704</v>
       </c>
       <c r="H30">
-        <v>0.04642014162077104</v>
+        <v>0.046420141620771</v>
       </c>
       <c r="I30">
-        <v>0.3325380160968897</v>
+        <v>0.33253801609689</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.2661902431254347</v>
+        <v>-0.266190243125435</v>
       </c>
       <c r="L30">
-        <v>0.2033172078509353</v>
+        <v>0.0870162140429561</v>
       </c>
       <c r="M30">
-        <v>0.009676298448402782</v>
+        <v>0.0316158602329973</v>
       </c>
       <c r="N30">
-        <v>0.002473609092298369</v>
+        <v>-0.000262595679516226</v>
       </c>
       <c r="O30">
-        <v>-0.0002539112356367657</v>
+        <v>3.4203311891569e-05</v>
       </c>
       <c r="P30">
-        <v>0.0005738630389039243</v>
+        <v>-0.000100044188708941</v>
       </c>
       <c r="Q30">
-        <v>-0.002211526774236053</v>
+        <v>-0.00231136742223158</v>
       </c>
       <c r="R30">
-        <v>0.08470097322456477</v>
+        <v>0.127829343932729</v>
       </c>
       <c r="S30">
-        <v>0.0658322839296239</v>
+        <v>0.000223891984223637</v>
       </c>
       <c r="T30">
-        <v>0.2196016214264966</v>
+        <v>0.000734866416714012</v>
       </c>
       <c r="U30">
-        <v>3.045335286744027</v>
+        <v>0.0182590798802266</v>
       </c>
       <c r="V30">
-        <v>0.9207654327024754</v>
+        <v>3.04533528674403</v>
       </c>
       <c r="W30">
-        <v>0.2273547925743083</v>
+        <v>0.920765432702475</v>
       </c>
       <c r="X30">
-        <v>0.9460942522359488</v>
+        <v>0.227354792574418</v>
       </c>
       <c r="Y30">
-        <v>0.01572591072480228</v>
+        <v>0.903122873636587</v>
       </c>
       <c r="Z30">
-        <v>0.1970997550444444</v>
+        <v>0.00285838036567034</v>
+      </c>
+      <c r="AA30">
+        <v>0.0157259107248023</v>
+      </c>
+      <c r="AB30">
+        <v>-0.0456979725580989</v>
+      </c>
+      <c r="AC30">
+        <v>0.0302734375</v>
+      </c>
+      <c r="AD30">
+        <v>3.8084083819269</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>0.01560719981772613</v>
+        <v>0.0156071998177261</v>
       </c>
       <c r="C31">
-        <v>0.2140564550854959</v>
+        <v>0.214056455085496</v>
       </c>
       <c r="D31">
-        <v>0.01792823488283512</v>
+        <v>0.0179282348828351</v>
       </c>
       <c r="E31">
-        <v>0.05172069538797174</v>
+        <v>0.0519141811073832</v>
       </c>
       <c r="F31">
-        <v>0.002995462763840423</v>
+        <v>0.00302772907686889</v>
       </c>
       <c r="G31">
-        <v>0.01792823488283513</v>
+        <v>0.0179282348828351</v>
       </c>
       <c r="H31">
-        <v>0.04796081111870586</v>
+        <v>0.0479608111187059</v>
       </c>
       <c r="I31">
-        <v>0.3698858043975464</v>
+        <v>0.369885804397546</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>-0.2591334330378519</v>
+        <v>-0.259133433037852</v>
       </c>
       <c r="L31">
-        <v>0.2041359230113332</v>
+        <v>0.0840703637601073</v>
       </c>
       <c r="M31">
-        <v>-0.007772441845444066</v>
+        <v>0.0700332054375251</v>
       </c>
       <c r="N31">
-        <v>-5.696131927947113e-06</v>
+        <v>-0.00235013255527218</v>
       </c>
       <c r="O31">
-        <v>0.0001951406382525794</v>
+        <v>6.04791523517526e-05</v>
       </c>
       <c r="P31">
-        <v>0.0003557659125498514</v>
+        <v>-0.000124460666902184</v>
       </c>
       <c r="Q31">
-        <v>0.003312970442367773</v>
+        <v>-0.00486252091190169</v>
       </c>
       <c r="R31">
-        <v>0.0427988696544067</v>
+        <v>0.0493840851882358</v>
       </c>
       <c r="S31">
-        <v>-0.008585313839380134</v>
+        <v>-0.00115833280754316</v>
       </c>
       <c r="T31">
-        <v>-0.1960859189741637</v>
+        <v>0.00578959660476242</v>
       </c>
       <c r="U31">
+        <v>0.016710535535438</v>
+      </c>
+      <c r="V31">
         <v>3.07962983421652</v>
       </c>
-      <c r="V31">
-        <v>0.9217531882318637</v>
-      </c>
       <c r="W31">
-        <v>1.303805087916489</v>
+        <v>0.921753188231864</v>
       </c>
       <c r="X31">
-        <v>0.9040902065269132</v>
+        <v>1.30380508791589</v>
       </c>
       <c r="Y31">
-        <v>0.01573377583770933</v>
+        <v>1.04754649712551</v>
       </c>
       <c r="Z31">
-        <v>0.08010555032719111</v>
+        <v>0.000192059814863769</v>
+      </c>
+      <c r="AA31">
+        <v>0.0157337758377093</v>
+      </c>
+      <c r="AB31">
+        <v>0.130760267892626</v>
+      </c>
+      <c r="AC31">
+        <v>0.0361328125</v>
+      </c>
+      <c r="AD31">
+        <v>3.8071649039758</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>0.01240050272308337</v>
+        <v>0.0124005027230834</v>
       </c>
       <c r="C32">
-        <v>0.2218243715173372</v>
+        <v>0.221824371517337</v>
       </c>
       <c r="D32">
-        <v>0.01154823684743373</v>
+        <v>0.0115482368474337</v>
       </c>
       <c r="E32">
-        <v>0.05449894544818899</v>
+        <v>0.0537601693149179</v>
       </c>
       <c r="F32">
-        <v>0.02210778539669757</v>
+        <v>0.0221077853966976</v>
       </c>
       <c r="G32">
-        <v>0.01155012251391753</v>
+        <v>0.0115501225139175</v>
       </c>
       <c r="H32">
-        <v>0.04072056975282782</v>
+        <v>0.0407205697528278</v>
       </c>
       <c r="I32">
-        <v>0.4041097496234355</v>
+        <v>0.404109749623435</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>-0.2800487931612374</v>
+        <v>-0.280048793161237</v>
       </c>
       <c r="L32">
-        <v>0.1827356391509443</v>
+        <v>0.0775730603486869</v>
       </c>
       <c r="M32">
-        <v>-0.0005665026426299959</v>
+        <v>0.104791851865123</v>
       </c>
       <c r="N32">
-        <v>0.001548917948414505</v>
+        <v>-0.000819675324638056</v>
       </c>
       <c r="O32">
-        <v>-0.0002068353306964533</v>
+        <v>0.000159256214325272</v>
       </c>
       <c r="P32">
-        <v>-0.0001194736973157646</v>
+        <v>0.000271836407802475</v>
       </c>
       <c r="Q32">
-        <v>0.0009350228882604127</v>
+        <v>-0.00272005290289856</v>
       </c>
       <c r="R32">
-        <v>0.0417187394197838</v>
+        <v>0.0479604284768984</v>
       </c>
       <c r="S32">
-        <v>0.04427472932555714</v>
+        <v>-0.000905229375929188</v>
       </c>
       <c r="T32">
-        <v>-0.05916371553089607</v>
+        <v>0.00809900595088136</v>
       </c>
       <c r="U32">
-        <v>2.781851919947846</v>
+        <v>0.0139502298953459</v>
       </c>
       <c r="V32">
-        <v>0.9329250770259788</v>
+        <v>2.78185191994785</v>
       </c>
       <c r="W32">
-        <v>-0.4855407041381783</v>
+        <v>0.932925077025979</v>
       </c>
       <c r="X32">
-        <v>1.056162350655356</v>
+        <v>-0.485540704135921</v>
       </c>
       <c r="Y32">
-        <v>0.01563424456196005</v>
+        <v>1.04511848354637</v>
       </c>
       <c r="Z32">
-        <v>-0.2567977053267271</v>
+        <v>0.000569629185680879</v>
+      </c>
+      <c r="AA32">
+        <v>0.0156342445619601</v>
+      </c>
+      <c r="AB32">
+        <v>-0.223864605998953</v>
+      </c>
+      <c r="AC32">
+        <v>0.037109375</v>
+      </c>
+      <c r="AD32">
+        <v>3.81418689533261</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:30">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B33">
-        <v>0.008814589665653494</v>
+        <v>0.00881458966565349</v>
       </c>
       <c r="C33">
-        <v>0.2090190129269349</v>
+        <v>0.209019012926935</v>
       </c>
       <c r="D33">
-        <v>0.01993554092895895</v>
+        <v>0.0199355409289589</v>
       </c>
       <c r="E33">
-        <v>0.04903254906746517</v>
+        <v>0.0490325490674651</v>
       </c>
       <c r="F33">
-        <v>0.05901539314266192</v>
+        <v>0.0588972518677869</v>
       </c>
       <c r="G33">
-        <v>0.01993554092895896</v>
+        <v>0.019935540928959</v>
       </c>
       <c r="H33">
-        <v>0.03465045592705168</v>
+        <v>0.0346504559270517</v>
       </c>
       <c r="I33">
         <v>0.326122897076721</v>
       </c>
       <c r="J33">
-        <v>0.1495153477064051</v>
+        <v>0.149515347706406</v>
       </c>
       <c r="K33">
-        <v>-0.2742315177480996</v>
+        <v>-0.2742315177481</v>
       </c>
       <c r="L33">
-        <v>0.2047887987177348</v>
+        <v>0.0855475548001938</v>
       </c>
       <c r="M33">
-        <v>0.1290938621438412</v>
+        <v>0.01859092047063</v>
       </c>
       <c r="N33">
-        <v>0.002240646015955181</v>
+        <v>-0.00203079337596332</v>
       </c>
       <c r="O33">
-        <v>5.45616399110618e-05</v>
+        <v>-8.81812666674015e-05</v>
       </c>
       <c r="P33">
-        <v>-0.0001479913919954795</v>
+        <v>7.20071033115459e-05</v>
       </c>
       <c r="Q33">
-        <v>0.001104704448037995</v>
+        <v>-0.00343520099455637</v>
       </c>
       <c r="R33">
-        <v>0.03124390265900336</v>
+        <v>0.037869056135451</v>
       </c>
       <c r="S33">
-        <v>0.05925195944266782</v>
+        <v>0.00320993280274739</v>
       </c>
       <c r="T33">
-        <v>3.731649217497133</v>
+        <v>0.0015109435140838</v>
       </c>
       <c r="U33">
-        <v>3.355661448239235</v>
+        <v>0.0173803896449242</v>
       </c>
       <c r="V33">
-        <v>0.9139068245223086</v>
+        <v>3.35566144823923</v>
       </c>
       <c r="W33">
-        <v>-0.7304325097673161</v>
+        <v>0.913906824522309</v>
       </c>
       <c r="X33">
-        <v>0.9898251994244541</v>
+        <v>-0.730432509768249</v>
       </c>
       <c r="Y33">
-        <v>0.01516304229367382</v>
+        <v>0.97605788265735</v>
       </c>
       <c r="Z33">
-        <v>0.4614953312532298</v>
+        <v>0.000263230464808732</v>
+      </c>
+      <c r="AA33">
+        <v>0.0151630422936738</v>
+      </c>
+      <c r="AB33">
+        <v>0.0641733539592529</v>
+      </c>
+      <c r="AC33">
+        <v>0.033203125</v>
+      </c>
+      <c r="AD33">
+        <v>3.81873896811647</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:30">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B34">
-        <v>0.01603641456582633</v>
+        <v>0.0160364145658263</v>
       </c>
       <c r="C34">
-        <v>0.1993062927408137</v>
+        <v>0.199306292740814</v>
       </c>
       <c r="D34">
-        <v>0.02053928222547364</v>
+        <v>0.0205392822254736</v>
       </c>
       <c r="E34">
-        <v>0.05340039267851888</v>
+        <v>0.0535017998707015</v>
       </c>
       <c r="F34">
-        <v>0.04657932885168321</v>
+        <v>0.0471854128935966</v>
       </c>
       <c r="G34">
-        <v>0.02053932448685691</v>
+        <v>0.0205393244868569</v>
       </c>
       <c r="H34">
-        <v>0.04215686274509804</v>
+        <v>0.042156862745098</v>
       </c>
       <c r="I34">
-        <v>0.4756861829954327</v>
+        <v>0.475686182995433</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>-0.1853347956247148</v>
+        <v>-0.185334795624715</v>
       </c>
       <c r="L34">
-        <v>0.2072605549867783</v>
+        <v>0.0884585707709527</v>
       </c>
       <c r="M34">
-        <v>0.02741850485336195</v>
+        <v>0.316087948286608</v>
       </c>
       <c r="N34">
-        <v>0.0007632084625125951</v>
+        <v>-0.00863502926819283</v>
       </c>
       <c r="O34">
-        <v>-0.002585028632111831</v>
+        <v>-0.00112636956008846</v>
       </c>
       <c r="P34">
-        <v>-0.001945602071950876</v>
+        <v>-0.00126169268017536</v>
       </c>
       <c r="Q34">
-        <v>-0.0008581404397858902</v>
+        <v>-0.00557797243033931</v>
       </c>
       <c r="R34">
-        <v>0.06294225850133513</v>
+        <v>0.10433329750914</v>
       </c>
       <c r="S34">
-        <v>0.02350070116474403</v>
+        <v>-0.00102346581884119</v>
       </c>
       <c r="T34">
-        <v>0.6808369102244596</v>
+        <v>0.0222044567620627</v>
       </c>
       <c r="U34">
-        <v>3.636541521133421</v>
+        <v>0.0189010318549635</v>
       </c>
       <c r="V34">
-        <v>0.9191183344037361</v>
+        <v>3.63654152113342</v>
       </c>
       <c r="W34">
-        <v>1.411270499600047</v>
+        <v>0.919118334403736</v>
       </c>
       <c r="X34">
-        <v>0.9630611598744623</v>
+        <v>1.41127049960367</v>
       </c>
       <c r="Y34">
+        <v>0.930130573249988</v>
+      </c>
+      <c r="Z34">
+        <v>0.000171222767980201</v>
+      </c>
+      <c r="AA34">
         <v>0.0152251810372928</v>
       </c>
-      <c r="Z34">
-        <v>-0.07240609025440213</v>
+      <c r="AB34">
+        <v>0.25557955502053</v>
+      </c>
+      <c r="AC34">
+        <v>0.029296875</v>
+      </c>
+      <c r="AD34">
+        <v>3.83308257639504</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:30">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>0.01663902708678828</v>
+        <v>0.0166390270867883</v>
       </c>
       <c r="C35">
-        <v>0.2476207552596231</v>
+        <v>0.247620755259623</v>
       </c>
       <c r="D35">
-        <v>0.01518568869496307</v>
+        <v>0.0151856886949631</v>
       </c>
       <c r="E35">
-        <v>0.05135194626725711</v>
+        <v>0.0515472913628141</v>
       </c>
       <c r="F35">
-        <v>5.681572415738987e-05</v>
+        <v>-0.000569794671398363</v>
       </c>
       <c r="G35">
-        <v>0.01518507485488646</v>
+        <v>0.0151850748548865</v>
       </c>
       <c r="H35">
-        <v>0.04709784411276949</v>
+        <v>0.0470978441127695</v>
       </c>
       <c r="I35">
-        <v>0.4307151388145042</v>
+        <v>0.430715138814504</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>-0.2474287722769162</v>
+        <v>-0.247428772276916</v>
       </c>
       <c r="L35">
-        <v>0.1962056907694267</v>
+        <v>0.0819910924230728</v>
       </c>
       <c r="M35">
-        <v>0.0269299883141363</v>
+        <v>0.03068237850219</v>
       </c>
       <c r="N35">
-        <v>-0.005656429437428103</v>
+        <v>0.000291746108929149</v>
       </c>
       <c r="O35">
-        <v>-0.0005879705303688216</v>
+        <v>-0.000300936872435202</v>
       </c>
       <c r="P35">
-        <v>-0.0003028698931157738</v>
+        <v>-5.58946395386927e-05</v>
       </c>
       <c r="Q35">
-        <v>-0.0005597713514237802</v>
+        <v>-0.000890162984546425</v>
       </c>
       <c r="R35">
-        <v>0.06319254171487883</v>
+        <v>0.0550111757649216</v>
       </c>
       <c r="S35">
-        <v>-0.1339695379698946</v>
+        <v>-0.00388997182206745</v>
       </c>
       <c r="T35">
-        <v>0.7262063202255079</v>
+        <v>0.0023078883030532</v>
       </c>
       <c r="U35">
-        <v>2.943927066216141</v>
+        <v>0.0157131306208994</v>
       </c>
       <c r="V35">
-        <v>0.9312327424326575</v>
+        <v>2.94392706621614</v>
       </c>
       <c r="W35">
-        <v>-0.8241442539107644</v>
+        <v>0.931232742432657</v>
       </c>
       <c r="X35">
-        <v>0.9687441404529172</v>
+        <v>-0.824144253915007</v>
       </c>
       <c r="Y35">
-        <v>0.01541384802806958</v>
+        <v>1.00068258475361</v>
       </c>
       <c r="Z35">
-        <v>-0.3647592137030245</v>
+        <v>0.000269178649452413</v>
+      </c>
+      <c r="AA35">
+        <v>0.0154138480280696</v>
+      </c>
+      <c r="AB35">
+        <v>-0.328327478677368</v>
+      </c>
+      <c r="AC35">
+        <v>0.041015625</v>
+      </c>
+      <c r="AD35">
+        <v>3.83440965366728</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:30">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>0.01293005240373661</v>
+        <v>0.0129300524037366</v>
       </c>
       <c r="C36">
-        <v>0.1959120765055709</v>
+        <v>0.195912076505571</v>
       </c>
       <c r="D36">
-        <v>0.02140674378520902</v>
+        <v>0.021406743785209</v>
       </c>
       <c r="E36">
-        <v>0.05161062362375337</v>
+        <v>0.0516106236237534</v>
       </c>
       <c r="F36">
-        <v>0.02153111735906445</v>
+        <v>0.0213491962539932</v>
       </c>
       <c r="G36">
-        <v>0.02140674378520901</v>
+        <v>0.021406743785209</v>
       </c>
       <c r="H36">
-        <v>0.04636591478696742</v>
+        <v>0.0463659147869674</v>
       </c>
       <c r="I36">
-        <v>0.4755536743813937</v>
+        <v>0.475553674381394</v>
       </c>
       <c r="J36">
-        <v>0.06189769427665191</v>
+        <v>0.0618976942766529</v>
       </c>
       <c r="K36">
-        <v>-0.2720131233103754</v>
+        <v>-0.272013123310375</v>
       </c>
       <c r="L36">
-        <v>0.2011996274316168</v>
+        <v>0.0821851668184392</v>
       </c>
       <c r="M36">
-        <v>0.004296847815919476</v>
+        <v>0.0559894614012065</v>
       </c>
       <c r="N36">
-        <v>0.0006801570822505805</v>
+        <v>-0.000332264435884002</v>
       </c>
       <c r="O36">
-        <v>-2.684706748711248e-05</v>
+        <v>3.36817784214491e-05</v>
       </c>
       <c r="P36">
-        <v>0.0004387742756436696</v>
+        <v>-0.000260509763609908</v>
       </c>
       <c r="Q36">
-        <v>0.001167852862165393</v>
+        <v>-0.00763727936884312</v>
       </c>
       <c r="R36">
-        <v>0.0403714936513744</v>
+        <v>0.0475294539850125</v>
       </c>
       <c r="S36">
-        <v>0.02283826942094905</v>
+        <v>-0.00107001692619933</v>
       </c>
       <c r="T36">
-        <v>0.09822508776102915</v>
+        <v>0.00603153393196942</v>
       </c>
       <c r="U36">
-        <v>4.375804690935854</v>
+        <v>0.0162880443673061</v>
       </c>
       <c r="V36">
+        <v>4.37580469093585</v>
+      </c>
+      <c r="W36">
         <v>0.923288431094891</v>
       </c>
-      <c r="W36">
-        <v>1.517762773879986</v>
-      </c>
       <c r="X36">
-        <v>1.107708419692187</v>
+        <v>1.51776277389951</v>
       </c>
       <c r="Y36">
-        <v>0.01594954567450961</v>
+        <v>1.09515131021017</v>
       </c>
       <c r="Z36">
-        <v>0.3871152372766458</v>
+        <v>0.000241135852437003</v>
+      </c>
+      <c r="AA36">
+        <v>0.0159495456745096</v>
+      </c>
+      <c r="AB36">
+        <v>0.365692238623152</v>
+      </c>
+      <c r="AC36">
+        <v>0.0439453125</v>
+      </c>
+      <c r="AD36">
+        <v>3.8168368357414</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:30">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>0.01937868344820697</v>
+        <v>0.019378683448207</v>
       </c>
       <c r="C37">
-        <v>0.2321631832944384</v>
+        <v>0.232163183294438</v>
       </c>
       <c r="D37">
-        <v>0.01274312541918176</v>
+        <v>0.0127431254191818</v>
       </c>
       <c r="E37">
-        <v>0.05834196187784315</v>
+        <v>0.0587523318305125</v>
       </c>
       <c r="F37">
-        <v>0.003948833017730061</v>
+        <v>0.00423780389347218</v>
       </c>
       <c r="G37">
-        <v>0.01274312541918176</v>
+        <v>0.0127431254191818</v>
       </c>
       <c r="H37">
         <v>0.0628308860253721</v>
       </c>
       <c r="I37">
-        <v>0.4452441168138402</v>
+        <v>0.44524411681384</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>-0.2677560908829469</v>
+        <v>-0.267756090882947</v>
       </c>
       <c r="L37">
-        <v>0.17700872524272</v>
+        <v>0.0747997539298263</v>
       </c>
       <c r="M37">
-        <v>-0.07919696114348876</v>
+        <v>0.0264321856876608</v>
       </c>
       <c r="N37">
-        <v>0.004704240978449676</v>
+        <v>0.00164336919075327</v>
       </c>
       <c r="O37">
-        <v>0.0001727417401142178</v>
+        <v>-0.000110701687033496</v>
       </c>
       <c r="P37">
-        <v>0.0001683183634274911</v>
+        <v>-0.000161746274569621</v>
       </c>
       <c r="Q37">
-        <v>0.002702985420761225</v>
+        <v>-0.000627976589411194</v>
       </c>
       <c r="R37">
-        <v>0.09246878821187011</v>
+        <v>0.119344887479865</v>
       </c>
       <c r="S37">
-        <v>0.1315345380933876</v>
+        <v>-0.00260653349662678</v>
       </c>
       <c r="T37">
-        <v>-1.978703448971755</v>
+        <v>0.00101865834394149</v>
       </c>
       <c r="U37">
-        <v>2.804166639507773</v>
+        <v>0.0134462953898853</v>
       </c>
       <c r="V37">
-        <v>0.9448269244219316</v>
+        <v>2.80416663950777</v>
       </c>
       <c r="W37">
-        <v>0.7096587735033383</v>
+        <v>0.944826924421932</v>
       </c>
       <c r="X37">
-        <v>0.8470500699972738</v>
+        <v>0.709658773423918</v>
       </c>
       <c r="Y37">
-        <v>0.01635592029159499</v>
+        <v>0.842820577380423</v>
       </c>
       <c r="Z37">
-        <v>-0.5246579118946686</v>
+        <v>0.0002874975006983</v>
+      </c>
+      <c r="AA37">
+        <v>0.016355920291595</v>
+      </c>
+      <c r="AB37">
+        <v>-0.258678601564827</v>
+      </c>
+      <c r="AC37">
+        <v>0.0419921875</v>
+      </c>
+      <c r="AD37">
+        <v>3.81846967155479</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:30">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B38">
-        <v>0.01661220043572985</v>
+        <v>0.0166122004357298</v>
       </c>
       <c r="C38">
-        <v>0.2417374066090538</v>
+        <v>0.241737406609054</v>
       </c>
       <c r="D38">
-        <v>0.01704775992106699</v>
+        <v>0.017047759921067</v>
       </c>
       <c r="E38">
         <v>0.0569694381534733</v>
       </c>
       <c r="F38">
-        <v>0.002391639016204552</v>
+        <v>0.00215853526195343</v>
       </c>
       <c r="G38">
-        <v>0.01704773479319866</v>
+        <v>0.0170477347931987</v>
       </c>
       <c r="H38">
-        <v>0.05708061002178649</v>
+        <v>0.0570806100217865</v>
       </c>
       <c r="I38">
-        <v>0.4687905216698665</v>
+        <v>0.468790521669867</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>-0.2713744522640552</v>
+        <v>-0.271374452264055</v>
       </c>
       <c r="L38">
-        <v>0.1886037003932803</v>
+        <v>0.0787726138969321</v>
       </c>
       <c r="M38">
-        <v>0.04829758023793013</v>
+        <v>0.0802457959812404</v>
       </c>
       <c r="N38">
-        <v>0.001741685282895721</v>
+        <v>-0.00120651517141271</v>
       </c>
       <c r="O38">
-        <v>-3.866122725333354e-05</v>
+        <v>0.000128533675438466</v>
       </c>
       <c r="P38">
-        <v>-8.195471407022262e-05</v>
+        <v>-4.96249341204134e-05</v>
       </c>
       <c r="Q38">
-        <v>0.0004872213951011954</v>
+        <v>0.00195120655249725</v>
       </c>
       <c r="R38">
-        <v>0.08045700722774181</v>
+        <v>0.123882204581166</v>
       </c>
       <c r="S38">
-        <v>0.02775486579380619</v>
+        <v>0.000964805915869219</v>
       </c>
       <c r="T38">
-        <v>1.262718583562515</v>
+        <v>0.00632481764669943</v>
       </c>
       <c r="U38">
+        <v>0.0150779031906737</v>
+      </c>
+      <c r="V38">
         <v>3.6031745715791</v>
       </c>
-      <c r="V38">
-        <v>0.9318746216626933</v>
-      </c>
       <c r="W38">
-        <v>-2.07262794079266</v>
+        <v>0.931874621662693</v>
       </c>
       <c r="X38">
-        <v>1.070399178213602</v>
+        <v>-2.07262794073306</v>
       </c>
       <c r="Y38">
-        <v>0.01591722243883538</v>
+        <v>1.07901967771439</v>
       </c>
       <c r="Z38">
-        <v>0.262346845575722</v>
+        <v>0.000468467169356544</v>
+      </c>
+      <c r="AA38">
+        <v>0.0159172224388354</v>
+      </c>
+      <c r="AB38">
+        <v>-0.169026254092682</v>
+      </c>
+      <c r="AC38">
+        <v>0.03515625</v>
+      </c>
+      <c r="AD38">
+        <v>3.81946732081848</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:30">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>0.01178897730621869</v>
+        <v>0.0117889773062187</v>
       </c>
       <c r="C39">
-        <v>0.2024806025169483</v>
+        <v>0.202480602516948</v>
       </c>
       <c r="D39">
-        <v>0.02268791408548454</v>
+        <v>0.0226879140854845</v>
       </c>
       <c r="E39">
-        <v>0.06529250688423466</v>
+        <v>0.0652925068842345</v>
       </c>
       <c r="F39">
-        <v>0.07421380206147929</v>
+        <v>0.0740091211179942</v>
       </c>
       <c r="G39">
-        <v>0.02268799479652385</v>
+        <v>0.0226879947965239</v>
       </c>
       <c r="H39">
-        <v>0.04833480695549661</v>
+        <v>0.0483348069554966</v>
       </c>
       <c r="I39">
-        <v>0.4042982440431339</v>
+        <v>0.404298244043134</v>
       </c>
       <c r="J39">
-        <v>0.07688143251418667</v>
+        <v>0.0768814325141867</v>
       </c>
       <c r="K39">
         <v>-0.26293492117317</v>
       </c>
       <c r="L39">
-        <v>0.2167017825412972</v>
+        <v>0.0887820178338081</v>
       </c>
       <c r="M39">
-        <v>0.03714481083706205</v>
+        <v>0.128446609254586</v>
       </c>
       <c r="N39">
-        <v>0.0004608676498697897</v>
+        <v>-0.00512964478753294</v>
       </c>
       <c r="O39">
-        <v>-6.205102904930125e-06</v>
+        <v>-0.000190323030054013</v>
       </c>
       <c r="P39">
-        <v>-0.0004202032688638427</v>
+        <v>4.59802904840634e-05</v>
       </c>
       <c r="Q39">
-        <v>-0.003174137299267086</v>
+        <v>-0.00176654007401652</v>
       </c>
       <c r="R39">
-        <v>0.04749817405397267</v>
+        <v>0.0501196211267022</v>
       </c>
       <c r="S39">
-        <v>0.02563400395178773</v>
+        <v>-0.00248483716807344</v>
       </c>
       <c r="T39">
-        <v>0.9122871915515888</v>
+        <v>0.0112848135458365</v>
       </c>
       <c r="U39">
-        <v>3.689458213155857</v>
+        <v>0.0183225937202423</v>
       </c>
       <c r="V39">
-        <v>0.9200276843496081</v>
+        <v>3.68945821315586</v>
       </c>
       <c r="W39">
-        <v>-0.4008629970338645</v>
+        <v>0.920027684349608</v>
       </c>
       <c r="X39">
-        <v>1.065475401326033</v>
+        <v>-0.400862997033977</v>
       </c>
       <c r="Y39">
-        <v>0.01557701910050258</v>
+        <v>1.02972252463104</v>
       </c>
       <c r="Z39">
-        <v>0.1983655547679246</v>
+        <v>0.00194248652615906</v>
+      </c>
+      <c r="AA39">
+        <v>0.0155770191005026</v>
+      </c>
+      <c r="AB39">
+        <v>0.220584095003381</v>
+      </c>
+      <c r="AC39">
+        <v>0.0361328125</v>
+      </c>
+      <c r="AD39">
+        <v>3.80787356385504</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:30">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B40">
-        <v>0.01801801801801802</v>
+        <v>0.018018018018018</v>
       </c>
       <c r="C40">
-        <v>0.1915137107459154</v>
+        <v>0.191513710745915</v>
       </c>
       <c r="D40">
-        <v>0.02266403186046043</v>
+        <v>0.0226640318604604</v>
       </c>
       <c r="E40">
-        <v>0.05559531262329597</v>
+        <v>0.055595312623296</v>
       </c>
       <c r="F40">
-        <v>0.04235866796242715</v>
+        <v>0.0423586679624271</v>
       </c>
       <c r="G40">
-        <v>0.02266434686077544</v>
+        <v>0.0226643468607754</v>
       </c>
       <c r="H40">
-        <v>0.05131917631917632</v>
+        <v>0.0513191763191763</v>
       </c>
       <c r="I40">
-        <v>0.3946887109800368</v>
+        <v>0.394688710980037</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>-0.2541258345326272</v>
+        <v>-0.254125834532627</v>
       </c>
       <c r="L40">
-        <v>0.2154276301004608</v>
+        <v>0.0909832060624926</v>
       </c>
       <c r="M40">
-        <v>0.05964299412277049</v>
+        <v>0.250616309747039</v>
       </c>
       <c r="N40">
-        <v>0.0004093661802519667</v>
+        <v>0.00155028140496561</v>
       </c>
       <c r="O40">
-        <v>0.0002399279563500571</v>
+        <v>-0.000261393478587011</v>
       </c>
       <c r="P40">
-        <v>-0.0001589711823733183</v>
+        <v>0.000216831437278949</v>
       </c>
       <c r="Q40">
-        <v>-0.0005296483793742418</v>
+        <v>0.00440324317496581</v>
       </c>
       <c r="R40">
-        <v>0.06381018031056601</v>
+        <v>0.0993288778187636</v>
       </c>
       <c r="S40">
-        <v>0.01867044343628449</v>
+        <v>0.000850168218363377</v>
       </c>
       <c r="T40">
-        <v>1.418405041120228</v>
+        <v>0.0200811162358595</v>
       </c>
       <c r="U40">
-        <v>4.469475476923282</v>
+        <v>0.0198078497597589</v>
       </c>
       <c r="V40">
-        <v>0.9098792667557555</v>
+        <v>4.46947547692328</v>
       </c>
       <c r="W40">
-        <v>1.210246950671301</v>
+        <v>0.909879266755755</v>
       </c>
       <c r="X40">
-        <v>0.9394973031426113</v>
+        <v>1.21024695067678</v>
       </c>
       <c r="Y40">
-        <v>0.01507778238486934</v>
+        <v>0.973687312197382</v>
       </c>
       <c r="Z40">
-        <v>0.2709897473650181</v>
+        <v>0.000386087741512388</v>
+      </c>
+      <c r="AA40">
+        <v>0.0150777823848693</v>
+      </c>
+      <c r="AB40">
+        <v>0.188355555977721</v>
+      </c>
+      <c r="AC40">
+        <v>0.029296875</v>
+      </c>
+      <c r="AD40">
+        <v>3.81151389522706</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:30">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B41">
-        <v>0.02181818181818182</v>
+        <v>0.0218181818181818</v>
       </c>
       <c r="C41">
-        <v>0.1931456379994764</v>
+        <v>0.193145637999476</v>
       </c>
       <c r="D41">
-        <v>0.02248750246666598</v>
+        <v>0.022487502466666</v>
       </c>
       <c r="E41">
-        <v>0.06515133170787699</v>
+        <v>0.0644827299415382</v>
       </c>
       <c r="F41">
-        <v>0.04658576452789918</v>
+        <v>0.0469341559959676</v>
       </c>
       <c r="G41">
-        <v>0.02229723712540128</v>
+        <v>0.0222972371254013</v>
       </c>
       <c r="H41">
-        <v>0.05515151515151515</v>
+        <v>0.0551515151515152</v>
       </c>
       <c r="I41">
-        <v>0.3782846502842403</v>
+        <v>0.37828465028424</v>
       </c>
       <c r="J41">
-        <v>0.048675410971352</v>
+        <v>0.0486754109713483</v>
       </c>
       <c r="K41">
-        <v>-0.2534227724450061</v>
+        <v>-0.253422772445006</v>
       </c>
       <c r="L41">
-        <v>0.2241375535787694</v>
+        <v>0.0978469527358549</v>
       </c>
       <c r="M41">
-        <v>0.04290722803175721</v>
+        <v>-0.209654123155368</v>
       </c>
       <c r="N41">
-        <v>-0.004167169517240843</v>
+        <v>-0.00144769118256236</v>
       </c>
       <c r="O41">
-        <v>-7.927646861400626e-05</v>
+        <v>-0.000226070300511038</v>
       </c>
       <c r="P41">
-        <v>4.740551366227064e-05</v>
+        <v>-0.000577646454422654</v>
       </c>
       <c r="Q41">
-        <v>0.0042877706687894</v>
+        <v>0.00129765111903234</v>
       </c>
       <c r="R41">
-        <v>0.08269713882010542</v>
+        <v>0.107885033835378</v>
       </c>
       <c r="S41">
-        <v>-0.0728663787556849</v>
+        <v>0.000175225427513004</v>
       </c>
       <c r="T41">
-        <v>0.9334599881234453</v>
+        <v>-0.0178656904771365</v>
       </c>
       <c r="U41">
-        <v>4.691676239268101</v>
+        <v>0.0208086912499552</v>
       </c>
       <c r="V41">
+        <v>4.69167623926808</v>
+      </c>
+      <c r="W41">
         <v>0.926206485054065</v>
       </c>
-      <c r="W41">
-        <v>-0.7872057086436414</v>
-      </c>
       <c r="X41">
-        <v>1.021380396988524</v>
+        <v>-0.787205708647987</v>
       </c>
       <c r="Y41">
-        <v>0.01545984849930816</v>
+        <v>1.02465332993941</v>
       </c>
       <c r="Z41">
-        <v>-0.221664518883855</v>
+        <v>2.2766917463745e-05</v>
+      </c>
+      <c r="AA41">
+        <v>0.0154598484993082</v>
+      </c>
+      <c r="AB41">
+        <v>-0.208320114267521</v>
+      </c>
+      <c r="AC41">
+        <v>0.03125</v>
+      </c>
+      <c r="AD41">
+        <v>3.82732673980925</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:30">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B42">
-        <v>0.04939516129032258</v>
+        <v>0.0493951612903226</v>
       </c>
       <c r="C42">
-        <v>0.1337271938440159</v>
+        <v>0.133727193844016</v>
       </c>
       <c r="D42">
-        <v>0.03373655913978493</v>
+        <v>0.0337365591397849</v>
       </c>
       <c r="E42">
-        <v>0.1083963548288886</v>
+        <v>0.108396354828889</v>
       </c>
       <c r="F42">
-        <v>0.1318866923928552</v>
+        <v>0.131886692392855</v>
       </c>
       <c r="G42">
-        <v>0.03373655913978494</v>
+        <v>0.0337365591397849</v>
       </c>
       <c r="H42">
-        <v>0.1411290322580645</v>
+        <v>0.141129032258065</v>
       </c>
       <c r="I42">
-        <v>0.4930104617604618</v>
+        <v>0.493010461760462</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3896,75 +4400,87 @@
         <v>-0.212665141139862</v>
       </c>
       <c r="L42">
-        <v>0.3510438239907313</v>
+        <v>0.144098438026246</v>
       </c>
       <c r="M42">
-        <v>0.1655926296261669</v>
+        <v>0.319084994242975</v>
       </c>
       <c r="N42">
-        <v>-0.006266788939306768</v>
+        <v>-0.0187922875089096</v>
       </c>
       <c r="O42">
-        <v>0.0002271784735854692</v>
+        <v>-0.00132032648906979</v>
       </c>
       <c r="P42">
-        <v>0.003584017133392979</v>
+        <v>0.00140441070499686</v>
       </c>
       <c r="Q42">
-        <v>0.01915842762741678</v>
+        <v>-0.00153504474242536</v>
       </c>
       <c r="R42">
-        <v>0.2635298946064919</v>
+        <v>0.234448315443809</v>
       </c>
       <c r="S42">
-        <v>-0.07348066849333496</v>
+        <v>0.0040634256347744</v>
       </c>
       <c r="T42">
-        <v>1.827190671875996</v>
+        <v>0.046455604723361</v>
       </c>
       <c r="U42">
-        <v>4.159662538164122</v>
+        <v>0.0540328008106288</v>
       </c>
       <c r="V42">
-        <v>0.8746175902812422</v>
+        <v>4.1596625381641</v>
       </c>
       <c r="W42">
-        <v>-0.449599716257388</v>
+        <v>0.874617590281242</v>
       </c>
       <c r="X42">
-        <v>0.6735808927015403</v>
+        <v>-0.449599716258327</v>
       </c>
       <c r="Y42">
-        <v>0.01029272202253293</v>
+        <v>0.538755140050969</v>
       </c>
       <c r="Z42">
-        <v>0.1206404150615337</v>
+        <v>2.49358755226353e-05</v>
+      </c>
+      <c r="AA42">
+        <v>0.0102927220225329</v>
+      </c>
+      <c r="AB42">
+        <v>0.0595082810615768</v>
+      </c>
+      <c r="AC42">
+        <v>0.009765625</v>
+      </c>
+      <c r="AD42">
+        <v>3.8260294594892</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:30">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>0.2</v>
       </c>
       <c r="C43">
-        <v>0.1933333333333333</v>
+        <v>0.193333333333333</v>
       </c>
       <c r="D43">
-        <v>0.05000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E43">
-        <v>0.3067187677916709</v>
+        <v>0.306718767791671</v>
       </c>
       <c r="F43">
-        <v>0.2776657594074821</v>
+        <v>0.277665759407482</v>
       </c>
       <c r="G43">
-        <v>0.05000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H43">
-        <v>0.3333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3973,212 +4489,248 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>-0.1359961158286606</v>
+        <v>-0.135996115828661</v>
       </c>
       <c r="L43">
-        <v>0.8491332188358945</v>
+        <v>0.357026721091483</v>
       </c>
       <c r="M43">
-        <v>0.1760331371873526</v>
+        <v>0.00800104149732324</v>
       </c>
       <c r="N43">
-        <v>0.01160420040879765</v>
+        <v>-0.146128182096001</v>
       </c>
       <c r="O43">
-        <v>-0.001761490377991149</v>
+        <v>0.0796381516219876</v>
       </c>
       <c r="P43">
-        <v>-0.0359473599965106</v>
+        <v>-0.0541317109105162</v>
       </c>
       <c r="Q43">
-        <v>0.09955108441314869</v>
+        <v>-0.26366429741665</v>
       </c>
       <c r="R43">
-        <v>0.3506724044304562</v>
+        <v>0.464313763778366</v>
       </c>
       <c r="S43">
-        <v>0.1894754356360663</v>
+        <v>0.0519081875831864</v>
       </c>
       <c r="T43">
-        <v>0.8826459936660839</v>
+        <v>0.0978793536989378</v>
       </c>
       <c r="U43">
-        <v>1.010204081632653</v>
+        <v>0.284143518518518</v>
       </c>
       <c r="V43">
-        <v>0.7834494900427695</v>
+        <v>1.01020408163265</v>
       </c>
       <c r="W43">
-        <v>-1.729729070253828</v>
+        <v>0.78344949004277</v>
       </c>
       <c r="X43">
-        <v>0.316045913814248</v>
+        <v>-1.72972907025385</v>
       </c>
       <c r="Y43">
-        <v>0.01015115995865831</v>
+        <v>0.39517721302673</v>
       </c>
       <c r="Z43">
-        <v>-0.5205188170670442</v>
+        <v>5.25912455315256e-08</v>
+      </c>
+      <c r="AA43">
+        <v>0.0101511599586583</v>
+      </c>
+      <c r="AB43">
+        <v>-0.451032903701081</v>
+      </c>
+      <c r="AC43">
+        <v>0.00146484375</v>
+      </c>
+      <c r="AD43">
+        <v>3.87401888635133</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:30">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B44">
-        <v>0.1066176470588235</v>
+        <v>0.106617647058824</v>
       </c>
       <c r="C44">
-        <v>0.2342425323011737</v>
+        <v>0.234242532301174</v>
       </c>
       <c r="D44">
-        <v>0.09411764705882353</v>
+        <v>0.0941176470588235</v>
       </c>
       <c r="E44">
-        <v>0.1806737249726774</v>
+        <v>0.176454302290649</v>
       </c>
       <c r="F44">
-        <v>0.2121977001270838</v>
+        <v>0.212197700127084</v>
       </c>
       <c r="G44">
-        <v>0.09411764705882353</v>
+        <v>0.0941176470588235</v>
       </c>
       <c r="H44">
-        <v>0.1617647058823529</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="I44">
-        <v>0.1980392156862745</v>
+        <v>0.198039215686274</v>
       </c>
       <c r="J44">
-        <v>0.1812132645326193</v>
+        <v>0.181213264532619</v>
       </c>
       <c r="K44">
         <v>-0.187750022430375</v>
       </c>
       <c r="L44">
-        <v>0.5208799775223267</v>
+        <v>0.223124114674638</v>
       </c>
       <c r="M44">
-        <v>0.2555979126694397</v>
+        <v>-0.139630918619592</v>
       </c>
       <c r="N44">
-        <v>0.01359021147775616</v>
+        <v>0.0627356484834331</v>
       </c>
       <c r="O44">
-        <v>0.002331960650753434</v>
+        <v>0.00811782131861498</v>
       </c>
       <c r="P44">
-        <v>-0.0009607971608773714</v>
+        <v>-0.00134266599096053</v>
       </c>
       <c r="Q44">
-        <v>-0.01153555897885684</v>
+        <v>-0.00567700311672424</v>
       </c>
       <c r="R44">
-        <v>0.1479314911298323</v>
+        <v>0.17406091175588</v>
       </c>
       <c r="S44">
-        <v>0.09992149995304565</v>
+        <v>0.0159708656361702</v>
       </c>
       <c r="T44">
-        <v>2.196421553522305</v>
+        <v>-0.0127289361667409</v>
       </c>
       <c r="U44">
-        <v>3.215374877888632</v>
+        <v>0.0850416052265945</v>
       </c>
       <c r="V44">
-        <v>0.9053923324059699</v>
+        <v>3.21537487788863</v>
       </c>
       <c r="W44">
-        <v>0.2921887710860013</v>
+        <v>0.90539233240597</v>
       </c>
       <c r="X44">
-        <v>1.888972453025254</v>
+        <v>0.292188771086005</v>
       </c>
       <c r="Y44">
-        <v>0.009734348450849259</v>
+        <v>1.76758460053992</v>
       </c>
       <c r="Z44">
-        <v>0.6127505136814488</v>
+        <v>1.07066946695702e-06</v>
+      </c>
+      <c r="AA44">
+        <v>0.00973434845084926</v>
+      </c>
+      <c r="AB44">
+        <v>0.524390507495271</v>
+      </c>
+      <c r="AC44">
+        <v>0.00390625</v>
+      </c>
+      <c r="AD44">
+        <v>3.8277525485023</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:30">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B45">
-        <v>0.3571428571428572</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="C45">
-        <v>0.4621925693354265</v>
+        <v>0.462192569335426</v>
       </c>
       <c r="D45">
-        <v>0.1333333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="E45">
-        <v>0.3362753741534608</v>
+        <v>0.336275374153461</v>
       </c>
       <c r="F45">
         <v>0.273203084835807</v>
       </c>
       <c r="G45">
-        <v>0.1333333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H45">
-        <v>0.4761904761904762</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="I45">
         <v>0.4</v>
       </c>
       <c r="J45">
-        <v>0.7035395767669481</v>
+        <v>0.703539576766947</v>
       </c>
       <c r="K45">
-        <v>-0.1582356256242465</v>
+        <v>-0.158235625624246</v>
       </c>
       <c r="L45">
-        <v>0.785374104561626</v>
+        <v>0.248032375177223</v>
       </c>
       <c r="M45">
-        <v>0.5854480298891592</v>
+        <v>0.00755159490825181</v>
       </c>
       <c r="N45">
-        <v>-0.1562304859408432</v>
+        <v>-0.109302562809695</v>
       </c>
       <c r="O45">
-        <v>0.01434917947002052</v>
+        <v>0.0441282082584292</v>
       </c>
       <c r="P45">
-        <v>-0.03043381879100308</v>
+        <v>-0.0239347738278528</v>
       </c>
       <c r="Q45">
-        <v>0.08379221022681288</v>
+        <v>0.214419202740658</v>
       </c>
       <c r="R45">
-        <v>0.2998624056657062</v>
+        <v>0.378363492855666</v>
       </c>
       <c r="S45">
-        <v>-0.8356646059741328</v>
+        <v>0.0592481438340701</v>
       </c>
       <c r="T45">
-        <v>3.137460840204055</v>
+        <v>-0.0460760241495873</v>
       </c>
       <c r="U45">
-        <v>1.758978927329758</v>
+        <v>0.121414512996838</v>
       </c>
       <c r="V45">
-        <v>0.8748536177321418</v>
+        <v>1.75897892732976</v>
       </c>
       <c r="W45">
-        <v>0.3035964226978315</v>
+        <v>0.874853617732142</v>
       </c>
       <c r="X45">
-        <v>0.6928246591231628</v>
+        <v>0.303596422697829</v>
       </c>
       <c r="Y45">
-        <v>0.01123214756770773</v>
+        <v>0.736775497724834</v>
       </c>
       <c r="Z45">
-        <v>-0.01560034327440882</v>
+        <v>6.59782917881739e-08</v>
+      </c>
+      <c r="AA45">
+        <v>0.0112321475677077</v>
+      </c>
+      <c r="AB45">
+        <v>-0.0682784326536111</v>
+      </c>
+      <c r="AC45">
+        <v>0.0029296875</v>
+      </c>
+      <c r="AD45">
+        <v>3.84778532135616</v>
       </c>
     </row>
   </sheetData>
